--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,18 @@
     <t>['21', '90+3']</t>
   </si>
   <si>
+    <t>['51', '53']</t>
+  </si>
+  <si>
+    <t>['2', '90+2']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['15', '81']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1200,6 +1212,12 @@
   <si>
     <t>['40', '52']</t>
   </si>
+  <si>
+    <t>['20', '49', '77']</t>
+  </si>
+  <si>
+    <t>['41', '43']</t>
+  </si>
 </sst>
 </file>
 
@@ -1560,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1819,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1900,7 +1918,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ2">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2025,7 +2043,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2437,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2518,7 +2536,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2849,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2927,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.73</v>
@@ -3055,7 +3073,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3136,7 +3154,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ8">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3467,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3548,7 +3566,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3879,7 +3897,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4163,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -4291,7 +4309,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4369,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -4909,7 +4927,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5115,7 +5133,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5193,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5527,7 +5545,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5814,7 +5832,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6020,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -6226,7 +6244,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>2.28</v>
@@ -6763,7 +6781,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6844,7 +6862,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -6969,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7175,7 +7193,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7587,7 +7605,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7793,7 +7811,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8077,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ32">
         <v>0.87</v>
@@ -8205,7 +8223,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8283,7 +8301,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8411,7 +8429,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8823,7 +8841,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8901,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1.8</v>
@@ -9029,7 +9047,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9107,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -9235,7 +9253,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9316,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.52</v>
@@ -9647,7 +9665,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9728,7 +9746,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9853,7 +9871,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10265,7 +10283,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10677,7 +10695,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10758,7 +10776,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ45">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR45">
         <v>1.24</v>
@@ -11089,7 +11107,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11295,7 +11313,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11373,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>0.87</v>
@@ -11501,7 +11519,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11707,7 +11725,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11785,7 +11803,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11991,7 +12009,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ51">
         <v>1.07</v>
@@ -12119,7 +12137,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12200,7 +12218,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ52">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -12325,7 +12343,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12403,7 +12421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ53">
         <v>0.67</v>
@@ -12531,7 +12549,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12737,7 +12755,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12943,7 +12961,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13149,7 +13167,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13230,7 +13248,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13355,7 +13373,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13436,7 +13454,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ58">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13642,7 +13660,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13767,7 +13785,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13973,7 +13991,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14385,7 +14403,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14591,7 +14609,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15003,7 +15021,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15493,10 +15511,10 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15621,7 +15639,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15699,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ69">
         <v>0.93</v>
@@ -15827,7 +15845,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15905,7 +15923,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>1.6</v>
@@ -16033,7 +16051,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16317,7 +16335,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16445,7 +16463,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16526,7 +16544,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -17063,7 +17081,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17269,7 +17287,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17350,7 +17368,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR77">
         <v>1.26</v>
@@ -17762,7 +17780,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ79">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -18093,7 +18111,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18505,7 +18523,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18586,7 +18604,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>2.13</v>
@@ -18711,7 +18729,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18789,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84">
         <v>0.07000000000000001</v>
@@ -18917,7 +18935,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19123,7 +19141,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19201,7 +19219,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86">
         <v>1.07</v>
@@ -19329,7 +19347,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19407,10 +19425,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.33</v>
@@ -19535,7 +19553,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19616,7 +19634,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ88">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.59</v>
@@ -19741,7 +19759,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19947,7 +19965,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20231,7 +20249,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
         <v>0.93</v>
@@ -20440,7 +20458,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20977,7 +20995,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21389,7 +21407,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21595,7 +21613,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22291,10 +22309,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ101">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22497,10 +22515,10 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ102">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.42</v>
@@ -22831,7 +22849,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23243,7 +23261,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23324,7 +23342,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.62</v>
@@ -23449,7 +23467,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23733,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
         <v>0.07000000000000001</v>
@@ -23939,7 +23957,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ109">
         <v>1.14</v>
@@ -24067,7 +24085,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24479,7 +24497,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24685,7 +24703,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24891,7 +24909,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25097,7 +25115,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25303,7 +25321,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25509,7 +25527,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25715,7 +25733,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25921,7 +25939,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26127,7 +26145,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26205,10 +26223,10 @@
         <v>1.57</v>
       </c>
       <c r="AP120">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26333,7 +26351,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26539,7 +26557,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26617,10 +26635,10 @@
         <v>1.43</v>
       </c>
       <c r="AP122">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ122">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR122">
         <v>1.56</v>
@@ -26823,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>0.07000000000000001</v>
@@ -27157,7 +27175,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27238,7 +27256,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ125">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.52</v>
@@ -27363,7 +27381,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27441,10 +27459,10 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ126">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27853,7 +27871,7 @@
         <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ128">
         <v>1.2</v>
@@ -27981,7 +27999,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28187,7 +28205,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28599,7 +28617,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28805,7 +28823,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29011,7 +29029,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29423,7 +29441,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29629,7 +29647,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29835,7 +29853,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30119,10 +30137,10 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR139">
         <v>1.49</v>
@@ -30247,7 +30265,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30328,7 +30346,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ140">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR140">
         <v>1.64</v>
@@ -30534,7 +30552,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ141">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR141">
         <v>1.46</v>
@@ -30659,7 +30677,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30740,7 +30758,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ142">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.45</v>
@@ -31277,7 +31295,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31355,7 +31373,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145">
         <v>1.5</v>
@@ -31483,7 +31501,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31561,7 +31579,7 @@
         <v>1.13</v>
       </c>
       <c r="AP146">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ146">
         <v>1.13</v>
@@ -31689,7 +31707,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32307,7 +32325,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32591,7 +32609,7 @@
         <v>0.25</v>
       </c>
       <c r="AP151">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ151">
         <v>0.73</v>
@@ -33131,7 +33149,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33337,7 +33355,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -34033,7 +34051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
         <v>1.13</v>
@@ -34573,7 +34591,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34779,7 +34797,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34857,7 +34875,7 @@
         <v>2.44</v>
       </c>
       <c r="AP162">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -34985,7 +35003,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35063,7 +35081,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ163">
         <v>1.13</v>
@@ -35191,7 +35209,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35397,7 +35415,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35478,7 +35496,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ165">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35809,7 +35827,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35890,7 +35908,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ167">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR167">
         <v>1.61</v>
@@ -36093,7 +36111,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168">
         <v>1.2</v>
@@ -36221,7 +36239,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36302,7 +36320,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR169">
         <v>1.39</v>
@@ -36427,7 +36445,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36714,7 +36732,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ171">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR171">
         <v>1.56</v>
@@ -36839,7 +36857,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37123,7 +37141,7 @@
         <v>1.33</v>
       </c>
       <c r="AP173">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ173">
         <v>0.87</v>
@@ -37251,7 +37269,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37329,7 +37347,7 @@
         <v>1.5</v>
       </c>
       <c r="AP174">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ174">
         <v>1.13</v>
@@ -37663,7 +37681,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37741,7 +37759,7 @@
         <v>1.89</v>
       </c>
       <c r="AP176">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
         <v>1.8</v>
@@ -37869,7 +37887,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38075,7 +38093,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38153,7 +38171,7 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ178">
         <v>2</v>
@@ -38281,7 +38299,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38693,7 +38711,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38899,7 +38917,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -38980,7 +38998,7 @@
         <v>1</v>
       </c>
       <c r="AQ182">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -39311,7 +39329,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39517,7 +39535,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39723,7 +39741,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39804,7 +39822,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ186">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR186">
         <v>1.53</v>
@@ -40010,7 +40028,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ187">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR187">
         <v>1.44</v>
@@ -40341,7 +40359,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40628,7 +40646,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ190">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -41243,7 +41261,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ193">
         <v>1.07</v>
@@ -41655,7 +41673,7 @@
         <v>1.2</v>
       </c>
       <c r="AP195">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ195">
         <v>0.87</v>
@@ -41783,7 +41801,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42070,7 +42088,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ197">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR197">
         <v>1.21</v>
@@ -42273,7 +42291,7 @@
         <v>1.45</v>
       </c>
       <c r="AP198">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ198">
         <v>1.13</v>
@@ -42479,7 +42497,7 @@
         <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ199">
         <v>0.67</v>
@@ -42688,7 +42706,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ200">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR200">
         <v>1.78</v>
@@ -43019,7 +43037,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43637,7 +43655,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43718,7 +43736,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ205">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR205">
         <v>1.73</v>
@@ -43924,7 +43942,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ206">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR206">
         <v>1.8</v>
@@ -44461,7 +44479,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44745,7 +44763,7 @@
         <v>0.91</v>
       </c>
       <c r="AP210">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ210">
         <v>0.93</v>
@@ -44951,7 +44969,7 @@
         <v>0.67</v>
       </c>
       <c r="AP211">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ211">
         <v>0.67</v>
@@ -45285,7 +45303,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45363,7 +45381,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ213">
         <v>1.14</v>
@@ -45697,7 +45715,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45981,7 +45999,7 @@
         <v>1.5</v>
       </c>
       <c r="AP216">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ216">
         <v>1.6</v>
@@ -46190,7 +46208,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ217">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR217">
         <v>1.68</v>
@@ -46521,7 +46539,7 @@
         <v>240</v>
       </c>
       <c r="P219" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q219">
         <v>2.85</v>
@@ -46933,7 +46951,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47345,7 +47363,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47426,7 +47444,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ223">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR223">
         <v>1.8</v>
@@ -47551,7 +47569,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47757,7 +47775,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48044,7 +48062,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ226">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR226">
         <v>1.26</v>
@@ -48169,7 +48187,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48247,7 +48265,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ227">
         <v>1.14</v>
@@ -48375,7 +48393,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48456,7 +48474,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ228">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -48581,7 +48599,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48659,7 +48677,7 @@
         <v>0.83</v>
       </c>
       <c r="AP229">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ229">
         <v>0.93</v>
@@ -48787,7 +48805,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -48868,7 +48886,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ230">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49483,7 +49501,7 @@
         <v>1.25</v>
       </c>
       <c r="AP233">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ233">
         <v>1.07</v>
@@ -49817,7 +49835,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49895,7 +49913,7 @@
         <v>1.38</v>
       </c>
       <c r="AP235">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ235">
         <v>1.6</v>
@@ -50641,7 +50659,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50847,7 +50865,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51134,7 +51152,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ241">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR241">
         <v>1.78</v>
@@ -51259,7 +51277,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -52083,7 +52101,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52161,10 +52179,10 @@
         <v>1.69</v>
       </c>
       <c r="AP246">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ246">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR246">
         <v>1.42</v>
@@ -52701,7 +52719,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52779,10 +52797,10 @@
         <v>1.62</v>
       </c>
       <c r="AP249">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ249">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR249">
         <v>1.55</v>
@@ -52907,7 +52925,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53194,7 +53212,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ251">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR251">
         <v>1.84</v>
@@ -53319,7 +53337,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53397,7 +53415,7 @@
         <v>0.71</v>
       </c>
       <c r="AP252">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ252">
         <v>0.67</v>
@@ -53603,7 +53621,7 @@
         <v>0.08</v>
       </c>
       <c r="AP253">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ253">
         <v>0.07000000000000001</v>
@@ -53731,7 +53749,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54143,7 +54161,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54761,7 +54779,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -54967,7 +54985,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55048,7 +55066,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ260">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR260">
         <v>1.76</v>
@@ -55536,6 +55554,830 @@
       </c>
       <c r="BP262">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7491758</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45766.33333333334</v>
+      </c>
+      <c r="F263">
+        <v>30</v>
+      </c>
+      <c r="G263" t="s">
+        <v>86</v>
+      </c>
+      <c r="H263" t="s">
+        <v>80</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>263</v>
+      </c>
+      <c r="P263" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q263">
+        <v>3.1</v>
+      </c>
+      <c r="R263">
+        <v>2.3</v>
+      </c>
+      <c r="S263">
+        <v>3.1</v>
+      </c>
+      <c r="T263">
+        <v>1.33</v>
+      </c>
+      <c r="U263">
+        <v>3.25</v>
+      </c>
+      <c r="V263">
+        <v>2.5</v>
+      </c>
+      <c r="W263">
+        <v>1.5</v>
+      </c>
+      <c r="X263">
+        <v>6.5</v>
+      </c>
+      <c r="Y263">
+        <v>1.11</v>
+      </c>
+      <c r="Z263">
+        <v>2.68</v>
+      </c>
+      <c r="AA263">
+        <v>3.5</v>
+      </c>
+      <c r="AB263">
+        <v>2.66</v>
+      </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
+      <c r="AE263">
+        <v>0</v>
+      </c>
+      <c r="AF263">
+        <v>0</v>
+      </c>
+      <c r="AG263">
+        <v>1.67</v>
+      </c>
+      <c r="AH263">
+        <v>2</v>
+      </c>
+      <c r="AI263">
+        <v>1.53</v>
+      </c>
+      <c r="AJ263">
+        <v>2.38</v>
+      </c>
+      <c r="AK263">
+        <v>0</v>
+      </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
+      <c r="AM263">
+        <v>0</v>
+      </c>
+      <c r="AN263">
+        <v>1.36</v>
+      </c>
+      <c r="AO263">
+        <v>1.43</v>
+      </c>
+      <c r="AP263">
+        <v>1.47</v>
+      </c>
+      <c r="AQ263">
+        <v>1.33</v>
+      </c>
+      <c r="AR263">
+        <v>1.4</v>
+      </c>
+      <c r="AS263">
+        <v>1.41</v>
+      </c>
+      <c r="AT263">
+        <v>2.81</v>
+      </c>
+      <c r="AU263">
+        <v>6</v>
+      </c>
+      <c r="AV263">
+        <v>3</v>
+      </c>
+      <c r="AW263">
+        <v>14</v>
+      </c>
+      <c r="AX263">
+        <v>10</v>
+      </c>
+      <c r="AY263">
+        <v>29</v>
+      </c>
+      <c r="AZ263">
+        <v>15</v>
+      </c>
+      <c r="BA263">
+        <v>6</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>9</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7491756</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45766.33333333334</v>
+      </c>
+      <c r="F264">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>81</v>
+      </c>
+      <c r="H264" t="s">
+        <v>85</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>2</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>3</v>
+      </c>
+      <c r="N264">
+        <v>5</v>
+      </c>
+      <c r="O264" t="s">
+        <v>264</v>
+      </c>
+      <c r="P264" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q264">
+        <v>4</v>
+      </c>
+      <c r="R264">
+        <v>2.3</v>
+      </c>
+      <c r="S264">
+        <v>2.6</v>
+      </c>
+      <c r="T264">
+        <v>1.33</v>
+      </c>
+      <c r="U264">
+        <v>3.25</v>
+      </c>
+      <c r="V264">
+        <v>2.5</v>
+      </c>
+      <c r="W264">
+        <v>1.5</v>
+      </c>
+      <c r="X264">
+        <v>6</v>
+      </c>
+      <c r="Y264">
+        <v>1.13</v>
+      </c>
+      <c r="Z264">
+        <v>2.94</v>
+      </c>
+      <c r="AA264">
+        <v>3.62</v>
+      </c>
+      <c r="AB264">
+        <v>2.39</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>0</v>
+      </c>
+      <c r="AF264">
+        <v>0</v>
+      </c>
+      <c r="AG264">
+        <v>1.61</v>
+      </c>
+      <c r="AH264">
+        <v>2.05</v>
+      </c>
+      <c r="AI264">
+        <v>1.57</v>
+      </c>
+      <c r="AJ264">
+        <v>2.25</v>
+      </c>
+      <c r="AK264">
+        <v>0</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>0</v>
+      </c>
+      <c r="AN264">
+        <v>1.86</v>
+      </c>
+      <c r="AO264">
+        <v>1.57</v>
+      </c>
+      <c r="AP264">
+        <v>1.73</v>
+      </c>
+      <c r="AQ264">
+        <v>1.67</v>
+      </c>
+      <c r="AR264">
+        <v>1.52</v>
+      </c>
+      <c r="AS264">
+        <v>1.51</v>
+      </c>
+      <c r="AT264">
+        <v>3.03</v>
+      </c>
+      <c r="AU264">
+        <v>3</v>
+      </c>
+      <c r="AV264">
+        <v>6</v>
+      </c>
+      <c r="AW264">
+        <v>1</v>
+      </c>
+      <c r="AX264">
+        <v>10</v>
+      </c>
+      <c r="AY264">
+        <v>4</v>
+      </c>
+      <c r="AZ264">
+        <v>20</v>
+      </c>
+      <c r="BA264">
+        <v>3</v>
+      </c>
+      <c r="BB264">
+        <v>7</v>
+      </c>
+      <c r="BC264">
+        <v>10</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>0</v>
+      </c>
+      <c r="BG264">
+        <v>0</v>
+      </c>
+      <c r="BH264">
+        <v>0</v>
+      </c>
+      <c r="BI264">
+        <v>0</v>
+      </c>
+      <c r="BJ264">
+        <v>0</v>
+      </c>
+      <c r="BK264">
+        <v>0</v>
+      </c>
+      <c r="BL264">
+        <v>0</v>
+      </c>
+      <c r="BM264">
+        <v>0</v>
+      </c>
+      <c r="BN264">
+        <v>0</v>
+      </c>
+      <c r="BO264">
+        <v>0</v>
+      </c>
+      <c r="BP264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7491755</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45766.33333333334</v>
+      </c>
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>82</v>
+      </c>
+      <c r="H265" t="s">
+        <v>83</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>265</v>
+      </c>
+      <c r="P265" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q265">
+        <v>2.3</v>
+      </c>
+      <c r="R265">
+        <v>2.38</v>
+      </c>
+      <c r="S265">
+        <v>4.5</v>
+      </c>
+      <c r="T265">
+        <v>1.3</v>
+      </c>
+      <c r="U265">
+        <v>3.4</v>
+      </c>
+      <c r="V265">
+        <v>2.5</v>
+      </c>
+      <c r="W265">
+        <v>1.5</v>
+      </c>
+      <c r="X265">
+        <v>6</v>
+      </c>
+      <c r="Y265">
+        <v>1.13</v>
+      </c>
+      <c r="Z265">
+        <v>1.79</v>
+      </c>
+      <c r="AA265">
+        <v>4.2</v>
+      </c>
+      <c r="AB265">
+        <v>4.2</v>
+      </c>
+      <c r="AC265">
+        <v>0</v>
+      </c>
+      <c r="AD265">
+        <v>0</v>
+      </c>
+      <c r="AE265">
+        <v>2.04</v>
+      </c>
+      <c r="AF265">
+        <v>1.84</v>
+      </c>
+      <c r="AG265">
+        <v>1.6</v>
+      </c>
+      <c r="AH265">
+        <v>2.1</v>
+      </c>
+      <c r="AI265">
+        <v>1.62</v>
+      </c>
+      <c r="AJ265">
+        <v>2.2</v>
+      </c>
+      <c r="AK265">
+        <v>0</v>
+      </c>
+      <c r="AL265">
+        <v>0</v>
+      </c>
+      <c r="AM265">
+        <v>0</v>
+      </c>
+      <c r="AN265">
+        <v>1.73</v>
+      </c>
+      <c r="AO265">
+        <v>1.79</v>
+      </c>
+      <c r="AP265">
+        <v>1.69</v>
+      </c>
+      <c r="AQ265">
+        <v>1.73</v>
+      </c>
+      <c r="AR265">
+        <v>1.55</v>
+      </c>
+      <c r="AS265">
+        <v>1.26</v>
+      </c>
+      <c r="AT265">
+        <v>2.81</v>
+      </c>
+      <c r="AU265">
+        <v>6</v>
+      </c>
+      <c r="AV265">
+        <v>3</v>
+      </c>
+      <c r="AW265">
+        <v>20</v>
+      </c>
+      <c r="AX265">
+        <v>4</v>
+      </c>
+      <c r="AY265">
+        <v>34</v>
+      </c>
+      <c r="AZ265">
+        <v>7</v>
+      </c>
+      <c r="BA265">
+        <v>7</v>
+      </c>
+      <c r="BB265">
+        <v>0</v>
+      </c>
+      <c r="BC265">
+        <v>7</v>
+      </c>
+      <c r="BD265">
+        <v>0</v>
+      </c>
+      <c r="BE265">
+        <v>0</v>
+      </c>
+      <c r="BF265">
+        <v>0</v>
+      </c>
+      <c r="BG265">
+        <v>0</v>
+      </c>
+      <c r="BH265">
+        <v>0</v>
+      </c>
+      <c r="BI265">
+        <v>0</v>
+      </c>
+      <c r="BJ265">
+        <v>0</v>
+      </c>
+      <c r="BK265">
+        <v>0</v>
+      </c>
+      <c r="BL265">
+        <v>0</v>
+      </c>
+      <c r="BM265">
+        <v>0</v>
+      </c>
+      <c r="BN265">
+        <v>0</v>
+      </c>
+      <c r="BO265">
+        <v>0</v>
+      </c>
+      <c r="BP265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7491754</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45766.64583333334</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>75</v>
+      </c>
+      <c r="H266" t="s">
+        <v>84</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>2</v>
+      </c>
+      <c r="K266">
+        <v>3</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>4</v>
+      </c>
+      <c r="O266" t="s">
+        <v>266</v>
+      </c>
+      <c r="P266" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q266">
+        <v>3.6</v>
+      </c>
+      <c r="R266">
+        <v>2.4</v>
+      </c>
+      <c r="S266">
+        <v>2.6</v>
+      </c>
+      <c r="T266">
+        <v>1.29</v>
+      </c>
+      <c r="U266">
+        <v>3.5</v>
+      </c>
+      <c r="V266">
+        <v>2.25</v>
+      </c>
+      <c r="W266">
+        <v>1.57</v>
+      </c>
+      <c r="X266">
+        <v>5.5</v>
+      </c>
+      <c r="Y266">
+        <v>1.14</v>
+      </c>
+      <c r="Z266">
+        <v>2.96</v>
+      </c>
+      <c r="AA266">
+        <v>3.78</v>
+      </c>
+      <c r="AB266">
+        <v>2.32</v>
+      </c>
+      <c r="AC266">
+        <v>1.01</v>
+      </c>
+      <c r="AD266">
+        <v>21</v>
+      </c>
+      <c r="AE266">
+        <v>1.12</v>
+      </c>
+      <c r="AF266">
+        <v>6.32</v>
+      </c>
+      <c r="AG266">
+        <v>1.58</v>
+      </c>
+      <c r="AH266">
+        <v>2.38</v>
+      </c>
+      <c r="AI266">
+        <v>1.5</v>
+      </c>
+      <c r="AJ266">
+        <v>2.5</v>
+      </c>
+      <c r="AK266">
+        <v>1.62</v>
+      </c>
+      <c r="AL266">
+        <v>1.22</v>
+      </c>
+      <c r="AM266">
+        <v>1.4</v>
+      </c>
+      <c r="AN266">
+        <v>1.43</v>
+      </c>
+      <c r="AO266">
+        <v>1.71</v>
+      </c>
+      <c r="AP266">
+        <v>1.4</v>
+      </c>
+      <c r="AQ266">
+        <v>1.67</v>
+      </c>
+      <c r="AR266">
+        <v>1.68</v>
+      </c>
+      <c r="AS266">
+        <v>1.65</v>
+      </c>
+      <c r="AT266">
+        <v>3.33</v>
+      </c>
+      <c r="AU266">
+        <v>4</v>
+      </c>
+      <c r="AV266">
+        <v>13</v>
+      </c>
+      <c r="AW266">
+        <v>9</v>
+      </c>
+      <c r="AX266">
+        <v>13</v>
+      </c>
+      <c r="AY266">
+        <v>14</v>
+      </c>
+      <c r="AZ266">
+        <v>29</v>
+      </c>
+      <c r="BA266">
+        <v>4</v>
+      </c>
+      <c r="BB266">
+        <v>2</v>
+      </c>
+      <c r="BC266">
+        <v>6</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>0</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>0</v>
+      </c>
+      <c r="BI266">
+        <v>0</v>
+      </c>
+      <c r="BJ266">
+        <v>0</v>
+      </c>
+      <c r="BK266">
+        <v>0</v>
+      </c>
+      <c r="BL266">
+        <v>0</v>
+      </c>
+      <c r="BM266">
+        <v>0</v>
+      </c>
+      <c r="BN266">
+        <v>0</v>
+      </c>
+      <c r="BO266">
+        <v>0</v>
+      </c>
+      <c r="BP266">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,21 @@
     <t>['15', '81']</t>
   </si>
   <si>
+    <t>['10', '56']</t>
+  </si>
+  <si>
+    <t>['28', '51', '72']</t>
+  </si>
+  <si>
+    <t>['1', '83', '90+2']</t>
+  </si>
+  <si>
+    <t>['11', '45+1', '56']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1156,9 +1171,6 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1217,6 +1229,12 @@
   </si>
   <si>
     <t>['41', '43']</t>
+  </si>
+  <si>
+    <t>['46', '50', '84']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1855,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1915,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -2043,7 +2061,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2121,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.2</v>
@@ -2455,7 +2473,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2739,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2867,7 +2885,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3073,7 +3091,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3151,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>1.73</v>
@@ -3360,7 +3378,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3485,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3563,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3897,7 +3915,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3978,7 +3996,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4309,7 +4327,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4802,7 +4820,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4927,7 +4945,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5133,7 +5151,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5420,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5545,7 +5563,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5623,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -6653,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>0.73</v>
@@ -6781,7 +6799,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6859,7 +6877,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ26">
         <v>1.73</v>
@@ -6987,7 +7005,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7065,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>1.2</v>
@@ -7193,7 +7211,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7271,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -7480,7 +7498,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7605,7 +7623,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7686,7 +7704,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7811,7 +7829,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7892,7 +7910,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ31">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -8223,7 +8241,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8429,7 +8447,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8510,7 +8528,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8841,7 +8859,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9047,7 +9065,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9253,7 +9271,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9537,7 +9555,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.13</v>
@@ -9665,7 +9683,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9871,7 +9889,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9949,7 +9967,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -10155,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
         <v>0.73</v>
@@ -10283,7 +10301,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10361,7 +10379,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -10695,7 +10713,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11107,7 +11125,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11188,7 +11206,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11313,7 +11331,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11519,7 +11537,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11725,7 +11743,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11806,7 +11824,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -12012,7 +12030,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12137,7 +12155,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12343,7 +12361,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12549,7 +12567,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12627,7 +12645,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12755,7 +12773,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12836,7 +12854,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12961,7 +12979,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13039,7 +13057,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ56">
         <v>0.73</v>
@@ -13167,7 +13185,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13373,7 +13391,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13785,7 +13803,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13863,7 +13881,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13991,7 +14009,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14403,7 +14421,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14609,7 +14627,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14687,7 +14705,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -15021,7 +15039,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15099,7 +15117,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>0.87</v>
@@ -15305,7 +15323,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -15639,7 +15657,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15720,7 +15738,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ69">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR69">
         <v>0.99</v>
@@ -15845,7 +15863,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15926,7 +15944,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -16051,7 +16069,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16129,10 +16147,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ71">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16338,7 +16356,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16463,7 +16481,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16747,7 +16765,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>1.8</v>
@@ -17081,7 +17099,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17287,7 +17305,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17983,7 +18001,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ80">
         <v>1.13</v>
@@ -18111,7 +18129,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18523,7 +18541,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18601,7 +18619,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83">
         <v>1.67</v>
@@ -18729,7 +18747,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18935,7 +18953,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19013,10 +19031,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR85">
         <v>1.57</v>
@@ -19141,7 +19159,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19222,7 +19240,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -19347,7 +19365,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19553,7 +19571,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19759,7 +19777,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19837,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
         <v>0.67</v>
@@ -19965,7 +19983,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20043,10 +20061,10 @@
         <v>0.25</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -20252,7 +20270,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR91">
         <v>1.66</v>
@@ -20661,7 +20679,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ93">
         <v>1.13</v>
@@ -20995,7 +21013,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21407,7 +21425,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21613,7 +21631,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22721,10 +22739,10 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.96</v>
@@ -22849,7 +22867,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22927,10 +22945,10 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -23133,7 +23151,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -23261,7 +23279,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23467,7 +23485,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23545,10 +23563,10 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ107">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23960,7 +23978,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ109">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -24085,7 +24103,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24497,7 +24515,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24703,7 +24721,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24909,7 +24927,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25115,7 +25133,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25321,7 +25339,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25527,7 +25545,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25733,7 +25751,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25939,7 +25957,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26017,10 +26035,10 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ119">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR119">
         <v>1.77</v>
@@ -26145,7 +26163,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26351,7 +26369,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26429,10 +26447,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ121">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR121">
         <v>1.92</v>
@@ -26557,7 +26575,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27047,10 +27065,10 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ124">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR124">
         <v>1.46</v>
@@ -27175,7 +27193,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27253,7 +27271,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>1.67</v>
@@ -27381,7 +27399,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27665,10 +27683,10 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ127">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27999,7 +28017,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28205,7 +28223,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28492,7 +28510,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28617,7 +28635,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28823,7 +28841,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29029,7 +29047,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29441,7 +29459,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29647,7 +29665,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29725,7 +29743,7 @@
         <v>0.14</v>
       </c>
       <c r="AP137">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ137">
         <v>0.07000000000000001</v>
@@ -29853,7 +29871,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29934,7 +29952,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR138">
         <v>1.37</v>
@@ -30265,7 +30283,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30343,7 +30361,7 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ140">
         <v>1.67</v>
@@ -30549,7 +30567,7 @@
         <v>1.43</v>
       </c>
       <c r="AP141">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ141">
         <v>1.67</v>
@@ -30677,7 +30695,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30755,7 +30773,7 @@
         <v>1.75</v>
       </c>
       <c r="AP142">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1.33</v>
@@ -30961,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ143">
         <v>1.2</v>
@@ -31170,7 +31188,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ144">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31295,7 +31313,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31501,7 +31519,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31707,7 +31725,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31994,7 +32012,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ148">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.74</v>
@@ -32325,7 +32343,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33024,7 +33042,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ153">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR153">
         <v>1.76</v>
@@ -33149,7 +33167,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33355,7 +33373,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33642,7 +33660,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ156">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR156">
         <v>1.25</v>
@@ -34260,7 +34278,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.15</v>
@@ -34591,7 +34609,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34672,7 +34690,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR161">
         <v>1.53</v>
@@ -34797,7 +34815,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35003,7 +35021,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35209,7 +35227,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35287,7 +35305,7 @@
         <v>0.22</v>
       </c>
       <c r="AP164">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ164">
         <v>0.73</v>
@@ -35415,7 +35433,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35699,7 +35717,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ166">
         <v>1.5</v>
@@ -35827,7 +35845,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35905,7 +35923,7 @@
         <v>2.13</v>
       </c>
       <c r="AP167">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167">
         <v>1.73</v>
@@ -36239,7 +36257,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36445,7 +36463,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36523,7 +36541,7 @@
         <v>0.13</v>
       </c>
       <c r="AP170">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ170">
         <v>0.07000000000000001</v>
@@ -36729,7 +36747,7 @@
         <v>1.56</v>
       </c>
       <c r="AP171">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ171">
         <v>1.67</v>
@@ -36857,7 +36875,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -36938,7 +36956,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ172">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR172">
         <v>1.67</v>
@@ -37269,7 +37287,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37556,7 +37574,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ175">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37681,7 +37699,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37887,7 +37905,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38093,7 +38111,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38299,7 +38317,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38380,7 +38398,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.64</v>
@@ -38586,7 +38604,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ180">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38711,7 +38729,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38792,7 +38810,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ181">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR181">
         <v>1.76</v>
@@ -38917,7 +38935,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39329,7 +39347,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39407,7 +39425,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ184">
         <v>1.5</v>
@@ -39535,7 +39553,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39613,7 +39631,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ185">
         <v>1.2</v>
@@ -39741,7 +39759,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39819,7 +39837,7 @@
         <v>1.7</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ186">
         <v>1.67</v>
@@ -40231,7 +40249,7 @@
         <v>1.3</v>
       </c>
       <c r="AP188">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ188">
         <v>1.13</v>
@@ -40359,7 +40377,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40437,7 +40455,7 @@
         <v>0.3</v>
       </c>
       <c r="AP189">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ189">
         <v>0.73</v>
@@ -40849,7 +40867,7 @@
         <v>2</v>
       </c>
       <c r="AP191">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ191">
         <v>1.8</v>
@@ -41058,7 +41076,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ192">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -41264,7 +41282,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ193">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.5</v>
@@ -41470,7 +41488,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ194">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR194">
         <v>1.74</v>
@@ -41801,7 +41819,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -41882,7 +41900,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR196">
         <v>1.57</v>
@@ -43037,7 +43055,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43115,7 +43133,7 @@
         <v>2.55</v>
       </c>
       <c r="AP202">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ202">
         <v>2</v>
@@ -43321,7 +43339,7 @@
         <v>1.5</v>
       </c>
       <c r="AP203">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ203">
         <v>1.5</v>
@@ -43655,7 +43673,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43939,7 +43957,7 @@
         <v>2.1</v>
       </c>
       <c r="AP206">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ206">
         <v>1.73</v>
@@ -44145,7 +44163,7 @@
         <v>1.18</v>
       </c>
       <c r="AP207">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ207">
         <v>1.13</v>
@@ -44479,7 +44497,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44560,7 +44578,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ209">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -44766,7 +44784,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ210">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR210">
         <v>1.67</v>
@@ -45303,7 +45321,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45384,7 +45402,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ213">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR213">
         <v>1.64</v>
@@ -45587,7 +45605,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ214">
         <v>1.8</v>
@@ -45715,7 +45733,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45793,7 +45811,7 @@
         <v>1.09</v>
       </c>
       <c r="AP215">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ215">
         <v>0.87</v>
@@ -46002,7 +46020,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ216">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR216">
         <v>1.49</v>
@@ -46411,7 +46429,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ218">
         <v>1.13</v>
@@ -46539,7 +46557,7 @@
         <v>240</v>
       </c>
       <c r="P219" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="Q219">
         <v>2.85</v>
@@ -46951,7 +46969,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47235,7 +47253,7 @@
         <v>1.67</v>
       </c>
       <c r="AP222">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ222">
         <v>1.8</v>
@@ -47363,7 +47381,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47569,7 +47587,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47775,7 +47793,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48187,7 +48205,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48268,7 +48286,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ227">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -48393,7 +48411,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48471,7 +48489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP228">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ228">
         <v>1.67</v>
@@ -48599,7 +48617,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48680,7 +48698,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ229">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR229">
         <v>1.5</v>
@@ -48805,7 +48823,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49295,7 +49313,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ232">
         <v>0.87</v>
@@ -49504,7 +49522,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ233">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR233">
         <v>1.6</v>
@@ -49707,7 +49725,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP234">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ234">
         <v>0.67</v>
@@ -49835,7 +49853,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49916,7 +49934,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ235">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR235">
         <v>1.38</v>
@@ -50325,7 +50343,7 @@
         <v>0.92</v>
       </c>
       <c r="AP237">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ237">
         <v>0.87</v>
@@ -50659,7 +50677,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50865,7 +50883,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51277,7 +51295,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51973,10 +51991,10 @@
         <v>1.23</v>
       </c>
       <c r="AP245">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR245">
         <v>1.63</v>
@@ -52101,7 +52119,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52385,10 +52403,10 @@
         <v>1.15</v>
       </c>
       <c r="AP247">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ247">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR247">
         <v>1.63</v>
@@ -52594,7 +52612,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ248">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR248">
         <v>1.56</v>
@@ -52719,7 +52737,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52925,7 +52943,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53003,10 +53021,10 @@
         <v>1.5</v>
       </c>
       <c r="AP250">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ250">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR250">
         <v>1.83</v>
@@ -53209,7 +53227,7 @@
         <v>1.54</v>
       </c>
       <c r="AP251">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ251">
         <v>1.33</v>
@@ -53337,7 +53355,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53749,7 +53767,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54161,7 +54179,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54651,7 +54669,7 @@
         <v>2.14</v>
       </c>
       <c r="AP258">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ258">
         <v>2</v>
@@ -54779,7 +54797,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -54985,7 +55003,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55809,7 +55827,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56221,7 +56239,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56377,6 +56395,1036 @@
         <v>0</v>
       </c>
       <c r="BP266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7491759</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45767.35416666666</v>
+      </c>
+      <c r="F267">
+        <v>30</v>
+      </c>
+      <c r="G267" t="s">
+        <v>78</v>
+      </c>
+      <c r="H267" t="s">
+        <v>73</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>3</v>
+      </c>
+      <c r="N267">
+        <v>5</v>
+      </c>
+      <c r="O267" t="s">
+        <v>267</v>
+      </c>
+      <c r="P267" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q267">
+        <v>3.75</v>
+      </c>
+      <c r="R267">
+        <v>2.2</v>
+      </c>
+      <c r="S267">
+        <v>2.88</v>
+      </c>
+      <c r="T267">
+        <v>1.36</v>
+      </c>
+      <c r="U267">
+        <v>3</v>
+      </c>
+      <c r="V267">
+        <v>2.75</v>
+      </c>
+      <c r="W267">
+        <v>1.4</v>
+      </c>
+      <c r="X267">
+        <v>8</v>
+      </c>
+      <c r="Y267">
+        <v>1.08</v>
+      </c>
+      <c r="Z267">
+        <v>3.35</v>
+      </c>
+      <c r="AA267">
+        <v>3.51</v>
+      </c>
+      <c r="AB267">
+        <v>2.21</v>
+      </c>
+      <c r="AC267">
+        <v>1.05</v>
+      </c>
+      <c r="AD267">
+        <v>9</v>
+      </c>
+      <c r="AE267">
+        <v>1.28</v>
+      </c>
+      <c r="AF267">
+        <v>3.5</v>
+      </c>
+      <c r="AG267">
+        <v>1.87</v>
+      </c>
+      <c r="AH267">
+        <v>1.94</v>
+      </c>
+      <c r="AI267">
+        <v>1.67</v>
+      </c>
+      <c r="AJ267">
+        <v>2.1</v>
+      </c>
+      <c r="AK267">
+        <v>1.67</v>
+      </c>
+      <c r="AL267">
+        <v>1.25</v>
+      </c>
+      <c r="AM267">
+        <v>1.33</v>
+      </c>
+      <c r="AN267">
+        <v>1.14</v>
+      </c>
+      <c r="AO267">
+        <v>1.6</v>
+      </c>
+      <c r="AP267">
+        <v>1.07</v>
+      </c>
+      <c r="AQ267">
+        <v>1.69</v>
+      </c>
+      <c r="AR267">
+        <v>1.44</v>
+      </c>
+      <c r="AS267">
+        <v>1.58</v>
+      </c>
+      <c r="AT267">
+        <v>3.02</v>
+      </c>
+      <c r="AU267">
+        <v>4</v>
+      </c>
+      <c r="AV267">
+        <v>6</v>
+      </c>
+      <c r="AW267">
+        <v>7</v>
+      </c>
+      <c r="AX267">
+        <v>5</v>
+      </c>
+      <c r="AY267">
+        <v>15</v>
+      </c>
+      <c r="AZ267">
+        <v>12</v>
+      </c>
+      <c r="BA267">
+        <v>10</v>
+      </c>
+      <c r="BB267">
+        <v>3</v>
+      </c>
+      <c r="BC267">
+        <v>13</v>
+      </c>
+      <c r="BD267">
+        <v>0</v>
+      </c>
+      <c r="BE267">
+        <v>0</v>
+      </c>
+      <c r="BF267">
+        <v>0</v>
+      </c>
+      <c r="BG267">
+        <v>0</v>
+      </c>
+      <c r="BH267">
+        <v>0</v>
+      </c>
+      <c r="BI267">
+        <v>0</v>
+      </c>
+      <c r="BJ267">
+        <v>0</v>
+      </c>
+      <c r="BK267">
+        <v>0</v>
+      </c>
+      <c r="BL267">
+        <v>0</v>
+      </c>
+      <c r="BM267">
+        <v>0</v>
+      </c>
+      <c r="BN267">
+        <v>0</v>
+      </c>
+      <c r="BO267">
+        <v>0</v>
+      </c>
+      <c r="BP267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7491757</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45767.35416666666</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>74</v>
+      </c>
+      <c r="H268" t="s">
+        <v>79</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>268</v>
+      </c>
+      <c r="P268" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q268">
+        <v>1.83</v>
+      </c>
+      <c r="R268">
+        <v>2.6</v>
+      </c>
+      <c r="S268">
+        <v>6.5</v>
+      </c>
+      <c r="T268">
+        <v>1.29</v>
+      </c>
+      <c r="U268">
+        <v>3.5</v>
+      </c>
+      <c r="V268">
+        <v>2.25</v>
+      </c>
+      <c r="W268">
+        <v>1.57</v>
+      </c>
+      <c r="X268">
+        <v>5.5</v>
+      </c>
+      <c r="Y268">
+        <v>1.14</v>
+      </c>
+      <c r="Z268">
+        <v>1.38</v>
+      </c>
+      <c r="AA268">
+        <v>5.5</v>
+      </c>
+      <c r="AB268">
+        <v>7.9</v>
+      </c>
+      <c r="AC268">
+        <v>1.01</v>
+      </c>
+      <c r="AD268">
+        <v>15</v>
+      </c>
+      <c r="AE268">
+        <v>1.17</v>
+      </c>
+      <c r="AF268">
+        <v>5</v>
+      </c>
+      <c r="AG268">
+        <v>1.52</v>
+      </c>
+      <c r="AH268">
+        <v>2.43</v>
+      </c>
+      <c r="AI268">
+        <v>1.73</v>
+      </c>
+      <c r="AJ268">
+        <v>2</v>
+      </c>
+      <c r="AK268">
+        <v>1.09</v>
+      </c>
+      <c r="AL268">
+        <v>1.13</v>
+      </c>
+      <c r="AM268">
+        <v>2.88</v>
+      </c>
+      <c r="AN268">
+        <v>1.14</v>
+      </c>
+      <c r="AO268">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP268">
+        <v>1.27</v>
+      </c>
+      <c r="AQ268">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR268">
+        <v>1.79</v>
+      </c>
+      <c r="AS268">
+        <v>1.25</v>
+      </c>
+      <c r="AT268">
+        <v>3.04</v>
+      </c>
+      <c r="AU268">
+        <v>7</v>
+      </c>
+      <c r="AV268">
+        <v>6</v>
+      </c>
+      <c r="AW268">
+        <v>6</v>
+      </c>
+      <c r="AX268">
+        <v>12</v>
+      </c>
+      <c r="AY268">
+        <v>15</v>
+      </c>
+      <c r="AZ268">
+        <v>20</v>
+      </c>
+      <c r="BA268">
+        <v>5</v>
+      </c>
+      <c r="BB268">
+        <v>6</v>
+      </c>
+      <c r="BC268">
+        <v>11</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>0</v>
+      </c>
+      <c r="BG268">
+        <v>0</v>
+      </c>
+      <c r="BH268">
+        <v>0</v>
+      </c>
+      <c r="BI268">
+        <v>0</v>
+      </c>
+      <c r="BJ268">
+        <v>0</v>
+      </c>
+      <c r="BK268">
+        <v>0</v>
+      </c>
+      <c r="BL268">
+        <v>0</v>
+      </c>
+      <c r="BM268">
+        <v>0</v>
+      </c>
+      <c r="BN268">
+        <v>0</v>
+      </c>
+      <c r="BO268">
+        <v>0</v>
+      </c>
+      <c r="BP268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7491752</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45767.35416666666</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>76</v>
+      </c>
+      <c r="H269" t="s">
+        <v>72</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>4</v>
+      </c>
+      <c r="O269" t="s">
+        <v>269</v>
+      </c>
+      <c r="P269" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q269">
+        <v>2.75</v>
+      </c>
+      <c r="R269">
+        <v>2.25</v>
+      </c>
+      <c r="S269">
+        <v>3.6</v>
+      </c>
+      <c r="T269">
+        <v>1.33</v>
+      </c>
+      <c r="U269">
+        <v>3.25</v>
+      </c>
+      <c r="V269">
+        <v>2.63</v>
+      </c>
+      <c r="W269">
+        <v>1.44</v>
+      </c>
+      <c r="X269">
+        <v>6.5</v>
+      </c>
+      <c r="Y269">
+        <v>1.11</v>
+      </c>
+      <c r="Z269">
+        <v>2.23</v>
+      </c>
+      <c r="AA269">
+        <v>3.68</v>
+      </c>
+      <c r="AB269">
+        <v>3.19</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>9.5</v>
+      </c>
+      <c r="AE269">
+        <v>1.25</v>
+      </c>
+      <c r="AF269">
+        <v>3.8</v>
+      </c>
+      <c r="AG269">
+        <v>1.6</v>
+      </c>
+      <c r="AH269">
+        <v>2.1</v>
+      </c>
+      <c r="AI269">
+        <v>1.62</v>
+      </c>
+      <c r="AJ269">
+        <v>2.2</v>
+      </c>
+      <c r="AK269">
+        <v>1.33</v>
+      </c>
+      <c r="AL269">
+        <v>1.25</v>
+      </c>
+      <c r="AM269">
+        <v>1.67</v>
+      </c>
+      <c r="AN269">
+        <v>1.57</v>
+      </c>
+      <c r="AO269">
+        <v>1.14</v>
+      </c>
+      <c r="AP269">
+        <v>1.67</v>
+      </c>
+      <c r="AQ269">
+        <v>1.07</v>
+      </c>
+      <c r="AR269">
+        <v>1.63</v>
+      </c>
+      <c r="AS269">
+        <v>1.46</v>
+      </c>
+      <c r="AT269">
+        <v>3.09</v>
+      </c>
+      <c r="AU269">
+        <v>8</v>
+      </c>
+      <c r="AV269">
+        <v>6</v>
+      </c>
+      <c r="AW269">
+        <v>5</v>
+      </c>
+      <c r="AX269">
+        <v>8</v>
+      </c>
+      <c r="AY269">
+        <v>16</v>
+      </c>
+      <c r="AZ269">
+        <v>15</v>
+      </c>
+      <c r="BA269">
+        <v>4</v>
+      </c>
+      <c r="BB269">
+        <v>8</v>
+      </c>
+      <c r="BC269">
+        <v>12</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7491751</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45767.35416666666</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>70</v>
+      </c>
+      <c r="H270" t="s">
+        <v>87</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>3</v>
+      </c>
+      <c r="L270">
+        <v>3</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>4</v>
+      </c>
+      <c r="O270" t="s">
+        <v>270</v>
+      </c>
+      <c r="P270" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q270">
+        <v>2.2</v>
+      </c>
+      <c r="R270">
+        <v>2.4</v>
+      </c>
+      <c r="S270">
+        <v>5</v>
+      </c>
+      <c r="T270">
+        <v>1.3</v>
+      </c>
+      <c r="U270">
+        <v>3.4</v>
+      </c>
+      <c r="V270">
+        <v>2.5</v>
+      </c>
+      <c r="W270">
+        <v>1.5</v>
+      </c>
+      <c r="X270">
+        <v>6</v>
+      </c>
+      <c r="Y270">
+        <v>1.13</v>
+      </c>
+      <c r="Z270">
+        <v>1.66</v>
+      </c>
+      <c r="AA270">
+        <v>4.3</v>
+      </c>
+      <c r="AB270">
+        <v>5.1</v>
+      </c>
+      <c r="AC270">
+        <v>1.04</v>
+      </c>
+      <c r="AD270">
+        <v>10</v>
+      </c>
+      <c r="AE270">
+        <v>1.2</v>
+      </c>
+      <c r="AF270">
+        <v>4.33</v>
+      </c>
+      <c r="AG270">
+        <v>1.67</v>
+      </c>
+      <c r="AH270">
+        <v>2</v>
+      </c>
+      <c r="AI270">
+        <v>1.67</v>
+      </c>
+      <c r="AJ270">
+        <v>2.1</v>
+      </c>
+      <c r="AK270">
+        <v>1.17</v>
+      </c>
+      <c r="AL270">
+        <v>1.18</v>
+      </c>
+      <c r="AM270">
+        <v>2.25</v>
+      </c>
+      <c r="AN270">
+        <v>1.71</v>
+      </c>
+      <c r="AO270">
+        <v>0.93</v>
+      </c>
+      <c r="AP270">
+        <v>1.8</v>
+      </c>
+      <c r="AQ270">
+        <v>0.87</v>
+      </c>
+      <c r="AR270">
+        <v>1.83</v>
+      </c>
+      <c r="AS270">
+        <v>1.35</v>
+      </c>
+      <c r="AT270">
+        <v>3.18</v>
+      </c>
+      <c r="AU270">
+        <v>9</v>
+      </c>
+      <c r="AV270">
+        <v>6</v>
+      </c>
+      <c r="AW270">
+        <v>11</v>
+      </c>
+      <c r="AX270">
+        <v>5</v>
+      </c>
+      <c r="AY270">
+        <v>21</v>
+      </c>
+      <c r="AZ270">
+        <v>13</v>
+      </c>
+      <c r="BA270">
+        <v>5</v>
+      </c>
+      <c r="BB270">
+        <v>12</v>
+      </c>
+      <c r="BC270">
+        <v>17</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>0</v>
+      </c>
+      <c r="BH270">
+        <v>0</v>
+      </c>
+      <c r="BI270">
+        <v>0</v>
+      </c>
+      <c r="BJ270">
+        <v>0</v>
+      </c>
+      <c r="BK270">
+        <v>0</v>
+      </c>
+      <c r="BL270">
+        <v>0</v>
+      </c>
+      <c r="BM270">
+        <v>0</v>
+      </c>
+      <c r="BN270">
+        <v>0</v>
+      </c>
+      <c r="BO270">
+        <v>0</v>
+      </c>
+      <c r="BP270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7491753</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45767.35416666666</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>71</v>
+      </c>
+      <c r="H271" t="s">
+        <v>77</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>271</v>
+      </c>
+      <c r="P271" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q271">
+        <v>2.88</v>
+      </c>
+      <c r="R271">
+        <v>2.3</v>
+      </c>
+      <c r="S271">
+        <v>3.4</v>
+      </c>
+      <c r="T271">
+        <v>1.33</v>
+      </c>
+      <c r="U271">
+        <v>3.25</v>
+      </c>
+      <c r="V271">
+        <v>2.5</v>
+      </c>
+      <c r="W271">
+        <v>1.5</v>
+      </c>
+      <c r="X271">
+        <v>6.5</v>
+      </c>
+      <c r="Y271">
+        <v>1.11</v>
+      </c>
+      <c r="Z271">
+        <v>2.35</v>
+      </c>
+      <c r="AA271">
+        <v>3.57</v>
+      </c>
+      <c r="AB271">
+        <v>3.04</v>
+      </c>
+      <c r="AC271">
+        <v>1.04</v>
+      </c>
+      <c r="AD271">
+        <v>10</v>
+      </c>
+      <c r="AE271">
+        <v>1.22</v>
+      </c>
+      <c r="AF271">
+        <v>4.2</v>
+      </c>
+      <c r="AG271">
+        <v>1.73</v>
+      </c>
+      <c r="AH271">
+        <v>1.95</v>
+      </c>
+      <c r="AI271">
+        <v>1.53</v>
+      </c>
+      <c r="AJ271">
+        <v>2.38</v>
+      </c>
+      <c r="AK271">
+        <v>1.38</v>
+      </c>
+      <c r="AL271">
+        <v>1.25</v>
+      </c>
+      <c r="AM271">
+        <v>1.62</v>
+      </c>
+      <c r="AN271">
+        <v>1.71</v>
+      </c>
+      <c r="AO271">
+        <v>1.07</v>
+      </c>
+      <c r="AP271">
+        <v>1.8</v>
+      </c>
+      <c r="AQ271">
+        <v>1</v>
+      </c>
+      <c r="AR271">
+        <v>1.61</v>
+      </c>
+      <c r="AS271">
+        <v>1.24</v>
+      </c>
+      <c r="AT271">
+        <v>2.85</v>
+      </c>
+      <c r="AU271">
+        <v>5</v>
+      </c>
+      <c r="AV271">
+        <v>3</v>
+      </c>
+      <c r="AW271">
+        <v>5</v>
+      </c>
+      <c r="AX271">
+        <v>12</v>
+      </c>
+      <c r="AY271">
+        <v>12</v>
+      </c>
+      <c r="AZ271">
+        <v>18</v>
+      </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
+      <c r="BB271">
+        <v>5</v>
+      </c>
+      <c r="BC271">
+        <v>9</v>
+      </c>
+      <c r="BD271">
+        <v>0</v>
+      </c>
+      <c r="BE271">
+        <v>0</v>
+      </c>
+      <c r="BF271">
+        <v>0</v>
+      </c>
+      <c r="BG271">
+        <v>0</v>
+      </c>
+      <c r="BH271">
+        <v>0</v>
+      </c>
+      <c r="BI271">
+        <v>0</v>
+      </c>
+      <c r="BJ271">
+        <v>0</v>
+      </c>
+      <c r="BK271">
+        <v>0</v>
+      </c>
+      <c r="BL271">
+        <v>0</v>
+      </c>
+      <c r="BM271">
+        <v>0</v>
+      </c>
+      <c r="BN271">
+        <v>0</v>
+      </c>
+      <c r="BO271">
+        <v>0</v>
+      </c>
+      <c r="BP271">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1236,6 +1239,9 @@
   <si>
     <t>['39']</t>
   </si>
+  <si>
+    <t>['44']</t>
+  </si>
 </sst>
 </file>
 
@@ -1596,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +1861,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2061,7 +2067,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2473,7 +2479,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2551,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -2885,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3091,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3375,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>0.87</v>
@@ -3503,7 +3509,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3790,7 +3796,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3915,7 +3921,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4327,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4945,7 +4951,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5151,7 +5157,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5232,7 +5238,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5563,7 +5569,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -6259,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -6465,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ24">
         <v>0.07000000000000001</v>
@@ -6799,7 +6805,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7005,7 +7011,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7211,7 +7217,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7623,7 +7629,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7829,7 +7835,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8241,7 +8247,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8322,7 +8328,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -8447,7 +8453,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8734,7 +8740,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR35">
         <v>1.49</v>
@@ -8859,7 +8865,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9065,7 +9071,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9271,7 +9277,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9683,7 +9689,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9889,7 +9895,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10301,7 +10307,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10382,7 +10388,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -10585,7 +10591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10713,7 +10719,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10791,7 +10797,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ45">
         <v>1.73</v>
@@ -11125,7 +11131,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11331,7 +11337,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11537,7 +11543,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11743,7 +11749,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12155,7 +12161,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12361,7 +12367,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12442,7 +12448,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12567,7 +12573,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12773,7 +12779,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12979,7 +12985,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13185,7 +13191,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13263,7 +13269,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.73</v>
@@ -13391,7 +13397,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13803,7 +13809,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13884,7 +13890,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -14009,7 +14015,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14421,7 +14427,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14499,7 +14505,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14627,7 +14633,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15039,7 +15045,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15326,7 +15332,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR67">
         <v>2.27</v>
@@ -15657,7 +15663,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15863,7 +15869,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16069,7 +16075,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16481,7 +16487,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16971,7 +16977,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -17099,7 +17105,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17305,7 +17311,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -18129,7 +18135,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18207,7 +18213,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ81">
         <v>1.2</v>
@@ -18416,7 +18422,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18541,7 +18547,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18747,7 +18753,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18953,7 +18959,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19159,7 +19165,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19365,7 +19371,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19571,7 +19577,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19777,7 +19783,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19858,7 +19864,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19983,7 +19989,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -21013,7 +21019,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21091,7 +21097,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
         <v>0.87</v>
@@ -21425,7 +21431,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21503,7 +21509,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ97">
         <v>1.8</v>
@@ -21631,7 +21637,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21712,7 +21718,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -22867,7 +22873,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23154,7 +23160,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR105">
         <v>1.68</v>
@@ -23279,7 +23285,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23485,7 +23491,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -24103,7 +24109,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24515,7 +24521,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24593,7 +24599,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
         <v>1.13</v>
@@ -24721,7 +24727,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24799,10 +24805,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24927,7 +24933,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25133,7 +25139,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25339,7 +25345,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25545,7 +25551,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25751,7 +25757,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25832,7 +25838,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR118">
         <v>1.21</v>
@@ -25957,7 +25963,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26163,7 +26169,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26369,7 +26375,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26575,7 +26581,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27193,7 +27199,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27399,7 +27405,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -28017,7 +28023,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28223,7 +28229,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28507,7 +28513,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ131">
         <v>1.69</v>
@@ -28635,7 +28641,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28716,7 +28722,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
         <v>1.64</v>
@@ -28841,7 +28847,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28922,7 +28928,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR133">
         <v>1.17</v>
@@ -29047,7 +29053,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29459,7 +29465,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29665,7 +29671,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29871,7 +29877,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29949,7 +29955,7 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ138">
         <v>0.87</v>
@@ -30283,7 +30289,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30695,7 +30701,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31185,7 +31191,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
         <v>1.07</v>
@@ -31313,7 +31319,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31519,7 +31525,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31725,7 +31731,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31806,7 +31812,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -32218,7 +32224,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR149">
         <v>1.2</v>
@@ -32343,7 +32349,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33167,7 +33173,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33373,7 +33379,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33866,7 +33872,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ157">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR157">
         <v>1.65</v>
@@ -34609,7 +34615,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34815,7 +34821,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34896,7 +34902,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR162">
         <v>1.5</v>
@@ -35021,7 +35027,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35227,7 +35233,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35433,7 +35439,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35511,7 +35517,7 @@
         <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ165">
         <v>1.33</v>
@@ -35845,7 +35851,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36257,7 +36263,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36335,7 +36341,7 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ169">
         <v>1.67</v>
@@ -36463,7 +36469,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36875,7 +36881,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37287,7 +37293,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37699,7 +37705,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37905,7 +37911,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -37986,7 +37992,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR177">
         <v>1.61</v>
@@ -38111,7 +38117,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38192,7 +38198,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ178">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR178">
         <v>1.59</v>
@@ -38317,7 +38323,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38729,7 +38735,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38935,7 +38941,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39219,7 +39225,7 @@
         <v>0.11</v>
       </c>
       <c r="AP183">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ183">
         <v>0.07000000000000001</v>
@@ -39347,7 +39353,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39553,7 +39559,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39759,7 +39765,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40043,7 +40049,7 @@
         <v>1.7</v>
       </c>
       <c r="AP187">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ187">
         <v>1.33</v>
@@ -40377,7 +40383,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -41819,7 +41825,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42518,7 +42524,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ199">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR199">
         <v>1.58</v>
@@ -42927,7 +42933,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ201">
         <v>1.2</v>
@@ -43055,7 +43061,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43136,7 +43142,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ202">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR202">
         <v>1.71</v>
@@ -43673,7 +43679,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44369,7 +44375,7 @@
         <v>0.55</v>
       </c>
       <c r="AP208">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ208">
         <v>0.73</v>
@@ -44497,7 +44503,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44990,7 +44996,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ211">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR211">
         <v>1.31</v>
@@ -45321,7 +45327,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45733,7 +45739,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46841,10 +46847,10 @@
         <v>2.33</v>
       </c>
       <c r="AP220">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR220">
         <v>1.53</v>
@@ -46969,7 +46975,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47047,7 +47053,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ221">
         <v>1.13</v>
@@ -47381,7 +47387,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47587,7 +47593,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47793,7 +47799,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48205,7 +48211,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48411,7 +48417,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48617,7 +48623,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48823,7 +48829,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49728,7 +49734,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ234">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR234">
         <v>1.6</v>
@@ -49853,7 +49859,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50552,7 +50558,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ238">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR238">
         <v>1.65</v>
@@ -50677,7 +50683,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50883,7 +50889,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -50961,7 +50967,7 @@
         <v>1.23</v>
       </c>
       <c r="AP240">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ240">
         <v>1.13</v>
@@ -51295,7 +51301,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51373,7 +51379,7 @@
         <v>1.23</v>
       </c>
       <c r="AP242">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ242">
         <v>1.13</v>
@@ -52119,7 +52125,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52737,7 +52743,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52943,7 +52949,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53355,7 +53361,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53436,7 +53442,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ252">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR252">
         <v>1.66</v>
@@ -53767,7 +53773,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54051,7 +54057,7 @@
         <v>1.86</v>
       </c>
       <c r="AP255">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ255">
         <v>1.8</v>
@@ -54179,7 +54185,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54463,7 +54469,7 @@
         <v>0.86</v>
       </c>
       <c r="AP257">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ257">
         <v>0.87</v>
@@ -54672,7 +54678,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ258">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR258">
         <v>1.47</v>
@@ -54797,7 +54803,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55003,7 +55009,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55827,7 +55833,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56239,7 +56245,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56445,7 +56451,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56857,7 +56863,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57063,7 +57069,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57425,6 +57431,418 @@
         <v>0</v>
       </c>
       <c r="BP271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7491764</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45772.5625</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>77</v>
+      </c>
+      <c r="H272" t="s">
+        <v>78</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
+        <v>92</v>
+      </c>
+      <c r="P272" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q272">
+        <v>2.75</v>
+      </c>
+      <c r="R272">
+        <v>2.2</v>
+      </c>
+      <c r="S272">
+        <v>4</v>
+      </c>
+      <c r="T272">
+        <v>1.36</v>
+      </c>
+      <c r="U272">
+        <v>3</v>
+      </c>
+      <c r="V272">
+        <v>2.75</v>
+      </c>
+      <c r="W272">
+        <v>1.4</v>
+      </c>
+      <c r="X272">
+        <v>8</v>
+      </c>
+      <c r="Y272">
+        <v>1.08</v>
+      </c>
+      <c r="Z272">
+        <v>2.22</v>
+      </c>
+      <c r="AA272">
+        <v>3.5</v>
+      </c>
+      <c r="AB272">
+        <v>3.33</v>
+      </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>3.97</v>
+      </c>
+      <c r="AF272">
+        <v>1.26</v>
+      </c>
+      <c r="AG272">
+        <v>1.88</v>
+      </c>
+      <c r="AH272">
+        <v>1.93</v>
+      </c>
+      <c r="AI272">
+        <v>1.73</v>
+      </c>
+      <c r="AJ272">
+        <v>2</v>
+      </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
+      <c r="AL272">
+        <v>0</v>
+      </c>
+      <c r="AM272">
+        <v>0</v>
+      </c>
+      <c r="AN272">
+        <v>1.33</v>
+      </c>
+      <c r="AO272">
+        <v>0.67</v>
+      </c>
+      <c r="AP272">
+        <v>1.25</v>
+      </c>
+      <c r="AQ272">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR272">
+        <v>1.54</v>
+      </c>
+      <c r="AS272">
+        <v>1.28</v>
+      </c>
+      <c r="AT272">
+        <v>2.82</v>
+      </c>
+      <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>4</v>
+      </c>
+      <c r="AW272">
+        <v>13</v>
+      </c>
+      <c r="AX272">
+        <v>11</v>
+      </c>
+      <c r="AY272">
+        <v>21</v>
+      </c>
+      <c r="AZ272">
+        <v>20</v>
+      </c>
+      <c r="BA272">
+        <v>7</v>
+      </c>
+      <c r="BB272">
+        <v>4</v>
+      </c>
+      <c r="BC272">
+        <v>11</v>
+      </c>
+      <c r="BD272">
+        <v>0</v>
+      </c>
+      <c r="BE272">
+        <v>0</v>
+      </c>
+      <c r="BF272">
+        <v>0</v>
+      </c>
+      <c r="BG272">
+        <v>0</v>
+      </c>
+      <c r="BH272">
+        <v>0</v>
+      </c>
+      <c r="BI272">
+        <v>0</v>
+      </c>
+      <c r="BJ272">
+        <v>0</v>
+      </c>
+      <c r="BK272">
+        <v>0</v>
+      </c>
+      <c r="BL272">
+        <v>0</v>
+      </c>
+      <c r="BM272">
+        <v>0</v>
+      </c>
+      <c r="BN272">
+        <v>0</v>
+      </c>
+      <c r="BO272">
+        <v>0</v>
+      </c>
+      <c r="BP272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7491765</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45772.5625</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>73</v>
+      </c>
+      <c r="H273" t="s">
+        <v>74</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>272</v>
+      </c>
+      <c r="P273" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q273">
+        <v>2.75</v>
+      </c>
+      <c r="R273">
+        <v>2.4</v>
+      </c>
+      <c r="S273">
+        <v>3.2</v>
+      </c>
+      <c r="T273">
+        <v>1.25</v>
+      </c>
+      <c r="U273">
+        <v>3.75</v>
+      </c>
+      <c r="V273">
+        <v>2.2</v>
+      </c>
+      <c r="W273">
+        <v>1.62</v>
+      </c>
+      <c r="X273">
+        <v>5</v>
+      </c>
+      <c r="Y273">
+        <v>1.17</v>
+      </c>
+      <c r="Z273">
+        <v>2.21</v>
+      </c>
+      <c r="AA273">
+        <v>3.88</v>
+      </c>
+      <c r="AB273">
+        <v>3.09</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>1.85</v>
+      </c>
+      <c r="AF273">
+        <v>1.96</v>
+      </c>
+      <c r="AG273">
+        <v>1.47</v>
+      </c>
+      <c r="AH273">
+        <v>2.57</v>
+      </c>
+      <c r="AI273">
+        <v>1.44</v>
+      </c>
+      <c r="AJ273">
+        <v>2.63</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>0.86</v>
+      </c>
+      <c r="AO273">
+        <v>2</v>
+      </c>
+      <c r="AP273">
+        <v>0.87</v>
+      </c>
+      <c r="AQ273">
+        <v>1.94</v>
+      </c>
+      <c r="AR273">
+        <v>1.5</v>
+      </c>
+      <c r="AS273">
+        <v>1.5</v>
+      </c>
+      <c r="AT273">
+        <v>3</v>
+      </c>
+      <c r="AU273">
+        <v>6</v>
+      </c>
+      <c r="AV273">
+        <v>6</v>
+      </c>
+      <c r="AW273">
+        <v>6</v>
+      </c>
+      <c r="AX273">
+        <v>14</v>
+      </c>
+      <c r="AY273">
+        <v>15</v>
+      </c>
+      <c r="AZ273">
+        <v>23</v>
+      </c>
+      <c r="BA273">
+        <v>4</v>
+      </c>
+      <c r="BB273">
+        <v>4</v>
+      </c>
+      <c r="BC273">
+        <v>8</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -896,9 +899,6 @@
   </si>
   <si>
     <t>['37', '46', '85']</t>
-  </si>
-  <si>
-    <t>['56']</t>
   </si>
   <si>
     <t>['64', '90+9']</t>
@@ -1602,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1861,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2067,7 +2067,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2479,7 +2479,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2766,7 +2766,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2972,7 +2972,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3509,7 +3509,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
         <v>0.8100000000000001</v>
@@ -3921,7 +3921,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4333,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4951,7 +4951,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5029,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5569,7 +5569,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5650,7 +5650,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR20">
         <v>1.6</v>
@@ -6680,7 +6680,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6805,7 +6805,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7011,7 +7011,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7217,7 +7217,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7629,7 +7629,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7835,7 +7835,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8122,7 +8122,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ32">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -8247,7 +8247,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8453,7 +8453,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.8100000000000001</v>
@@ -8865,7 +8865,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9071,7 +9071,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9277,7 +9277,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9689,7 +9689,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10182,7 +10182,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.72</v>
@@ -10594,7 +10594,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -11209,7 +11209,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>1.07</v>
@@ -11418,7 +11418,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.7</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
         <v>0.87</v>
@@ -13066,7 +13066,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ56">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -13681,7 +13681,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -14508,7 +14508,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>0.07000000000000001</v>
@@ -15126,7 +15126,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.63</v>
@@ -16980,7 +16980,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -17186,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17389,7 +17389,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
         <v>1.73</v>
@@ -20891,10 +20891,10 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21100,7 +21100,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -21921,10 +21921,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -23285,7 +23285,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -24187,7 +24187,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.2</v>
@@ -25014,7 +25014,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -25220,7 +25220,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ115">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR115">
         <v>1.64</v>
@@ -25632,7 +25632,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.79</v>
@@ -25835,7 +25835,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ118">
         <v>1.94</v>
@@ -28101,7 +28101,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>1.13</v>
@@ -29134,7 +29134,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ134">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -29340,7 +29340,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR135">
         <v>1.54</v>
@@ -29543,7 +29543,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ136">
         <v>1.8</v>
@@ -31400,7 +31400,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR145">
         <v>1.36</v>
@@ -32427,7 +32427,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.13</v>
@@ -32636,7 +32636,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ151">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
         <v>1.49</v>
@@ -32839,10 +32839,10 @@
         <v>1.57</v>
       </c>
       <c r="AP152">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ152">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR152">
         <v>1.2</v>
@@ -33460,7 +33460,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR155">
         <v>1.57</v>
@@ -33663,7 +33663,7 @@
         <v>0.63</v>
       </c>
       <c r="AP156">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
         <v>1.07</v>
@@ -34693,7 +34693,7 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161">
         <v>1.69</v>
@@ -35314,7 +35314,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ164">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
         <v>1.62</v>
@@ -35726,7 +35726,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
         <v>1.82</v>
@@ -37168,7 +37168,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ173">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37577,7 +37577,7 @@
         <v>1.8</v>
       </c>
       <c r="AP175">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ175">
         <v>1.69</v>
@@ -38401,7 +38401,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -39434,7 +39434,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ184">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR184">
         <v>1.56</v>
@@ -40464,7 +40464,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ189">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR189">
         <v>1.59</v>
@@ -41079,7 +41079,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ192">
         <v>0.87</v>
@@ -41700,7 +41700,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ195">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR195">
         <v>1.27</v>
@@ -42109,7 +42109,7 @@
         <v>1.7</v>
       </c>
       <c r="AP197">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ197">
         <v>1.67</v>
@@ -43348,7 +43348,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ203">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR203">
         <v>1.48</v>
@@ -44378,7 +44378,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ208">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -45820,7 +45820,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ215">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR215">
         <v>1.76</v>
@@ -46229,7 +46229,7 @@
         <v>1.64</v>
       </c>
       <c r="AP217">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ217">
         <v>1.67</v>
@@ -46644,7 +46644,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ219">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR219">
         <v>1.83</v>
@@ -47674,7 +47674,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ224">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR224">
         <v>1.65</v>
@@ -48083,7 +48083,7 @@
         <v>1.75</v>
       </c>
       <c r="AP226">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ226">
         <v>1.67</v>
@@ -48907,7 +48907,7 @@
         <v>1.67</v>
       </c>
       <c r="AP230">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ230">
         <v>1.33</v>
@@ -49322,7 +49322,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ232">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR232">
         <v>1.81</v>
@@ -50146,7 +50146,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ236">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR236">
         <v>1.85</v>
@@ -50352,7 +50352,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ237">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR237">
         <v>1.48</v>
@@ -50761,7 +50761,7 @@
         <v>1.77</v>
       </c>
       <c r="AP239">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ239">
         <v>1.8</v>
@@ -51588,7 +51588,7 @@
         <v>1</v>
       </c>
       <c r="AQ243">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -51791,7 +51791,7 @@
         <v>1.15</v>
       </c>
       <c r="AP244">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ244">
         <v>1.2</v>
@@ -53854,7 +53854,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ254">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR254">
         <v>1.82</v>
@@ -54266,7 +54266,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ256">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54472,7 +54472,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ257">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR257">
         <v>1.54</v>
@@ -55087,7 +55087,7 @@
         <v>1.69</v>
       </c>
       <c r="AP260">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ260">
         <v>1.73</v>
@@ -55499,7 +55499,7 @@
         <v>1.21</v>
       </c>
       <c r="AP262">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ262">
         <v>1.13</v>
@@ -57843,6 +57843,624 @@
         <v>0</v>
       </c>
       <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7491763</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45773.33333333334</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>85</v>
+      </c>
+      <c r="H274" t="s">
+        <v>82</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>273</v>
+      </c>
+      <c r="P274" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q274">
+        <v>2.6</v>
+      </c>
+      <c r="R274">
+        <v>2.4</v>
+      </c>
+      <c r="S274">
+        <v>3.6</v>
+      </c>
+      <c r="T274">
+        <v>1.29</v>
+      </c>
+      <c r="U274">
+        <v>3.5</v>
+      </c>
+      <c r="V274">
+        <v>2.25</v>
+      </c>
+      <c r="W274">
+        <v>1.57</v>
+      </c>
+      <c r="X274">
+        <v>5.5</v>
+      </c>
+      <c r="Y274">
+        <v>1.14</v>
+      </c>
+      <c r="Z274">
+        <v>2.13</v>
+      </c>
+      <c r="AA274">
+        <v>3.81</v>
+      </c>
+      <c r="AB274">
+        <v>3.29</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+      <c r="AE274">
+        <v>1.98</v>
+      </c>
+      <c r="AF274">
+        <v>1.9</v>
+      </c>
+      <c r="AG274">
+        <v>1.55</v>
+      </c>
+      <c r="AH274">
+        <v>2.2</v>
+      </c>
+      <c r="AI274">
+        <v>1.44</v>
+      </c>
+      <c r="AJ274">
+        <v>2.63</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AL274">
+        <v>0</v>
+      </c>
+      <c r="AM274">
+        <v>0</v>
+      </c>
+      <c r="AN274">
+        <v>1.53</v>
+      </c>
+      <c r="AO274">
+        <v>1.5</v>
+      </c>
+      <c r="AP274">
+        <v>1.5</v>
+      </c>
+      <c r="AQ274">
+        <v>1.47</v>
+      </c>
+      <c r="AR274">
+        <v>1.81</v>
+      </c>
+      <c r="AS274">
+        <v>1.38</v>
+      </c>
+      <c r="AT274">
+        <v>3.19</v>
+      </c>
+      <c r="AU274">
+        <v>3</v>
+      </c>
+      <c r="AV274">
+        <v>5</v>
+      </c>
+      <c r="AW274">
+        <v>6</v>
+      </c>
+      <c r="AX274">
+        <v>9</v>
+      </c>
+      <c r="AY274">
+        <v>12</v>
+      </c>
+      <c r="AZ274">
+        <v>18</v>
+      </c>
+      <c r="BA274">
+        <v>2</v>
+      </c>
+      <c r="BB274">
+        <v>7</v>
+      </c>
+      <c r="BC274">
+        <v>9</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7491767</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45773.33333333334</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>87</v>
+      </c>
+      <c r="H275" t="s">
+        <v>76</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>127</v>
+      </c>
+      <c r="P275" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q275">
+        <v>3.2</v>
+      </c>
+      <c r="R275">
+        <v>2.25</v>
+      </c>
+      <c r="S275">
+        <v>3.1</v>
+      </c>
+      <c r="T275">
+        <v>1.33</v>
+      </c>
+      <c r="U275">
+        <v>3.25</v>
+      </c>
+      <c r="V275">
+        <v>2.63</v>
+      </c>
+      <c r="W275">
+        <v>1.44</v>
+      </c>
+      <c r="X275">
+        <v>6.5</v>
+      </c>
+      <c r="Y275">
+        <v>1.11</v>
+      </c>
+      <c r="Z275">
+        <v>3.01</v>
+      </c>
+      <c r="AA275">
+        <v>3.5</v>
+      </c>
+      <c r="AB275">
+        <v>2.4</v>
+      </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
+      <c r="AG275">
+        <v>1.73</v>
+      </c>
+      <c r="AH275">
+        <v>1.91</v>
+      </c>
+      <c r="AI275">
+        <v>1.57</v>
+      </c>
+      <c r="AJ275">
+        <v>2.25</v>
+      </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
+      <c r="AM275">
+        <v>0</v>
+      </c>
+      <c r="AN275">
+        <v>1</v>
+      </c>
+      <c r="AO275">
+        <v>0.87</v>
+      </c>
+      <c r="AP275">
+        <v>1</v>
+      </c>
+      <c r="AQ275">
+        <v>0.88</v>
+      </c>
+      <c r="AR275">
+        <v>1.33</v>
+      </c>
+      <c r="AS275">
+        <v>1.64</v>
+      </c>
+      <c r="AT275">
+        <v>2.97</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>5</v>
+      </c>
+      <c r="AW275">
+        <v>7</v>
+      </c>
+      <c r="AX275">
+        <v>8</v>
+      </c>
+      <c r="AY275">
+        <v>16</v>
+      </c>
+      <c r="AZ275">
+        <v>14</v>
+      </c>
+      <c r="BA275">
+        <v>2</v>
+      </c>
+      <c r="BB275">
+        <v>5</v>
+      </c>
+      <c r="BC275">
+        <v>7</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7491768</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45773.33333333334</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>79</v>
+      </c>
+      <c r="H276" t="s">
+        <v>86</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>146</v>
+      </c>
+      <c r="P276" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q276">
+        <v>3.5</v>
+      </c>
+      <c r="R276">
+        <v>2.2</v>
+      </c>
+      <c r="S276">
+        <v>3</v>
+      </c>
+      <c r="T276">
+        <v>1.4</v>
+      </c>
+      <c r="U276">
+        <v>2.75</v>
+      </c>
+      <c r="V276">
+        <v>2.75</v>
+      </c>
+      <c r="W276">
+        <v>1.4</v>
+      </c>
+      <c r="X276">
+        <v>8</v>
+      </c>
+      <c r="Y276">
+        <v>1.08</v>
+      </c>
+      <c r="Z276">
+        <v>2.85</v>
+      </c>
+      <c r="AA276">
+        <v>3.37</v>
+      </c>
+      <c r="AB276">
+        <v>2.58</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0</v>
+      </c>
+      <c r="AF276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>1.89</v>
+      </c>
+      <c r="AH276">
+        <v>1.92</v>
+      </c>
+      <c r="AI276">
+        <v>1.73</v>
+      </c>
+      <c r="AJ276">
+        <v>2</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AL276">
+        <v>0</v>
+      </c>
+      <c r="AM276">
+        <v>0</v>
+      </c>
+      <c r="AN276">
+        <v>1.4</v>
+      </c>
+      <c r="AO276">
+        <v>0.73</v>
+      </c>
+      <c r="AP276">
+        <v>1.38</v>
+      </c>
+      <c r="AQ276">
+        <v>0.75</v>
+      </c>
+      <c r="AR276">
+        <v>1.25</v>
+      </c>
+      <c r="AS276">
+        <v>1.25</v>
+      </c>
+      <c r="AT276">
+        <v>2.5</v>
+      </c>
+      <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>3</v>
+      </c>
+      <c r="AW276">
+        <v>3</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>7</v>
+      </c>
+      <c r="AZ276">
+        <v>8</v>
+      </c>
+      <c r="BA276">
+        <v>7</v>
+      </c>
+      <c r="BB276">
+        <v>1</v>
+      </c>
+      <c r="BC276">
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="411">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['68', '71', '78']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1242,6 +1245,9 @@
   <si>
     <t>['44']</t>
   </si>
+  <si>
+    <t>['19', '45+4', '61']</t>
+  </si>
 </sst>
 </file>
 
@@ -1602,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP276"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1867,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2067,7 +2073,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2148,7 +2154,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2479,7 +2485,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2891,7 +2897,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3097,7 +3103,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3509,7 +3515,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3921,7 +3927,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4333,7 +4339,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4617,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -4951,7 +4957,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5157,7 +5163,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5569,7 +5575,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -6805,7 +6811,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7011,7 +7017,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7092,7 +7098,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>1.43</v>
@@ -7217,7 +7223,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7501,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29">
         <v>1.07</v>
@@ -7629,7 +7635,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7835,7 +7841,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8247,7 +8253,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8453,7 +8459,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8865,7 +8871,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9071,7 +9077,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9277,7 +9283,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9895,7 +9901,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9976,7 +9982,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR41">
         <v>1.64</v>
@@ -10307,7 +10313,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10719,7 +10725,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11131,7 +11137,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11337,7 +11343,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11543,7 +11549,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11621,7 +11627,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.8</v>
@@ -11749,7 +11755,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12161,7 +12167,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12367,7 +12373,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12573,7 +12579,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12779,7 +12785,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12985,7 +12991,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13191,7 +13197,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13397,7 +13403,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13809,7 +13815,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -14015,7 +14021,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14302,7 +14308,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -14427,7 +14433,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14633,7 +14639,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15045,7 +15051,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15663,7 +15669,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15869,7 +15875,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16075,7 +16081,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16487,7 +16493,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16565,7 +16571,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -17105,7 +17111,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17311,7 +17317,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -18135,7 +18141,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18216,7 +18222,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ81">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -18547,7 +18553,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18753,7 +18759,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18959,7 +18965,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19165,7 +19171,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19371,7 +19377,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19577,7 +19583,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19655,7 +19661,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19783,7 +19789,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19989,7 +19995,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -21019,7 +21025,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21431,7 +21437,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21637,7 +21643,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22130,7 +22136,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ100">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR100">
         <v>1.62</v>
@@ -22873,7 +22879,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23285,7 +23291,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23363,7 +23369,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>1.67</v>
@@ -23491,7 +23497,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -24109,7 +24115,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24190,7 +24196,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR110">
         <v>1.5</v>
@@ -24521,7 +24527,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24727,7 +24733,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24933,7 +24939,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25011,7 +25017,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
         <v>1.47</v>
@@ -25139,7 +25145,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25345,7 +25351,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25551,7 +25557,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25757,7 +25763,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25963,7 +25969,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26169,7 +26175,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26375,7 +26381,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26581,7 +26587,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27199,7 +27205,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27405,7 +27411,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27898,7 +27904,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -28023,7 +28029,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28229,7 +28235,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28641,7 +28647,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28847,7 +28853,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29053,7 +29059,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29337,7 +29343,7 @@
         <v>0.29</v>
       </c>
       <c r="AP135">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ135">
         <v>0.75</v>
@@ -29465,7 +29471,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29671,7 +29677,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29877,7 +29883,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30289,7 +30295,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30701,7 +30707,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30988,7 +30994,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR143">
         <v>1.88</v>
@@ -31319,7 +31325,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31525,7 +31531,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31731,7 +31737,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31809,7 +31815,7 @@
         <v>2.38</v>
       </c>
       <c r="AP147">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
         <v>1.94</v>
@@ -32349,7 +32355,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33173,7 +33179,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33379,7 +33385,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33457,7 +33463,7 @@
         <v>1.38</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -34615,7 +34621,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34821,7 +34827,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35027,7 +35033,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35233,7 +35239,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35439,7 +35445,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35851,7 +35857,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36138,7 +36144,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ168">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36263,7 +36269,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36469,7 +36475,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36881,7 +36887,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37293,7 +37299,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37705,7 +37711,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37911,7 +37917,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -37989,7 +37995,7 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177">
         <v>0.8100000000000001</v>
@@ -38117,7 +38123,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38323,7 +38329,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38735,7 +38741,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38941,7 +38947,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39353,7 +39359,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39559,7 +39565,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39640,7 +39646,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ185">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR185">
         <v>1.66</v>
@@ -39765,7 +39771,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40383,7 +40389,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -41825,7 +41831,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -41903,7 +41909,7 @@
         <v>1.64</v>
       </c>
       <c r="AP196">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ196">
         <v>1.69</v>
@@ -42936,7 +42942,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ201">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR201">
         <v>1.48</v>
@@ -43061,7 +43067,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43679,7 +43685,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44503,7 +44509,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44581,7 +44587,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -45327,7 +45333,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45739,7 +45745,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46975,7 +46981,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47387,7 +47393,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47593,7 +47599,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47799,7 +47805,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -47880,7 +47886,7 @@
         <v>1</v>
       </c>
       <c r="AQ225">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR225">
         <v>1.24</v>
@@ -48211,7 +48217,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48417,7 +48423,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48623,7 +48629,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48829,7 +48835,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49113,7 +49119,7 @@
         <v>0.08</v>
       </c>
       <c r="AP231">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ231">
         <v>0.07000000000000001</v>
@@ -49859,7 +49865,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50683,7 +50689,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50889,7 +50895,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51301,7 +51307,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51794,7 +51800,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ244">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR244">
         <v>1.22</v>
@@ -52125,7 +52131,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52615,7 +52621,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ248">
         <v>0.87</v>
@@ -52743,7 +52749,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52949,7 +52955,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53361,7 +53367,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53773,7 +53779,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54185,7 +54191,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54803,7 +54809,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -54884,7 +54890,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ259">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR259">
         <v>1.77</v>
@@ -55009,7 +55015,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55833,7 +55839,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56245,7 +56251,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56451,7 +56457,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56863,7 +56869,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57069,7 +57075,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57687,7 +57693,7 @@
         <v>272</v>
       </c>
       <c r="P273" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -58461,6 +58467,212 @@
         <v>0</v>
       </c>
       <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7491760</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>83</v>
+      </c>
+      <c r="H277" t="s">
+        <v>81</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>2</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>3</v>
+      </c>
+      <c r="M277">
+        <v>3</v>
+      </c>
+      <c r="N277">
+        <v>6</v>
+      </c>
+      <c r="O277" t="s">
+        <v>274</v>
+      </c>
+      <c r="P277" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q277">
+        <v>2.38</v>
+      </c>
+      <c r="R277">
+        <v>2.38</v>
+      </c>
+      <c r="S277">
+        <v>4.33</v>
+      </c>
+      <c r="T277">
+        <v>1.3</v>
+      </c>
+      <c r="U277">
+        <v>3.4</v>
+      </c>
+      <c r="V277">
+        <v>2.5</v>
+      </c>
+      <c r="W277">
+        <v>1.5</v>
+      </c>
+      <c r="X277">
+        <v>6</v>
+      </c>
+      <c r="Y277">
+        <v>1.13</v>
+      </c>
+      <c r="Z277">
+        <v>2.05</v>
+      </c>
+      <c r="AA277">
+        <v>3.96</v>
+      </c>
+      <c r="AB277">
+        <v>3.4</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
+      <c r="AG277">
+        <v>1.55</v>
+      </c>
+      <c r="AH277">
+        <v>2.2</v>
+      </c>
+      <c r="AI277">
+        <v>1.62</v>
+      </c>
+      <c r="AJ277">
+        <v>2.2</v>
+      </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
+      <c r="AN277">
+        <v>1.47</v>
+      </c>
+      <c r="AO277">
+        <v>1.2</v>
+      </c>
+      <c r="AP277">
+        <v>1.44</v>
+      </c>
+      <c r="AQ277">
+        <v>1.19</v>
+      </c>
+      <c r="AR277">
+        <v>1.54</v>
+      </c>
+      <c r="AS277">
+        <v>1.42</v>
+      </c>
+      <c r="AT277">
+        <v>2.96</v>
+      </c>
+      <c r="AU277">
+        <v>10</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>11</v>
+      </c>
+      <c r="AX277">
+        <v>2</v>
+      </c>
+      <c r="AY277">
+        <v>26</v>
+      </c>
+      <c r="AZ277">
+        <v>6</v>
+      </c>
+      <c r="BA277">
+        <v>7</v>
+      </c>
+      <c r="BB277">
+        <v>0</v>
+      </c>
+      <c r="BC277">
+        <v>7</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,9 @@
     <t>['68', '71', '78']</t>
   </si>
   <si>
+    <t>['35', '77']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1248,6 +1251,9 @@
   <si>
     <t>['19', '45+4', '61']</t>
   </si>
+  <si>
+    <t>['30', '45+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1608,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1867,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2073,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2357,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4">
         <v>0.07000000000000001</v>
@@ -2485,7 +2491,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2897,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3103,7 +3109,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3515,7 +3521,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3927,7 +3933,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4005,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4214,7 +4220,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4339,7 +4345,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4420,7 +4426,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4626,7 +4632,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4829,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1.69</v>
@@ -4957,7 +4963,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5163,7 +5169,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5575,7 +5581,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5859,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
         <v>1.67</v>
@@ -6811,7 +6817,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7017,7 +7023,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7223,7 +7229,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7304,7 +7310,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>1.96</v>
@@ -7635,7 +7641,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7841,7 +7847,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7919,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>0.87</v>
@@ -8253,7 +8259,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8459,7 +8465,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8537,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ34">
         <v>1.69</v>
@@ -8871,7 +8877,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8952,7 +8958,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -9077,7 +9083,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9158,7 +9164,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>2.14</v>
@@ -9283,7 +9289,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9570,7 +9576,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9773,7 +9779,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9901,7 +9907,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10313,7 +10319,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10725,7 +10731,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11009,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>0.07000000000000001</v>
@@ -11137,7 +11143,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11343,7 +11349,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11549,7 +11555,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11630,7 +11636,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11755,7 +11761,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12167,7 +12173,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12245,7 +12251,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -12373,7 +12379,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12579,7 +12585,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12660,7 +12666,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12785,7 +12791,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12991,7 +12997,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13197,7 +13203,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13403,7 +13409,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13481,7 +13487,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -13815,7 +13821,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -14021,7 +14027,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14102,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -14305,7 +14311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1.19</v>
@@ -14433,7 +14439,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14639,7 +14645,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14720,7 +14726,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -15051,7 +15057,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15669,7 +15675,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15875,7 +15881,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16081,7 +16087,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16493,7 +16499,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16780,7 +16786,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -17111,7 +17117,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17317,7 +17323,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17601,10 +17607,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17807,7 +17813,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ79">
         <v>1.67</v>
@@ -18016,7 +18022,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.52</v>
@@ -18141,7 +18147,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18425,7 +18431,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>1.94</v>
@@ -18553,7 +18559,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18759,7 +18765,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18965,7 +18971,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19171,7 +19177,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19377,7 +19383,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19583,7 +19589,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19789,7 +19795,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19995,7 +20001,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20694,7 +20700,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR93">
         <v>1.52</v>
@@ -21025,7 +21031,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21309,10 +21315,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -21437,7 +21443,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21518,7 +21524,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ97">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21643,7 +21649,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21721,7 +21727,7 @@
         <v>2.4</v>
       </c>
       <c r="AP98">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ98">
         <v>1.94</v>
@@ -22133,7 +22139,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
         <v>1.19</v>
@@ -22879,7 +22885,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23291,7 +23297,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23497,7 +23503,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -24115,7 +24121,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24402,7 +24408,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR111">
         <v>1.23</v>
@@ -24527,7 +24533,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24608,7 +24614,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24733,7 +24739,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24939,7 +24945,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25145,7 +25151,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25223,7 +25229,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -25351,7 +25357,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25429,10 +25435,10 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR116">
         <v>1.56</v>
@@ -25557,7 +25563,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25635,7 +25641,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ117">
         <v>0.75</v>
@@ -25763,7 +25769,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25969,7 +25975,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26175,7 +26181,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26381,7 +26387,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26587,7 +26593,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27205,7 +27211,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27411,7 +27417,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -28029,7 +28035,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28110,7 +28116,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -28235,7 +28241,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28313,10 +28319,10 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28647,7 +28653,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28725,7 +28731,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132">
         <v>0.8100000000000001</v>
@@ -28853,7 +28859,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29059,7 +29065,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29137,7 +29143,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29471,7 +29477,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29552,7 +29558,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29677,7 +29683,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29883,7 +29889,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30295,7 +30301,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30707,7 +30713,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31325,7 +31331,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31531,7 +31537,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31612,7 +31618,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31737,7 +31743,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32021,7 +32027,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -32355,7 +32361,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32436,7 +32442,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR150">
         <v>1.42</v>
@@ -33051,7 +33057,7 @@
         <v>1.75</v>
       </c>
       <c r="AP153">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
         <v>1.69</v>
@@ -33179,7 +33185,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33257,10 +33263,10 @@
         <v>2</v>
       </c>
       <c r="AP154">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ154">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR154">
         <v>1.69</v>
@@ -33385,7 +33391,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33875,7 +33881,7 @@
         <v>0.89</v>
       </c>
       <c r="AP157">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ157">
         <v>0.8100000000000001</v>
@@ -34084,7 +34090,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.3</v>
@@ -34493,10 +34499,10 @@
         <v>2.13</v>
       </c>
       <c r="AP160">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ160">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR160">
         <v>1.75</v>
@@ -34621,7 +34627,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34827,7 +34833,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35033,7 +35039,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35114,7 +35120,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ163">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR163">
         <v>1.52</v>
@@ -35239,7 +35245,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35445,7 +35451,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35857,7 +35863,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36269,7 +36275,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36475,7 +36481,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36887,7 +36893,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -36965,7 +36971,7 @@
         <v>1.13</v>
       </c>
       <c r="AP172">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ172">
         <v>0.87</v>
@@ -37299,7 +37305,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37380,7 +37386,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ174">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37711,7 +37717,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37792,7 +37798,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ176">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR176">
         <v>1.21</v>
@@ -37917,7 +37923,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38123,7 +38129,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38329,7 +38335,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38613,7 +38619,7 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ180">
         <v>0.87</v>
@@ -38741,7 +38747,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38819,7 +38825,7 @@
         <v>0.89</v>
       </c>
       <c r="AP181">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ181">
         <v>1.07</v>
@@ -38947,7 +38953,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39359,7 +39365,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39565,7 +39571,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39771,7 +39777,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40264,7 +40270,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ188">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR188">
         <v>1.83</v>
@@ -40389,7 +40395,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40673,7 +40679,7 @@
         <v>2.22</v>
       </c>
       <c r="AP190">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ190">
         <v>1.73</v>
@@ -40882,7 +40888,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ191">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -41497,7 +41503,7 @@
         <v>0.9</v>
       </c>
       <c r="AP194">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ194">
         <v>1.07</v>
@@ -41831,7 +41837,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42324,7 +42330,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ198">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR198">
         <v>1.64</v>
@@ -42733,7 +42739,7 @@
         <v>1.82</v>
       </c>
       <c r="AP200">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ200">
         <v>1.33</v>
@@ -43067,7 +43073,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43685,7 +43691,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43763,7 +43769,7 @@
         <v>1.82</v>
       </c>
       <c r="AP205">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205">
         <v>1.67</v>
@@ -44178,7 +44184,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ207">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -44509,7 +44515,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -45205,7 +45211,7 @@
         <v>0.09</v>
       </c>
       <c r="AP212">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ212">
         <v>0.07000000000000001</v>
@@ -45333,7 +45339,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45620,7 +45626,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ214">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR214">
         <v>1.66</v>
@@ -45745,7 +45751,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46444,7 +46450,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ218">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR218">
         <v>1.53</v>
@@ -46647,7 +46653,7 @@
         <v>1.45</v>
       </c>
       <c r="AP219">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ219">
         <v>1.47</v>
@@ -46981,7 +46987,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47062,7 +47068,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ221">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR221">
         <v>1.51</v>
@@ -47268,7 +47274,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ222">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR222">
         <v>1.49</v>
@@ -47393,7 +47399,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47471,7 +47477,7 @@
         <v>2</v>
       </c>
       <c r="AP223">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ223">
         <v>1.73</v>
@@ -47599,7 +47605,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47677,7 +47683,7 @@
         <v>0.5</v>
       </c>
       <c r="AP224">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ224">
         <v>0.75</v>
@@ -47805,7 +47811,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48217,7 +48223,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48423,7 +48429,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48629,7 +48635,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48835,7 +48841,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49865,7 +49871,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50149,7 +50155,7 @@
         <v>1.42</v>
       </c>
       <c r="AP236">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ236">
         <v>1.47</v>
@@ -50561,7 +50567,7 @@
         <v>2.23</v>
       </c>
       <c r="AP238">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ238">
         <v>1.94</v>
@@ -50689,7 +50695,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50770,7 +50776,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -50895,7 +50901,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -50976,7 +50982,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ240">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR240">
         <v>1.53</v>
@@ -51179,7 +51185,7 @@
         <v>1.83</v>
       </c>
       <c r="AP241">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ241">
         <v>1.73</v>
@@ -51307,7 +51313,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51388,7 +51394,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ242">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR242">
         <v>1.48</v>
@@ -52131,7 +52137,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52749,7 +52755,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52955,7 +52961,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53367,7 +53373,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53779,7 +53785,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -53857,7 +53863,7 @@
         <v>0.57</v>
       </c>
       <c r="AP254">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ254">
         <v>0.75</v>
@@ -54066,7 +54072,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ255">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR255">
         <v>1.49</v>
@@ -54191,7 +54197,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54269,7 +54275,7 @@
         <v>1.38</v>
       </c>
       <c r="AP256">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ256">
         <v>1.47</v>
@@ -54809,7 +54815,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -54887,7 +54893,7 @@
         <v>1.07</v>
       </c>
       <c r="AP259">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ259">
         <v>1.19</v>
@@ -55015,7 +55021,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55302,7 +55308,7 @@
         <v>1</v>
       </c>
       <c r="AQ261">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR261">
         <v>1.31</v>
@@ -55508,7 +55514,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ262">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR262">
         <v>1.23</v>
@@ -55839,7 +55845,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56251,7 +56257,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56457,7 +56463,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56869,7 +56875,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57075,7 +57081,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57693,7 +57699,7 @@
         <v>272</v>
       </c>
       <c r="P273" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -58517,7 +58523,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58673,6 +58679,624 @@
         <v>0</v>
       </c>
       <c r="BP277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7491761</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45774.35416666666</v>
+      </c>
+      <c r="F278">
+        <v>31</v>
+      </c>
+      <c r="G278" t="s">
+        <v>84</v>
+      </c>
+      <c r="H278" t="s">
+        <v>71</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>2</v>
+      </c>
+      <c r="K278">
+        <v>3</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>2</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>107</v>
+      </c>
+      <c r="P278" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q278">
+        <v>1.95</v>
+      </c>
+      <c r="R278">
+        <v>2.63</v>
+      </c>
+      <c r="S278">
+        <v>5</v>
+      </c>
+      <c r="T278">
+        <v>1.22</v>
+      </c>
+      <c r="U278">
+        <v>4</v>
+      </c>
+      <c r="V278">
+        <v>2</v>
+      </c>
+      <c r="W278">
+        <v>1.73</v>
+      </c>
+      <c r="X278">
+        <v>4.33</v>
+      </c>
+      <c r="Y278">
+        <v>1.2</v>
+      </c>
+      <c r="Z278">
+        <v>1.57</v>
+      </c>
+      <c r="AA278">
+        <v>4.8</v>
+      </c>
+      <c r="AB278">
+        <v>5.3</v>
+      </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
+      <c r="AE278">
+        <v>0</v>
+      </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
+      <c r="AG278">
+        <v>1.35</v>
+      </c>
+      <c r="AH278">
+        <v>3.04</v>
+      </c>
+      <c r="AI278">
+        <v>1.5</v>
+      </c>
+      <c r="AJ278">
+        <v>2.5</v>
+      </c>
+      <c r="AK278">
+        <v>0</v>
+      </c>
+      <c r="AL278">
+        <v>0</v>
+      </c>
+      <c r="AM278">
+        <v>0</v>
+      </c>
+      <c r="AN278">
+        <v>1.87</v>
+      </c>
+      <c r="AO278">
+        <v>1.13</v>
+      </c>
+      <c r="AP278">
+        <v>1.75</v>
+      </c>
+      <c r="AQ278">
+        <v>1.25</v>
+      </c>
+      <c r="AR278">
+        <v>1.79</v>
+      </c>
+      <c r="AS278">
+        <v>1.28</v>
+      </c>
+      <c r="AT278">
+        <v>3.07</v>
+      </c>
+      <c r="AU278">
+        <v>6</v>
+      </c>
+      <c r="AV278">
+        <v>5</v>
+      </c>
+      <c r="AW278">
+        <v>8</v>
+      </c>
+      <c r="AX278">
+        <v>7</v>
+      </c>
+      <c r="AY278">
+        <v>14</v>
+      </c>
+      <c r="AZ278">
+        <v>12</v>
+      </c>
+      <c r="BA278">
+        <v>4</v>
+      </c>
+      <c r="BB278">
+        <v>1</v>
+      </c>
+      <c r="BC278">
+        <v>5</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>0</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>0</v>
+      </c>
+      <c r="BI278">
+        <v>0</v>
+      </c>
+      <c r="BJ278">
+        <v>0</v>
+      </c>
+      <c r="BK278">
+        <v>0</v>
+      </c>
+      <c r="BL278">
+        <v>0</v>
+      </c>
+      <c r="BM278">
+        <v>0</v>
+      </c>
+      <c r="BN278">
+        <v>0</v>
+      </c>
+      <c r="BO278">
+        <v>0</v>
+      </c>
+      <c r="BP278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7491762</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45774.35416666666</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279" t="s">
+        <v>70</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" t="s">
+        <v>187</v>
+      </c>
+      <c r="P279" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q279">
+        <v>3.6</v>
+      </c>
+      <c r="R279">
+        <v>2.3</v>
+      </c>
+      <c r="S279">
+        <v>2.75</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3.25</v>
+      </c>
+      <c r="V279">
+        <v>2.5</v>
+      </c>
+      <c r="W279">
+        <v>1.5</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>3.12</v>
+      </c>
+      <c r="AA279">
+        <v>3.47</v>
+      </c>
+      <c r="AB279">
+        <v>2.35</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>1.96</v>
+      </c>
+      <c r="AF279">
+        <v>1.91</v>
+      </c>
+      <c r="AG279">
+        <v>1.7</v>
+      </c>
+      <c r="AH279">
+        <v>1.95</v>
+      </c>
+      <c r="AI279">
+        <v>1.57</v>
+      </c>
+      <c r="AJ279">
+        <v>2.25</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>1.8</v>
+      </c>
+      <c r="AO279">
+        <v>1.8</v>
+      </c>
+      <c r="AP279">
+        <v>1.88</v>
+      </c>
+      <c r="AQ279">
+        <v>1.69</v>
+      </c>
+      <c r="AR279">
+        <v>1.59</v>
+      </c>
+      <c r="AS279">
+        <v>1.56</v>
+      </c>
+      <c r="AT279">
+        <v>3.15</v>
+      </c>
+      <c r="AU279">
+        <v>8</v>
+      </c>
+      <c r="AV279">
+        <v>2</v>
+      </c>
+      <c r="AW279">
+        <v>11</v>
+      </c>
+      <c r="AX279">
+        <v>8</v>
+      </c>
+      <c r="AY279">
+        <v>20</v>
+      </c>
+      <c r="AZ279">
+        <v>10</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>9</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7491766</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45774.35416666666</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>80</v>
+      </c>
+      <c r="H280" t="s">
+        <v>75</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>275</v>
+      </c>
+      <c r="P280" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q280">
+        <v>2.63</v>
+      </c>
+      <c r="R280">
+        <v>2.38</v>
+      </c>
+      <c r="S280">
+        <v>3.6</v>
+      </c>
+      <c r="T280">
+        <v>1.3</v>
+      </c>
+      <c r="U280">
+        <v>3.4</v>
+      </c>
+      <c r="V280">
+        <v>2.38</v>
+      </c>
+      <c r="W280">
+        <v>1.53</v>
+      </c>
+      <c r="X280">
+        <v>6</v>
+      </c>
+      <c r="Y280">
+        <v>1.13</v>
+      </c>
+      <c r="Z280">
+        <v>2.15</v>
+      </c>
+      <c r="AA280">
+        <v>3.68</v>
+      </c>
+      <c r="AB280">
+        <v>3.35</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.53</v>
+      </c>
+      <c r="AH280">
+        <v>2.25</v>
+      </c>
+      <c r="AI280">
+        <v>1.5</v>
+      </c>
+      <c r="AJ280">
+        <v>2.5</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>0</v>
+      </c>
+      <c r="AN280">
+        <v>1.73</v>
+      </c>
+      <c r="AO280">
+        <v>1.13</v>
+      </c>
+      <c r="AP280">
+        <v>1.81</v>
+      </c>
+      <c r="AQ280">
+        <v>1.06</v>
+      </c>
+      <c r="AR280">
+        <v>1.86</v>
+      </c>
+      <c r="AS280">
+        <v>1.36</v>
+      </c>
+      <c r="AT280">
+        <v>3.22</v>
+      </c>
+      <c r="AU280">
+        <v>12</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>11</v>
+      </c>
+      <c r="AX280">
+        <v>9</v>
+      </c>
+      <c r="AY280">
+        <v>25</v>
+      </c>
+      <c r="AZ280">
+        <v>14</v>
+      </c>
+      <c r="BA280">
+        <v>5</v>
+      </c>
+      <c r="BB280">
+        <v>8</v>
+      </c>
+      <c r="BC280">
+        <v>13</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="415">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1254,6 +1254,12 @@
   <si>
     <t>['30', '45+3']</t>
   </si>
+  <si>
+    <t>['12', '15', '43', '52', '54']</t>
+  </si>
+  <si>
+    <t>['40', '48']</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2572,7 +2578,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ6">
         <v>1.47</v>
@@ -2981,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -3396,7 +3402,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -6280,7 +6286,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>2.28</v>
@@ -7307,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7928,7 +7934,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -8955,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ36">
         <v>1.69</v>
@@ -9370,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.52</v>
@@ -11427,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -12663,7 +12669,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12872,7 +12878,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -13490,7 +13496,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -15756,7 +15762,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ69">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>0.99</v>
@@ -15959,7 +15965,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ70">
         <v>1.69</v>
@@ -16165,7 +16171,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -17816,7 +17822,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -18640,7 +18646,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>2.13</v>
@@ -19255,7 +19261,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -20079,7 +20085,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ90">
         <v>1.07</v>
@@ -20288,7 +20294,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.66</v>
@@ -23169,7 +23175,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ105">
         <v>0.8100000000000001</v>
@@ -23378,7 +23384,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR106">
         <v>1.62</v>
@@ -23584,7 +23590,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ107">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23787,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108">
         <v>0.07000000000000001</v>
@@ -26053,7 +26059,7 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
         <v>1.69</v>
@@ -26259,7 +26265,7 @@
         <v>1.57</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -26674,7 +26680,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ122">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR122">
         <v>1.56</v>
@@ -27086,7 +27092,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.46</v>
@@ -29970,7 +29976,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ138">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.37</v>
@@ -30173,7 +30179,7 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ139">
         <v>1.73</v>
@@ -30379,10 +30385,10 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ140">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR140">
         <v>1.64</v>
@@ -35323,7 +35329,7 @@
         <v>0.22</v>
       </c>
       <c r="AP164">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ164">
         <v>0.75</v>
@@ -36147,7 +36153,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ168">
         <v>1.19</v>
@@ -36768,7 +36774,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ171">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR171">
         <v>1.56</v>
@@ -36974,7 +36980,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ172">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.67</v>
@@ -38207,7 +38213,7 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ178">
         <v>1.94</v>
@@ -38622,7 +38628,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ180">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -39649,7 +39655,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ185">
         <v>1.19</v>
@@ -39858,7 +39864,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ186">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR186">
         <v>1.53</v>
@@ -40885,7 +40891,7 @@
         <v>2</v>
       </c>
       <c r="AP191">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ191">
         <v>1.69</v>
@@ -41094,7 +41100,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -42327,7 +42333,7 @@
         <v>1.45</v>
       </c>
       <c r="AP198">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ198">
         <v>1.25</v>
@@ -43772,7 +43778,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ205">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR205">
         <v>1.73</v>
@@ -44799,10 +44805,10 @@
         <v>0.91</v>
       </c>
       <c r="AP210">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ210">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.67</v>
@@ -45829,7 +45835,7 @@
         <v>1.09</v>
       </c>
       <c r="AP215">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ215">
         <v>0.88</v>
@@ -48098,7 +48104,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ226">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR226">
         <v>1.26</v>
@@ -48301,7 +48307,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ227">
         <v>1.07</v>
@@ -48507,7 +48513,7 @@
         <v>1.5</v>
       </c>
       <c r="AP228">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ228">
         <v>1.67</v>
@@ -48716,7 +48722,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ229">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR229">
         <v>1.5</v>
@@ -52218,7 +52224,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ246">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR246">
         <v>1.42</v>
@@ -52630,7 +52636,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ248">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR248">
         <v>1.56</v>
@@ -53245,7 +53251,7 @@
         <v>1.54</v>
       </c>
       <c r="AP251">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ251">
         <v>1.33</v>
@@ -53451,7 +53457,7 @@
         <v>0.71</v>
       </c>
       <c r="AP252">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ252">
         <v>0.8100000000000001</v>
@@ -55926,7 +55932,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ264">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR264">
         <v>1.52</v>
@@ -56335,7 +56341,7 @@
         <v>1.71</v>
       </c>
       <c r="AP266">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ266">
         <v>1.67</v>
@@ -56747,7 +56753,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP268">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ268">
         <v>0.07000000000000001</v>
@@ -57162,7 +57168,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ270">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR270">
         <v>1.83</v>
@@ -59298,6 +59304,418 @@
       </c>
       <c r="BP280">
         <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7491775</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45779.5625</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>74</v>
+      </c>
+      <c r="H281" t="s">
+        <v>87</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>3</v>
+      </c>
+      <c r="K281">
+        <v>3</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>5</v>
+      </c>
+      <c r="N281">
+        <v>5</v>
+      </c>
+      <c r="O281" t="s">
+        <v>92</v>
+      </c>
+      <c r="P281" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q281">
+        <v>1.91</v>
+      </c>
+      <c r="R281">
+        <v>2.75</v>
+      </c>
+      <c r="S281">
+        <v>5.5</v>
+      </c>
+      <c r="T281">
+        <v>1.22</v>
+      </c>
+      <c r="U281">
+        <v>4</v>
+      </c>
+      <c r="V281">
+        <v>2</v>
+      </c>
+      <c r="W281">
+        <v>1.73</v>
+      </c>
+      <c r="X281">
+        <v>4.33</v>
+      </c>
+      <c r="Y281">
+        <v>1.2</v>
+      </c>
+      <c r="Z281">
+        <v>1.56</v>
+      </c>
+      <c r="AA281">
+        <v>4.7</v>
+      </c>
+      <c r="AB281">
+        <v>5.6</v>
+      </c>
+      <c r="AC281">
+        <v>1.01</v>
+      </c>
+      <c r="AD281">
+        <v>13</v>
+      </c>
+      <c r="AE281">
+        <v>1.12</v>
+      </c>
+      <c r="AF281">
+        <v>5.75</v>
+      </c>
+      <c r="AG281">
+        <v>1.38</v>
+      </c>
+      <c r="AH281">
+        <v>2.9</v>
+      </c>
+      <c r="AI281">
+        <v>1.57</v>
+      </c>
+      <c r="AJ281">
+        <v>2.25</v>
+      </c>
+      <c r="AK281">
+        <v>1.11</v>
+      </c>
+      <c r="AL281">
+        <v>1.14</v>
+      </c>
+      <c r="AM281">
+        <v>2.7</v>
+      </c>
+      <c r="AN281">
+        <v>1.27</v>
+      </c>
+      <c r="AO281">
+        <v>0.87</v>
+      </c>
+      <c r="AP281">
+        <v>1.19</v>
+      </c>
+      <c r="AQ281">
+        <v>1</v>
+      </c>
+      <c r="AR281">
+        <v>1.78</v>
+      </c>
+      <c r="AS281">
+        <v>1.35</v>
+      </c>
+      <c r="AT281">
+        <v>3.13</v>
+      </c>
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>7</v>
+      </c>
+      <c r="AW281">
+        <v>8</v>
+      </c>
+      <c r="AX281">
+        <v>6</v>
+      </c>
+      <c r="AY281">
+        <v>15</v>
+      </c>
+      <c r="AZ281">
+        <v>15</v>
+      </c>
+      <c r="BA281">
+        <v>7</v>
+      </c>
+      <c r="BB281">
+        <v>3</v>
+      </c>
+      <c r="BC281">
+        <v>10</v>
+      </c>
+      <c r="BD281">
+        <v>1.4</v>
+      </c>
+      <c r="BE281">
+        <v>9.9</v>
+      </c>
+      <c r="BF281">
+        <v>3.6</v>
+      </c>
+      <c r="BG281">
+        <v>1.14</v>
+      </c>
+      <c r="BH281">
+        <v>4.45</v>
+      </c>
+      <c r="BI281">
+        <v>1.29</v>
+      </c>
+      <c r="BJ281">
+        <v>3.04</v>
+      </c>
+      <c r="BK281">
+        <v>1.54</v>
+      </c>
+      <c r="BL281">
+        <v>2.25</v>
+      </c>
+      <c r="BM281">
+        <v>1.85</v>
+      </c>
+      <c r="BN281">
+        <v>1.85</v>
+      </c>
+      <c r="BO281">
+        <v>2.45</v>
+      </c>
+      <c r="BP281">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7491773</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45779.5625</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>75</v>
+      </c>
+      <c r="H282" t="s">
+        <v>85</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>92</v>
+      </c>
+      <c r="P282" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q282">
+        <v>3.5</v>
+      </c>
+      <c r="R282">
+        <v>2.4</v>
+      </c>
+      <c r="S282">
+        <v>2.6</v>
+      </c>
+      <c r="T282">
+        <v>1.25</v>
+      </c>
+      <c r="U282">
+        <v>3.75</v>
+      </c>
+      <c r="V282">
+        <v>2.2</v>
+      </c>
+      <c r="W282">
+        <v>1.62</v>
+      </c>
+      <c r="X282">
+        <v>5</v>
+      </c>
+      <c r="Y282">
+        <v>1.17</v>
+      </c>
+      <c r="Z282">
+        <v>2.82</v>
+      </c>
+      <c r="AA282">
+        <v>3.63</v>
+      </c>
+      <c r="AB282">
+        <v>2.47</v>
+      </c>
+      <c r="AC282">
+        <v>1.04</v>
+      </c>
+      <c r="AD282">
+        <v>10</v>
+      </c>
+      <c r="AE282">
+        <v>1.18</v>
+      </c>
+      <c r="AF282">
+        <v>4.75</v>
+      </c>
+      <c r="AG282">
+        <v>1.53</v>
+      </c>
+      <c r="AH282">
+        <v>2.25</v>
+      </c>
+      <c r="AI282">
+        <v>1.5</v>
+      </c>
+      <c r="AJ282">
+        <v>2.5</v>
+      </c>
+      <c r="AK282">
+        <v>1.65</v>
+      </c>
+      <c r="AL282">
+        <v>1.22</v>
+      </c>
+      <c r="AM282">
+        <v>1.38</v>
+      </c>
+      <c r="AN282">
+        <v>1.4</v>
+      </c>
+      <c r="AO282">
+        <v>1.67</v>
+      </c>
+      <c r="AP282">
+        <v>1.31</v>
+      </c>
+      <c r="AQ282">
+        <v>1.75</v>
+      </c>
+      <c r="AR282">
+        <v>1.65</v>
+      </c>
+      <c r="AS282">
+        <v>1.53</v>
+      </c>
+      <c r="AT282">
+        <v>3.18</v>
+      </c>
+      <c r="AU282">
+        <v>4</v>
+      </c>
+      <c r="AV282">
+        <v>6</v>
+      </c>
+      <c r="AW282">
+        <v>8</v>
+      </c>
+      <c r="AX282">
+        <v>11</v>
+      </c>
+      <c r="AY282">
+        <v>14</v>
+      </c>
+      <c r="AZ282">
+        <v>22</v>
+      </c>
+      <c r="BA282">
+        <v>6</v>
+      </c>
+      <c r="BB282">
+        <v>8</v>
+      </c>
+      <c r="BC282">
+        <v>14</v>
+      </c>
+      <c r="BD282">
+        <v>2.03</v>
+      </c>
+      <c r="BE282">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF282">
+        <v>2.06</v>
+      </c>
+      <c r="BG282">
+        <v>1.17</v>
+      </c>
+      <c r="BH282">
+        <v>3.96</v>
+      </c>
+      <c r="BI282">
+        <v>1.35</v>
+      </c>
+      <c r="BJ282">
+        <v>2.74</v>
+      </c>
+      <c r="BK282">
+        <v>1.7</v>
+      </c>
+      <c r="BL282">
+        <v>2.05</v>
+      </c>
+      <c r="BM282">
+        <v>2.09</v>
+      </c>
+      <c r="BN282">
+        <v>1.66</v>
+      </c>
+      <c r="BO282">
+        <v>2.71</v>
+      </c>
+      <c r="BP282">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="419">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -844,6 +844,9 @@
     <t>['35', '77']</t>
   </si>
   <si>
+    <t>['22', '52']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1260,6 +1263,15 @@
   <si>
     <t>['40', '48']</t>
   </si>
+  <si>
+    <t>['28', '67']</t>
+  </si>
+  <si>
+    <t>['47', '72']</t>
+  </si>
+  <si>
+    <t>['23', '58', '80', '90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1620,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1879,7 +1891,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1957,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2085,7 +2097,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2372,7 +2384,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2497,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2909,7 +2921,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3115,7 +3127,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3193,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3527,7 +3539,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3605,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3939,7 +3951,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4351,7 +4363,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4969,7 +4981,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5175,7 +5187,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5253,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
         <v>1.94</v>
@@ -5462,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5587,7 +5599,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5874,7 +5886,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6492,7 +6504,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ24">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6695,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6823,7 +6835,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6901,10 +6913,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -7029,7 +7041,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7107,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>1.19</v>
@@ -7235,7 +7247,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7522,7 +7534,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7647,7 +7659,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7853,7 +7865,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8265,7 +8277,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8471,7 +8483,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8883,7 +8895,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9089,7 +9101,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9167,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -9295,7 +9307,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9913,7 +9925,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9991,7 +10003,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.19</v>
@@ -10197,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10325,7 +10337,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10403,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>1.94</v>
@@ -10737,7 +10749,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10818,7 +10830,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ45">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR45">
         <v>1.24</v>
@@ -11024,7 +11036,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR46">
         <v>1.28</v>
@@ -11149,7 +11161,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11230,7 +11242,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11355,7 +11367,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11561,7 +11573,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11767,7 +11779,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12051,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12179,7 +12191,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12260,7 +12272,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -12385,7 +12397,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12591,7 +12603,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12797,7 +12809,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13003,7 +13015,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13081,7 +13093,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -13209,7 +13221,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13290,7 +13302,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13415,7 +13427,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13827,7 +13839,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13905,7 +13917,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>1.94</v>
@@ -14033,7 +14045,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14445,7 +14457,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14651,7 +14663,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14729,7 +14741,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14938,7 +14950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -15063,7 +15075,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15347,7 +15359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>0.8100000000000001</v>
@@ -15681,7 +15693,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15887,7 +15899,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16093,7 +16105,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16377,10 +16389,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16505,7 +16517,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16586,7 +16598,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -16789,7 +16801,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
         <v>1.69</v>
@@ -17123,7 +17135,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17329,7 +17341,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17410,7 +17422,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR77">
         <v>1.26</v>
@@ -18025,7 +18037,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -18153,7 +18165,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18565,7 +18577,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18643,7 +18655,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18771,7 +18783,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18852,7 +18864,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ84">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR84">
         <v>1.18</v>
@@ -18977,7 +18989,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19183,7 +19195,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19389,7 +19401,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19470,7 +19482,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.33</v>
@@ -19595,7 +19607,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19801,7 +19813,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19879,7 +19891,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>0.8100000000000001</v>
@@ -20007,7 +20019,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20088,7 +20100,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ90">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -20291,7 +20303,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20500,7 +20512,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20703,7 +20715,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>1.06</v>
@@ -21037,7 +21049,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21449,7 +21461,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21655,7 +21667,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22351,10 +22363,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ101">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22763,7 +22775,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22891,7 +22903,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22969,7 +22981,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>1.69</v>
@@ -23303,7 +23315,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23509,7 +23521,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23796,7 +23808,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ108">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -24002,7 +24014,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ109">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -24127,7 +24139,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24539,7 +24551,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24745,7 +24757,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24951,7 +24963,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25157,7 +25169,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25363,7 +25375,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25569,7 +25581,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25775,7 +25787,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25981,7 +25993,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26187,7 +26199,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26393,7 +26405,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26471,10 +26483,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR121">
         <v>1.92</v>
@@ -26599,7 +26611,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26883,10 +26895,10 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -27089,7 +27101,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27217,7 +27229,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27298,7 +27310,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR125">
         <v>1.52</v>
@@ -27423,7 +27435,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27504,7 +27516,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ126">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27707,7 +27719,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -28041,7 +28053,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28247,7 +28259,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28659,7 +28671,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28865,7 +28877,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29071,7 +29083,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29483,7 +29495,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29689,7 +29701,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29770,7 +29782,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ137">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR137">
         <v>1.55</v>
@@ -29895,7 +29907,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30182,7 +30194,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ139">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR139">
         <v>1.49</v>
@@ -30307,7 +30319,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30591,10 +30603,10 @@
         <v>1.43</v>
       </c>
       <c r="AP141">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR141">
         <v>1.46</v>
@@ -30719,7 +30731,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30797,7 +30809,7 @@
         <v>1.75</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>1.33</v>
@@ -31003,7 +31015,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ143">
         <v>1.19</v>
@@ -31212,7 +31224,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31337,7 +31349,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31415,7 +31427,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
         <v>1.47</v>
@@ -31543,7 +31555,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31749,7 +31761,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32367,7 +32379,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33191,7 +33203,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33397,7 +33409,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33684,7 +33696,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ156">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR156">
         <v>1.25</v>
@@ -34093,7 +34105,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34633,7 +34645,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34839,7 +34851,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35045,7 +35057,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35251,7 +35263,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35457,7 +35469,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35741,7 +35753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
         <v>1.47</v>
@@ -35869,7 +35881,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35950,7 +35962,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ167">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR167">
         <v>1.61</v>
@@ -36281,7 +36293,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36362,7 +36374,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ169">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR169">
         <v>1.39</v>
@@ -36487,7 +36499,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36565,10 +36577,10 @@
         <v>0.13</v>
       </c>
       <c r="AP170">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR170">
         <v>1.46</v>
@@ -36771,7 +36783,7 @@
         <v>1.56</v>
       </c>
       <c r="AP171">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171">
         <v>1.75</v>
@@ -36899,7 +36911,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37311,7 +37323,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37723,7 +37735,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37801,7 +37813,7 @@
         <v>1.89</v>
       </c>
       <c r="AP176">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ176">
         <v>1.69</v>
@@ -37929,7 +37941,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38135,7 +38147,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38341,7 +38353,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38753,7 +38765,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38834,7 +38846,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ181">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR181">
         <v>1.76</v>
@@ -38959,7 +38971,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39040,7 +39052,7 @@
         <v>1</v>
       </c>
       <c r="AQ182">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -39246,7 +39258,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ183">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR183">
         <v>1.4</v>
@@ -39371,7 +39383,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39449,7 +39461,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ184">
         <v>1.47</v>
@@ -39577,7 +39589,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39783,7 +39795,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39861,7 +39873,7 @@
         <v>1.7</v>
       </c>
       <c r="AP186">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>1.75</v>
@@ -40273,7 +40285,7 @@
         <v>1.3</v>
       </c>
       <c r="AP188">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ188">
         <v>1.06</v>
@@ -40401,7 +40413,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40688,7 +40700,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ190">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -41512,7 +41524,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ194">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR194">
         <v>1.74</v>
@@ -41715,7 +41727,7 @@
         <v>1.2</v>
       </c>
       <c r="AP195">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ195">
         <v>0.88</v>
@@ -41843,7 +41855,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42130,7 +42142,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ197">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR197">
         <v>1.21</v>
@@ -43079,7 +43091,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43363,7 +43375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP203">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ203">
         <v>1.47</v>
@@ -43572,7 +43584,7 @@
         <v>1</v>
       </c>
       <c r="AQ204">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR204">
         <v>1.2</v>
@@ -43697,7 +43709,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43981,10 +43993,10 @@
         <v>2.1</v>
       </c>
       <c r="AP206">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ206">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR206">
         <v>1.8</v>
@@ -44187,7 +44199,7 @@
         <v>1.18</v>
       </c>
       <c r="AP207">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ207">
         <v>1.06</v>
@@ -44521,7 +44533,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -45011,7 +45023,7 @@
         <v>0.67</v>
       </c>
       <c r="AP211">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ211">
         <v>0.8100000000000001</v>
@@ -45220,7 +45232,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ212">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR212">
         <v>1.77</v>
@@ -45345,7 +45357,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45426,7 +45438,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ213">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR213">
         <v>1.64</v>
@@ -45757,7 +45769,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46250,7 +46262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ217">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR217">
         <v>1.68</v>
@@ -46453,7 +46465,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ218">
         <v>1.25</v>
@@ -46993,7 +47005,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47277,7 +47289,7 @@
         <v>1.67</v>
       </c>
       <c r="AP222">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ222">
         <v>1.69</v>
@@ -47405,7 +47417,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47486,7 +47498,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ223">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR223">
         <v>1.8</v>
@@ -47611,7 +47623,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47817,7 +47829,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48229,7 +48241,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48310,7 +48322,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ227">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -48435,7 +48447,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48516,7 +48528,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ228">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -48641,7 +48653,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48847,7 +48859,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49134,7 +49146,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ231">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR231">
         <v>1.5</v>
@@ -49337,7 +49349,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ232">
         <v>0.88</v>
@@ -49877,7 +49889,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49955,7 +49967,7 @@
         <v>1.38</v>
       </c>
       <c r="AP235">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ235">
         <v>1.69</v>
@@ -50367,7 +50379,7 @@
         <v>0.92</v>
       </c>
       <c r="AP237">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ237">
         <v>0.88</v>
@@ -50701,7 +50713,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50907,7 +50919,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51194,7 +51206,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ241">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR241">
         <v>1.78</v>
@@ -51319,7 +51331,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -52018,7 +52030,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR245">
         <v>1.63</v>
@@ -52143,7 +52155,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52221,7 +52233,7 @@
         <v>1.69</v>
       </c>
       <c r="AP246">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ246">
         <v>1.75</v>
@@ -52427,7 +52439,7 @@
         <v>1.15</v>
       </c>
       <c r="AP247">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ247">
         <v>1</v>
@@ -52761,7 +52773,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52842,7 +52854,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ249">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR249">
         <v>1.55</v>
@@ -52967,7 +52979,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53045,7 +53057,7 @@
         <v>1.5</v>
       </c>
       <c r="AP250">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ250">
         <v>1.69</v>
@@ -53379,7 +53391,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53666,7 +53678,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ253">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR253">
         <v>1.53</v>
@@ -53791,7 +53803,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54203,7 +54215,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54693,7 +54705,7 @@
         <v>2.14</v>
       </c>
       <c r="AP258">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ258">
         <v>1.94</v>
@@ -54821,7 +54833,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55027,7 +55039,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55108,7 +55120,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ260">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR260">
         <v>1.76</v>
@@ -55723,7 +55735,7 @@
         <v>1.43</v>
       </c>
       <c r="AP263">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ263">
         <v>1.33</v>
@@ -55851,7 +55863,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56138,7 +56150,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ265">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR265">
         <v>1.55</v>
@@ -56263,7 +56275,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56344,7 +56356,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ266">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -56469,7 +56481,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56547,7 +56559,7 @@
         <v>1.6</v>
       </c>
       <c r="AP267">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ267">
         <v>1.69</v>
@@ -56756,7 +56768,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ268">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR268">
         <v>1.79</v>
@@ -56881,7 +56893,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -56959,10 +56971,10 @@
         <v>1.14</v>
       </c>
       <c r="AP269">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ269">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57087,7 +57099,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57165,7 +57177,7 @@
         <v>0.93</v>
       </c>
       <c r="AP270">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ270">
         <v>1</v>
@@ -57705,7 +57717,7 @@
         <v>272</v>
       </c>
       <c r="P273" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -58529,7 +58541,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58735,7 +58747,7 @@
         <v>107</v>
       </c>
       <c r="P278" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q278">
         <v>1.95</v>
@@ -59147,7 +59159,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q280">
         <v>2.63</v>
@@ -59353,7 +59365,7 @@
         <v>92</v>
       </c>
       <c r="P281" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q281">
         <v>1.91</v>
@@ -59559,7 +59571,7 @@
         <v>92</v>
       </c>
       <c r="P282" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59716,6 +59728,830 @@
       </c>
       <c r="BP282">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7491777</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45780.33333333334</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>78</v>
+      </c>
+      <c r="H283" t="s">
+        <v>72</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>119</v>
+      </c>
+      <c r="P283" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q283">
+        <v>3.4</v>
+      </c>
+      <c r="R283">
+        <v>2.2</v>
+      </c>
+      <c r="S283">
+        <v>3.1</v>
+      </c>
+      <c r="T283">
+        <v>1.4</v>
+      </c>
+      <c r="U283">
+        <v>2.75</v>
+      </c>
+      <c r="V283">
+        <v>2.75</v>
+      </c>
+      <c r="W283">
+        <v>1.4</v>
+      </c>
+      <c r="X283">
+        <v>8</v>
+      </c>
+      <c r="Y283">
+        <v>1.08</v>
+      </c>
+      <c r="Z283">
+        <v>3.03</v>
+      </c>
+      <c r="AA283">
+        <v>3.41</v>
+      </c>
+      <c r="AB283">
+        <v>2.42</v>
+      </c>
+      <c r="AC283">
+        <v>1.05</v>
+      </c>
+      <c r="AD283">
+        <v>9</v>
+      </c>
+      <c r="AE283">
+        <v>1.3</v>
+      </c>
+      <c r="AF283">
+        <v>3.45</v>
+      </c>
+      <c r="AG283">
+        <v>1.88</v>
+      </c>
+      <c r="AH283">
+        <v>1.93</v>
+      </c>
+      <c r="AI283">
+        <v>1.73</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>1.53</v>
+      </c>
+      <c r="AL283">
+        <v>1.28</v>
+      </c>
+      <c r="AM283">
+        <v>1.42</v>
+      </c>
+      <c r="AN283">
+        <v>1.07</v>
+      </c>
+      <c r="AO283">
+        <v>1.07</v>
+      </c>
+      <c r="AP283">
+        <v>1</v>
+      </c>
+      <c r="AQ283">
+        <v>1.19</v>
+      </c>
+      <c r="AR283">
+        <v>1.43</v>
+      </c>
+      <c r="AS283">
+        <v>1.48</v>
+      </c>
+      <c r="AT283">
+        <v>2.91</v>
+      </c>
+      <c r="AU283">
+        <v>5</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>15</v>
+      </c>
+      <c r="AX283">
+        <v>8</v>
+      </c>
+      <c r="AY283">
+        <v>24</v>
+      </c>
+      <c r="AZ283">
+        <v>16</v>
+      </c>
+      <c r="BA283">
+        <v>7</v>
+      </c>
+      <c r="BB283">
+        <v>1</v>
+      </c>
+      <c r="BC283">
+        <v>8</v>
+      </c>
+      <c r="BD283">
+        <v>2.05</v>
+      </c>
+      <c r="BE283">
+        <v>8</v>
+      </c>
+      <c r="BF283">
+        <v>1.95</v>
+      </c>
+      <c r="BG283">
+        <v>1.2</v>
+      </c>
+      <c r="BH283">
+        <v>3.9</v>
+      </c>
+      <c r="BI283">
+        <v>1.39</v>
+      </c>
+      <c r="BJ283">
+        <v>2.78</v>
+      </c>
+      <c r="BK283">
+        <v>1.64</v>
+      </c>
+      <c r="BL283">
+        <v>2.17</v>
+      </c>
+      <c r="BM283">
+        <v>2.05</v>
+      </c>
+      <c r="BN283">
+        <v>1.7</v>
+      </c>
+      <c r="BO283">
+        <v>2.52</v>
+      </c>
+      <c r="BP283">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7491776</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45780.33333333334</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>86</v>
+      </c>
+      <c r="H284" t="s">
+        <v>83</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>4</v>
+      </c>
+      <c r="O284" t="s">
+        <v>276</v>
+      </c>
+      <c r="P284" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q284">
+        <v>3.1</v>
+      </c>
+      <c r="R284">
+        <v>2.3</v>
+      </c>
+      <c r="S284">
+        <v>3.1</v>
+      </c>
+      <c r="T284">
+        <v>1.3</v>
+      </c>
+      <c r="U284">
+        <v>3.4</v>
+      </c>
+      <c r="V284">
+        <v>2.5</v>
+      </c>
+      <c r="W284">
+        <v>1.5</v>
+      </c>
+      <c r="X284">
+        <v>6</v>
+      </c>
+      <c r="Y284">
+        <v>1.13</v>
+      </c>
+      <c r="Z284">
+        <v>2.56</v>
+      </c>
+      <c r="AA284">
+        <v>3.69</v>
+      </c>
+      <c r="AB284">
+        <v>2.68</v>
+      </c>
+      <c r="AC284">
+        <v>1.04</v>
+      </c>
+      <c r="AD284">
+        <v>10</v>
+      </c>
+      <c r="AE284">
+        <v>1.2</v>
+      </c>
+      <c r="AF284">
+        <v>4.33</v>
+      </c>
+      <c r="AG284">
+        <v>1.6</v>
+      </c>
+      <c r="AH284">
+        <v>2.1</v>
+      </c>
+      <c r="AI284">
+        <v>1.53</v>
+      </c>
+      <c r="AJ284">
+        <v>2.38</v>
+      </c>
+      <c r="AK284">
+        <v>1.57</v>
+      </c>
+      <c r="AL284">
+        <v>1.25</v>
+      </c>
+      <c r="AM284">
+        <v>1.42</v>
+      </c>
+      <c r="AN284">
+        <v>1.47</v>
+      </c>
+      <c r="AO284">
+        <v>1.73</v>
+      </c>
+      <c r="AP284">
+        <v>1.44</v>
+      </c>
+      <c r="AQ284">
+        <v>1.69</v>
+      </c>
+      <c r="AR284">
+        <v>1.44</v>
+      </c>
+      <c r="AS284">
+        <v>1.24</v>
+      </c>
+      <c r="AT284">
+        <v>2.68</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>6</v>
+      </c>
+      <c r="AW284">
+        <v>8</v>
+      </c>
+      <c r="AX284">
+        <v>5</v>
+      </c>
+      <c r="AY284">
+        <v>15</v>
+      </c>
+      <c r="AZ284">
+        <v>12</v>
+      </c>
+      <c r="BA284">
+        <v>4</v>
+      </c>
+      <c r="BB284">
+        <v>3</v>
+      </c>
+      <c r="BC284">
+        <v>7</v>
+      </c>
+      <c r="BD284">
+        <v>2.1</v>
+      </c>
+      <c r="BE284">
+        <v>6.75</v>
+      </c>
+      <c r="BF284">
+        <v>1.88</v>
+      </c>
+      <c r="BG284">
+        <v>1.21</v>
+      </c>
+      <c r="BH284">
+        <v>3.8</v>
+      </c>
+      <c r="BI284">
+        <v>1.38</v>
+      </c>
+      <c r="BJ284">
+        <v>2.7</v>
+      </c>
+      <c r="BK284">
+        <v>1.64</v>
+      </c>
+      <c r="BL284">
+        <v>2.1</v>
+      </c>
+      <c r="BM284">
+        <v>2</v>
+      </c>
+      <c r="BN284">
+        <v>1.73</v>
+      </c>
+      <c r="BO284">
+        <v>2.48</v>
+      </c>
+      <c r="BP284">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7491770</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45780.33333333334</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>76</v>
+      </c>
+      <c r="H285" t="s">
+        <v>84</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>4</v>
+      </c>
+      <c r="N285">
+        <v>4</v>
+      </c>
+      <c r="O285" t="s">
+        <v>92</v>
+      </c>
+      <c r="P285" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q285">
+        <v>3.4</v>
+      </c>
+      <c r="R285">
+        <v>2.5</v>
+      </c>
+      <c r="S285">
+        <v>2.6</v>
+      </c>
+      <c r="T285">
+        <v>1.22</v>
+      </c>
+      <c r="U285">
+        <v>4</v>
+      </c>
+      <c r="V285">
+        <v>2.1</v>
+      </c>
+      <c r="W285">
+        <v>1.67</v>
+      </c>
+      <c r="X285">
+        <v>4.5</v>
+      </c>
+      <c r="Y285">
+        <v>1.18</v>
+      </c>
+      <c r="Z285">
+        <v>3.06</v>
+      </c>
+      <c r="AA285">
+        <v>3.92</v>
+      </c>
+      <c r="AB285">
+        <v>2.2</v>
+      </c>
+      <c r="AC285">
+        <v>1.01</v>
+      </c>
+      <c r="AD285">
+        <v>15</v>
+      </c>
+      <c r="AE285">
+        <v>1.14</v>
+      </c>
+      <c r="AF285">
+        <v>5.5</v>
+      </c>
+      <c r="AG285">
+        <v>1.42</v>
+      </c>
+      <c r="AH285">
+        <v>2.74</v>
+      </c>
+      <c r="AI285">
+        <v>1.4</v>
+      </c>
+      <c r="AJ285">
+        <v>2.75</v>
+      </c>
+      <c r="AK285">
+        <v>1.65</v>
+      </c>
+      <c r="AL285">
+        <v>1.22</v>
+      </c>
+      <c r="AM285">
+        <v>1.4</v>
+      </c>
+      <c r="AN285">
+        <v>1.67</v>
+      </c>
+      <c r="AO285">
+        <v>1.67</v>
+      </c>
+      <c r="AP285">
+        <v>1.56</v>
+      </c>
+      <c r="AQ285">
+        <v>1.75</v>
+      </c>
+      <c r="AR285">
+        <v>1.63</v>
+      </c>
+      <c r="AS285">
+        <v>1.75</v>
+      </c>
+      <c r="AT285">
+        <v>3.38</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>9</v>
+      </c>
+      <c r="AW285">
+        <v>17</v>
+      </c>
+      <c r="AX285">
+        <v>3</v>
+      </c>
+      <c r="AY285">
+        <v>24</v>
+      </c>
+      <c r="AZ285">
+        <v>15</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>5</v>
+      </c>
+      <c r="BC285">
+        <v>9</v>
+      </c>
+      <c r="BD285">
+        <v>2.05</v>
+      </c>
+      <c r="BE285">
+        <v>6.75</v>
+      </c>
+      <c r="BF285">
+        <v>1.94</v>
+      </c>
+      <c r="BG285">
+        <v>1.19</v>
+      </c>
+      <c r="BH285">
+        <v>4</v>
+      </c>
+      <c r="BI285">
+        <v>1.35</v>
+      </c>
+      <c r="BJ285">
+        <v>2.9</v>
+      </c>
+      <c r="BK285">
+        <v>1.73</v>
+      </c>
+      <c r="BL285">
+        <v>2</v>
+      </c>
+      <c r="BM285">
+        <v>1.9</v>
+      </c>
+      <c r="BN285">
+        <v>1.78</v>
+      </c>
+      <c r="BO285">
+        <v>2.38</v>
+      </c>
+      <c r="BP285">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7491769</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>70</v>
+      </c>
+      <c r="H286" t="s">
+        <v>79</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>110</v>
+      </c>
+      <c r="P286" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q286">
+        <v>1.67</v>
+      </c>
+      <c r="R286">
+        <v>2.75</v>
+      </c>
+      <c r="S286">
+        <v>8</v>
+      </c>
+      <c r="T286">
+        <v>1.25</v>
+      </c>
+      <c r="U286">
+        <v>3.75</v>
+      </c>
+      <c r="V286">
+        <v>2.1</v>
+      </c>
+      <c r="W286">
+        <v>1.67</v>
+      </c>
+      <c r="X286">
+        <v>5</v>
+      </c>
+      <c r="Y286">
+        <v>1.17</v>
+      </c>
+      <c r="Z286">
+        <v>1.34</v>
+      </c>
+      <c r="AA286">
+        <v>5.7</v>
+      </c>
+      <c r="AB286">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC286">
+        <v>1.01</v>
+      </c>
+      <c r="AD286">
+        <v>17</v>
+      </c>
+      <c r="AE286">
+        <v>1.15</v>
+      </c>
+      <c r="AF286">
+        <v>5.25</v>
+      </c>
+      <c r="AG286">
+        <v>1.46</v>
+      </c>
+      <c r="AH286">
+        <v>2.6</v>
+      </c>
+      <c r="AI286">
+        <v>1.83</v>
+      </c>
+      <c r="AJ286">
+        <v>1.83</v>
+      </c>
+      <c r="AK286">
+        <v>1.05</v>
+      </c>
+      <c r="AL286">
+        <v>1.14</v>
+      </c>
+      <c r="AM286">
+        <v>3.4</v>
+      </c>
+      <c r="AN286">
+        <v>1.8</v>
+      </c>
+      <c r="AO286">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP286">
+        <v>1.75</v>
+      </c>
+      <c r="AQ286">
+        <v>0.13</v>
+      </c>
+      <c r="AR286">
+        <v>1.85</v>
+      </c>
+      <c r="AS286">
+        <v>1.28</v>
+      </c>
+      <c r="AT286">
+        <v>3.13</v>
+      </c>
+      <c r="AU286">
+        <v>5</v>
+      </c>
+      <c r="AV286">
+        <v>5</v>
+      </c>
+      <c r="AW286">
+        <v>17</v>
+      </c>
+      <c r="AX286">
+        <v>1</v>
+      </c>
+      <c r="AY286">
+        <v>26</v>
+      </c>
+      <c r="AZ286">
+        <v>6</v>
+      </c>
+      <c r="BA286">
+        <v>8</v>
+      </c>
+      <c r="BB286">
+        <v>1</v>
+      </c>
+      <c r="BC286">
+        <v>9</v>
+      </c>
+      <c r="BD286">
+        <v>1.21</v>
+      </c>
+      <c r="BE286">
+        <v>9</v>
+      </c>
+      <c r="BF286">
+        <v>4.6</v>
+      </c>
+      <c r="BG286">
+        <v>1.18</v>
+      </c>
+      <c r="BH286">
+        <v>4.2</v>
+      </c>
+      <c r="BI286">
+        <v>1.32</v>
+      </c>
+      <c r="BJ286">
+        <v>3.05</v>
+      </c>
+      <c r="BK286">
+        <v>1.52</v>
+      </c>
+      <c r="BL286">
+        <v>2.33</v>
+      </c>
+      <c r="BM286">
+        <v>1.93</v>
+      </c>
+      <c r="BN286">
+        <v>1.77</v>
+      </c>
+      <c r="BO286">
+        <v>2.25</v>
+      </c>
+      <c r="BP286">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="422">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -847,6 +847,12 @@
     <t>['22', '52']</t>
   </si>
   <si>
+    <t>['10', '58']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1249,9 +1255,6 @@
     <t>['39']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['19', '45+4', '61']</t>
   </si>
   <si>
@@ -1271,6 +1274,12 @@
   </si>
   <si>
     <t>['23', '58', '80', '90+5']</t>
+  </si>
+  <si>
+    <t>['31', '64']</t>
+  </si>
+  <si>
+    <t>['52', '63', '79']</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1891,7 +1900,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2097,7 +2106,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2175,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1.19</v>
@@ -2509,7 +2518,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2587,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.75</v>
@@ -2796,7 +2805,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ6">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2921,7 +2930,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3127,7 +3136,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3539,7 +3548,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3620,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3951,7 +3960,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4032,7 +4041,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4235,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.06</v>
@@ -4363,7 +4372,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4981,7 +4990,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5187,7 +5196,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5599,7 +5608,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5677,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR20">
         <v>1.6</v>
@@ -6092,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -6501,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0.13</v>
@@ -6835,7 +6844,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7041,7 +7050,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7247,7 +7256,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7659,7 +7668,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7740,7 +7749,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7865,7 +7874,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8277,7 +8286,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8355,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
         <v>1.94</v>
@@ -8483,7 +8492,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8895,7 +8904,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9101,7 +9110,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9307,7 +9316,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9591,7 +9600,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>1.06</v>
@@ -9800,7 +9809,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9925,7 +9934,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10337,7 +10346,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10624,7 +10633,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -10749,7 +10758,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10827,7 +10836,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.69</v>
@@ -11161,7 +11170,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11367,7 +11376,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11573,7 +11582,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11779,7 +11788,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11857,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>1.69</v>
@@ -12066,7 +12075,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12191,7 +12200,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12397,7 +12406,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12603,7 +12612,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12809,7 +12818,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13015,7 +13024,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13221,7 +13230,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13427,7 +13436,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13714,7 +13723,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13839,7 +13848,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -14045,7 +14054,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14457,7 +14466,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14535,10 +14544,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -14663,7 +14672,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15075,7 +15084,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15153,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -15568,7 +15577,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15693,7 +15702,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15771,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15899,7 +15908,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16105,7 +16114,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16186,7 +16195,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16517,7 +16526,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -17007,7 +17016,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -17135,7 +17144,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17216,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17341,7 +17350,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -18165,7 +18174,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18577,7 +18586,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18783,7 +18792,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18861,7 +18870,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>0.13</v>
@@ -18989,7 +18998,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19067,7 +19076,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>1.69</v>
@@ -19195,7 +19204,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19276,7 +19285,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -19401,7 +19410,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19607,7 +19616,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19688,7 +19697,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR88">
         <v>1.59</v>
@@ -19813,7 +19822,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -20019,7 +20028,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20924,7 +20933,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21049,7 +21058,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21461,7 +21470,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21539,7 +21548,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>1.69</v>
@@ -21667,7 +21676,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22569,10 +22578,10 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR102">
         <v>1.42</v>
@@ -22778,7 +22787,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
         <v>1.96</v>
@@ -22903,7 +22912,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23315,7 +23324,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23521,7 +23530,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23599,7 +23608,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -24139,7 +24148,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24551,7 +24560,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24757,7 +24766,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24835,7 +24844,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>0.8100000000000001</v>
@@ -24963,7 +24972,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25044,7 +25053,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -25169,7 +25178,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25375,7 +25384,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25581,7 +25590,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25787,7 +25796,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25993,7 +26002,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26199,7 +26208,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26280,7 +26289,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26405,7 +26414,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26611,7 +26620,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27229,7 +27238,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27307,7 +27316,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ125">
         <v>1.75</v>
@@ -27435,7 +27444,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27513,7 +27522,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ126">
         <v>1.69</v>
@@ -27722,7 +27731,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -28053,7 +28062,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28259,7 +28268,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28671,7 +28680,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28877,7 +28886,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29083,7 +29092,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29495,7 +29504,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29701,7 +29710,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29779,7 +29788,7 @@
         <v>0.14</v>
       </c>
       <c r="AP137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ137">
         <v>0.13</v>
@@ -29907,7 +29916,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29985,7 +29994,7 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -30319,7 +30328,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30731,7 +30740,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30812,7 +30821,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR142">
         <v>1.45</v>
@@ -31349,7 +31358,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31430,7 +31439,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ145">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR145">
         <v>1.36</v>
@@ -31555,7 +31564,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31761,7 +31770,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32048,7 +32057,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR148">
         <v>1.74</v>
@@ -32379,7 +32388,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32663,7 +32672,7 @@
         <v>0.25</v>
       </c>
       <c r="AP151">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ151">
         <v>0.75</v>
@@ -33203,7 +33212,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33409,7 +33418,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -34314,7 +34323,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR159">
         <v>1.15</v>
@@ -34645,7 +34654,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34851,7 +34860,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35057,7 +35066,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35135,7 +35144,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ163">
         <v>1.25</v>
@@ -35263,7 +35272,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35469,7 +35478,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35550,7 +35559,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35756,7 +35765,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ166">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR166">
         <v>1.82</v>
@@ -35881,7 +35890,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35959,7 +35968,7 @@
         <v>2.13</v>
       </c>
       <c r="AP167">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ167">
         <v>1.69</v>
@@ -36293,7 +36302,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36371,7 +36380,7 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
         <v>1.75</v>
@@ -36499,7 +36508,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36911,7 +36920,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37195,7 +37204,7 @@
         <v>1.33</v>
       </c>
       <c r="AP173">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ173">
         <v>0.88</v>
@@ -37323,7 +37332,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37735,7 +37744,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37941,7 +37950,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38147,7 +38156,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38353,7 +38362,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38434,7 +38443,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
         <v>1.64</v>
@@ -38765,7 +38774,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38971,7 +38980,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39383,7 +39392,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39464,7 +39473,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ184">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
         <v>1.56</v>
@@ -39589,7 +39598,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39795,7 +39804,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40079,10 +40088,10 @@
         <v>1.7</v>
       </c>
       <c r="AP187">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR187">
         <v>1.44</v>
@@ -40413,7 +40422,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40491,7 +40500,7 @@
         <v>0.3</v>
       </c>
       <c r="AP189">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ189">
         <v>0.75</v>
@@ -41318,7 +41327,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
         <v>1.5</v>
@@ -41855,7 +41864,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42551,7 +42560,7 @@
         <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ199">
         <v>0.8100000000000001</v>
@@ -42760,7 +42769,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ200">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR200">
         <v>1.78</v>
@@ -42963,7 +42972,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ201">
         <v>1.19</v>
@@ -43091,7 +43100,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43169,7 +43178,7 @@
         <v>2.55</v>
       </c>
       <c r="AP202">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ202">
         <v>1.94</v>
@@ -43378,7 +43387,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR203">
         <v>1.48</v>
@@ -43709,7 +43718,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44533,7 +44542,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44614,7 +44623,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -45357,7 +45366,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45435,7 +45444,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ213">
         <v>1.19</v>
@@ -45641,7 +45650,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ214">
         <v>1.69</v>
@@ -45769,7 +45778,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46674,7 +46683,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ219">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR219">
         <v>1.83</v>
@@ -47005,7 +47014,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47083,7 +47092,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ221">
         <v>1.06</v>
@@ -47417,7 +47426,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47623,7 +47632,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47829,7 +47838,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48241,7 +48250,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48447,7 +48456,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48653,7 +48662,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48859,7 +48868,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -48940,7 +48949,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ230">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49555,10 +49564,10 @@
         <v>1.25</v>
       </c>
       <c r="AP233">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ233">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR233">
         <v>1.6</v>
@@ -49761,7 +49770,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP234">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ234">
         <v>0.8100000000000001</v>
@@ -49889,7 +49898,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50176,7 +50185,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ236">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR236">
         <v>1.85</v>
@@ -50713,7 +50722,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50919,7 +50928,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -50997,7 +51006,7 @@
         <v>1.23</v>
       </c>
       <c r="AP240">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ240">
         <v>1.25</v>
@@ -51331,7 +51340,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -52027,7 +52036,7 @@
         <v>1.23</v>
       </c>
       <c r="AP245">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ245">
         <v>1.19</v>
@@ -52155,7 +52164,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52442,7 +52451,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ247">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR247">
         <v>1.63</v>
@@ -52773,7 +52782,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52851,7 +52860,7 @@
         <v>1.62</v>
       </c>
       <c r="AP249">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ249">
         <v>1.75</v>
@@ -52979,7 +52988,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53266,7 +53275,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ251">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR251">
         <v>1.84</v>
@@ -53391,7 +53400,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53803,7 +53812,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54215,7 +54224,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54296,7 +54305,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ256">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54499,7 +54508,7 @@
         <v>0.86</v>
       </c>
       <c r="AP257">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
         <v>0.88</v>
@@ -54833,7 +54842,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55039,7 +55048,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55738,7 +55747,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ263">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR263">
         <v>1.4</v>
@@ -55863,7 +55872,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55941,7 +55950,7 @@
         <v>1.57</v>
       </c>
       <c r="AP264">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ264">
         <v>1.75</v>
@@ -56275,7 +56284,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56481,7 +56490,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56893,7 +56902,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57099,7 +57108,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57383,10 +57392,10 @@
         <v>1.07</v>
       </c>
       <c r="AP271">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ271">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR271">
         <v>1.61</v>
@@ -57717,7 +57726,7 @@
         <v>272</v>
       </c>
       <c r="P273" t="s">
-        <v>411</v>
+        <v>278</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57795,7 +57804,7 @@
         <v>2</v>
       </c>
       <c r="AP273">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ273">
         <v>1.94</v>
@@ -58004,7 +58013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ274">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR274">
         <v>1.81</v>
@@ -58541,7 +58550,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58747,7 +58756,7 @@
         <v>107</v>
       </c>
       <c r="P278" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q278">
         <v>1.95</v>
@@ -59159,7 +59168,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q280">
         <v>2.63</v>
@@ -59365,7 +59374,7 @@
         <v>92</v>
       </c>
       <c r="P281" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q281">
         <v>1.91</v>
@@ -59571,7 +59580,7 @@
         <v>92</v>
       </c>
       <c r="P282" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59777,7 +59786,7 @@
         <v>119</v>
       </c>
       <c r="P283" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59983,7 +59992,7 @@
         <v>276</v>
       </c>
       <c r="P284" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60189,7 +60198,7 @@
         <v>92</v>
       </c>
       <c r="P285" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -60552,6 +60561,624 @@
       </c>
       <c r="BP286">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7491771</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45781.35416666666</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>71</v>
+      </c>
+      <c r="H287" t="s">
+        <v>80</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>4</v>
+      </c>
+      <c r="O287" t="s">
+        <v>277</v>
+      </c>
+      <c r="P287" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q287">
+        <v>2.88</v>
+      </c>
+      <c r="R287">
+        <v>2.4</v>
+      </c>
+      <c r="S287">
+        <v>3.2</v>
+      </c>
+      <c r="T287">
+        <v>1.29</v>
+      </c>
+      <c r="U287">
+        <v>3.5</v>
+      </c>
+      <c r="V287">
+        <v>2.25</v>
+      </c>
+      <c r="W287">
+        <v>1.57</v>
+      </c>
+      <c r="X287">
+        <v>5.5</v>
+      </c>
+      <c r="Y287">
+        <v>1.14</v>
+      </c>
+      <c r="Z287">
+        <v>2.4</v>
+      </c>
+      <c r="AA287">
+        <v>3.65</v>
+      </c>
+      <c r="AB287">
+        <v>2.91</v>
+      </c>
+      <c r="AC287">
+        <v>1.01</v>
+      </c>
+      <c r="AD287">
+        <v>13</v>
+      </c>
+      <c r="AE287">
+        <v>1.18</v>
+      </c>
+      <c r="AF287">
+        <v>4.75</v>
+      </c>
+      <c r="AG287">
+        <v>1.55</v>
+      </c>
+      <c r="AH287">
+        <v>2.2</v>
+      </c>
+      <c r="AI287">
+        <v>1.5</v>
+      </c>
+      <c r="AJ287">
+        <v>2.5</v>
+      </c>
+      <c r="AK287">
+        <v>1.42</v>
+      </c>
+      <c r="AL287">
+        <v>1.25</v>
+      </c>
+      <c r="AM287">
+        <v>1.57</v>
+      </c>
+      <c r="AN287">
+        <v>1.8</v>
+      </c>
+      <c r="AO287">
+        <v>1.33</v>
+      </c>
+      <c r="AP287">
+        <v>1.75</v>
+      </c>
+      <c r="AQ287">
+        <v>1.31</v>
+      </c>
+      <c r="AR287">
+        <v>1.58</v>
+      </c>
+      <c r="AS287">
+        <v>1.4</v>
+      </c>
+      <c r="AT287">
+        <v>2.98</v>
+      </c>
+      <c r="AU287">
+        <v>8</v>
+      </c>
+      <c r="AV287">
+        <v>9</v>
+      </c>
+      <c r="AW287">
+        <v>10</v>
+      </c>
+      <c r="AX287">
+        <v>8</v>
+      </c>
+      <c r="AY287">
+        <v>18</v>
+      </c>
+      <c r="AZ287">
+        <v>17</v>
+      </c>
+      <c r="BA287">
+        <v>8</v>
+      </c>
+      <c r="BB287">
+        <v>5</v>
+      </c>
+      <c r="BC287">
+        <v>13</v>
+      </c>
+      <c r="BD287">
+        <v>1.84</v>
+      </c>
+      <c r="BE287">
+        <v>6.75</v>
+      </c>
+      <c r="BF287">
+        <v>2.12</v>
+      </c>
+      <c r="BG287">
+        <v>1.22</v>
+      </c>
+      <c r="BH287">
+        <v>3.65</v>
+      </c>
+      <c r="BI287">
+        <v>1.41</v>
+      </c>
+      <c r="BJ287">
+        <v>2.65</v>
+      </c>
+      <c r="BK287">
+        <v>1.73</v>
+      </c>
+      <c r="BL287">
+        <v>2</v>
+      </c>
+      <c r="BM287">
+        <v>2.04</v>
+      </c>
+      <c r="BN287">
+        <v>1.68</v>
+      </c>
+      <c r="BO287">
+        <v>2.55</v>
+      </c>
+      <c r="BP287">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7491774</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45781.35416666666</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>81</v>
+      </c>
+      <c r="H288" t="s">
+        <v>82</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>3</v>
+      </c>
+      <c r="N288">
+        <v>4</v>
+      </c>
+      <c r="O288" t="s">
+        <v>278</v>
+      </c>
+      <c r="P288" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q288">
+        <v>3.75</v>
+      </c>
+      <c r="R288">
+        <v>2.38</v>
+      </c>
+      <c r="S288">
+        <v>2.6</v>
+      </c>
+      <c r="T288">
+        <v>1.3</v>
+      </c>
+      <c r="U288">
+        <v>3.4</v>
+      </c>
+      <c r="V288">
+        <v>2.38</v>
+      </c>
+      <c r="W288">
+        <v>1.53</v>
+      </c>
+      <c r="X288">
+        <v>6</v>
+      </c>
+      <c r="Y288">
+        <v>1.13</v>
+      </c>
+      <c r="Z288">
+        <v>3.39</v>
+      </c>
+      <c r="AA288">
+        <v>3.77</v>
+      </c>
+      <c r="AB288">
+        <v>2.11</v>
+      </c>
+      <c r="AC288">
+        <v>1.04</v>
+      </c>
+      <c r="AD288">
+        <v>10</v>
+      </c>
+      <c r="AE288">
+        <v>1.2</v>
+      </c>
+      <c r="AF288">
+        <v>4.33</v>
+      </c>
+      <c r="AG288">
+        <v>1.57</v>
+      </c>
+      <c r="AH288">
+        <v>2.15</v>
+      </c>
+      <c r="AI288">
+        <v>1.57</v>
+      </c>
+      <c r="AJ288">
+        <v>2.25</v>
+      </c>
+      <c r="AK288">
+        <v>1.85</v>
+      </c>
+      <c r="AL288">
+        <v>1.22</v>
+      </c>
+      <c r="AM288">
+        <v>1.25</v>
+      </c>
+      <c r="AN288">
+        <v>1.73</v>
+      </c>
+      <c r="AO288">
+        <v>1.47</v>
+      </c>
+      <c r="AP288">
+        <v>1.63</v>
+      </c>
+      <c r="AQ288">
+        <v>1.56</v>
+      </c>
+      <c r="AR288">
+        <v>1.46</v>
+      </c>
+      <c r="AS288">
+        <v>1.39</v>
+      </c>
+      <c r="AT288">
+        <v>2.85</v>
+      </c>
+      <c r="AU288">
+        <v>3</v>
+      </c>
+      <c r="AV288">
+        <v>6</v>
+      </c>
+      <c r="AW288">
+        <v>9</v>
+      </c>
+      <c r="AX288">
+        <v>6</v>
+      </c>
+      <c r="AY288">
+        <v>13</v>
+      </c>
+      <c r="AZ288">
+        <v>13</v>
+      </c>
+      <c r="BA288">
+        <v>2</v>
+      </c>
+      <c r="BB288">
+        <v>4</v>
+      </c>
+      <c r="BC288">
+        <v>6</v>
+      </c>
+      <c r="BD288">
+        <v>2.12</v>
+      </c>
+      <c r="BE288">
+        <v>6.5</v>
+      </c>
+      <c r="BF288">
+        <v>1.86</v>
+      </c>
+      <c r="BG288">
+        <v>1.19</v>
+      </c>
+      <c r="BH288">
+        <v>4.1</v>
+      </c>
+      <c r="BI288">
+        <v>1.34</v>
+      </c>
+      <c r="BJ288">
+        <v>2.9</v>
+      </c>
+      <c r="BK288">
+        <v>1.56</v>
+      </c>
+      <c r="BL288">
+        <v>2.23</v>
+      </c>
+      <c r="BM288">
+        <v>1.85</v>
+      </c>
+      <c r="BN288">
+        <v>1.85</v>
+      </c>
+      <c r="BO288">
+        <v>2.33</v>
+      </c>
+      <c r="BP288">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7491772</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45781.35416666666</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>73</v>
+      </c>
+      <c r="H289" t="s">
+        <v>77</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
+        <v>154</v>
+      </c>
+      <c r="P289" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q289">
+        <v>2.3</v>
+      </c>
+      <c r="R289">
+        <v>2.4</v>
+      </c>
+      <c r="S289">
+        <v>4.33</v>
+      </c>
+      <c r="T289">
+        <v>1.29</v>
+      </c>
+      <c r="U289">
+        <v>3.5</v>
+      </c>
+      <c r="V289">
+        <v>2.38</v>
+      </c>
+      <c r="W289">
+        <v>1.53</v>
+      </c>
+      <c r="X289">
+        <v>5.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.14</v>
+      </c>
+      <c r="Z289">
+        <v>1.81</v>
+      </c>
+      <c r="AA289">
+        <v>4.5</v>
+      </c>
+      <c r="AB289">
+        <v>3.83</v>
+      </c>
+      <c r="AC289">
+        <v>1.03</v>
+      </c>
+      <c r="AD289">
+        <v>11</v>
+      </c>
+      <c r="AE289">
+        <v>1.18</v>
+      </c>
+      <c r="AF289">
+        <v>4.75</v>
+      </c>
+      <c r="AG289">
+        <v>1.55</v>
+      </c>
+      <c r="AH289">
+        <v>2.2</v>
+      </c>
+      <c r="AI289">
+        <v>1.62</v>
+      </c>
+      <c r="AJ289">
+        <v>2.2</v>
+      </c>
+      <c r="AK289">
+        <v>1.25</v>
+      </c>
+      <c r="AL289">
+        <v>1.18</v>
+      </c>
+      <c r="AM289">
+        <v>2</v>
+      </c>
+      <c r="AN289">
+        <v>0.87</v>
+      </c>
+      <c r="AO289">
+        <v>1</v>
+      </c>
+      <c r="AP289">
+        <v>1</v>
+      </c>
+      <c r="AQ289">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR289">
+        <v>1.5</v>
+      </c>
+      <c r="AS289">
+        <v>1.26</v>
+      </c>
+      <c r="AT289">
+        <v>2.76</v>
+      </c>
+      <c r="AU289">
+        <v>5</v>
+      </c>
+      <c r="AV289">
+        <v>2</v>
+      </c>
+      <c r="AW289">
+        <v>7</v>
+      </c>
+      <c r="AX289">
+        <v>12</v>
+      </c>
+      <c r="AY289">
+        <v>14</v>
+      </c>
+      <c r="AZ289">
+        <v>16</v>
+      </c>
+      <c r="BA289">
+        <v>8</v>
+      </c>
+      <c r="BB289">
+        <v>3</v>
+      </c>
+      <c r="BC289">
+        <v>11</v>
+      </c>
+      <c r="BD289">
+        <v>1.58</v>
+      </c>
+      <c r="BE289">
+        <v>6.75</v>
+      </c>
+      <c r="BF289">
+        <v>2.55</v>
+      </c>
+      <c r="BG289">
+        <v>1.23</v>
+      </c>
+      <c r="BH289">
+        <v>3.65</v>
+      </c>
+      <c r="BI289">
+        <v>1.41</v>
+      </c>
+      <c r="BJ289">
+        <v>2.65</v>
+      </c>
+      <c r="BK289">
+        <v>1.73</v>
+      </c>
+      <c r="BL289">
+        <v>2</v>
+      </c>
+      <c r="BM289">
+        <v>2.02</v>
+      </c>
+      <c r="BN289">
+        <v>1.68</v>
+      </c>
+      <c r="BO289">
+        <v>2.55</v>
+      </c>
+      <c r="BP289">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="423">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,12 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['30', '70']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1226,9 +1232,6 @@
   </si>
   <si>
     <t>['8', '37', '84']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['40', '41', '84', '85']</t>
@@ -1641,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1900,7 +1903,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2106,7 +2109,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2518,7 +2521,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2930,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3136,7 +3139,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3548,7 +3551,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3960,7 +3963,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4244,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ13">
         <v>1.06</v>
@@ -4372,7 +4375,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4453,7 +4456,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4865,7 +4868,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4990,7 +4993,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5196,7 +5199,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5480,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ19">
         <v>1.19</v>
@@ -5608,7 +5611,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -6098,7 +6101,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ22">
         <v>1.31</v>
@@ -6844,7 +6847,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7050,7 +7053,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7256,7 +7259,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7668,7 +7671,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7874,7 +7877,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8286,7 +8289,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8364,7 +8367,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ33">
         <v>1.94</v>
@@ -8492,7 +8495,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8573,7 +8576,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ34">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8904,7 +8907,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8985,7 +8988,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ36">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -9110,7 +9113,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9316,7 +9319,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9394,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -9934,7 +9937,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10346,7 +10349,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10758,7 +10761,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11170,7 +11173,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11376,7 +11379,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11582,7 +11585,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11663,7 +11666,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11788,7 +11791,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11866,10 +11869,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -12200,7 +12203,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12406,7 +12409,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12612,7 +12615,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12818,7 +12821,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13024,7 +13027,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13230,7 +13233,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13436,7 +13439,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13848,7 +13851,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -14054,7 +14057,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14132,7 +14135,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
@@ -14466,7 +14469,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14672,7 +14675,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15084,7 +15087,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15702,7 +15705,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15780,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15908,7 +15911,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15989,7 +15992,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ70">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -16114,7 +16117,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16526,7 +16529,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16813,7 +16816,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -17144,7 +17147,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17222,7 +17225,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
         <v>1.56</v>
@@ -17350,7 +17353,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -18174,7 +18177,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18586,7 +18589,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18792,7 +18795,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18870,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ84">
         <v>0.13</v>
@@ -18998,7 +19001,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19079,7 +19082,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR85">
         <v>1.57</v>
@@ -19204,7 +19207,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19410,7 +19413,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19616,7 +19619,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19822,7 +19825,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -20028,7 +20031,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20518,7 +20521,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ92">
         <v>1.69</v>
@@ -21058,7 +21061,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21470,7 +21473,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21551,7 +21554,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21676,7 +21679,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22578,7 +22581,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102">
         <v>1.31</v>
@@ -22912,7 +22915,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22993,7 +22996,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -23324,7 +23327,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23530,7 +23533,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -24148,7 +24151,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24432,10 +24435,10 @@
         <v>1.6</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ111">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR111">
         <v>1.23</v>
@@ -24560,7 +24563,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24766,7 +24769,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24972,7 +24975,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25178,7 +25181,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25384,7 +25387,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25590,7 +25593,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25796,7 +25799,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26002,7 +26005,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26083,7 +26086,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR119">
         <v>1.77</v>
@@ -26208,7 +26211,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26414,7 +26417,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26620,7 +26623,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27238,7 +27241,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27444,7 +27447,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27522,7 +27525,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ126">
         <v>1.69</v>
@@ -28062,7 +28065,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28268,7 +28271,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28555,7 +28558,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28680,7 +28683,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28886,7 +28889,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28964,7 +28967,7 @@
         <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ133">
         <v>1.94</v>
@@ -29092,7 +29095,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29504,7 +29507,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29585,7 +29588,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29710,7 +29713,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29916,7 +29919,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30328,7 +30331,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30740,7 +30743,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31358,7 +31361,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31564,7 +31567,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31770,7 +31773,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32260,7 +32263,7 @@
         <v>0.88</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ149">
         <v>0.8100000000000001</v>
@@ -32388,7 +32391,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32672,7 +32675,7 @@
         <v>0.25</v>
       </c>
       <c r="AP151">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ151">
         <v>0.75</v>
@@ -33087,7 +33090,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR153">
         <v>1.76</v>
@@ -33212,7 +33215,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33293,7 +33296,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ154">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR154">
         <v>1.69</v>
@@ -33418,7 +33421,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -34320,7 +34323,7 @@
         <v>1.13</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -34529,7 +34532,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ160">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR160">
         <v>1.75</v>
@@ -34654,7 +34657,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34735,7 +34738,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ161">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR161">
         <v>1.53</v>
@@ -34860,7 +34863,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35066,7 +35069,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35144,7 +35147,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ163">
         <v>1.25</v>
@@ -35272,7 +35275,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35478,7 +35481,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35890,7 +35893,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36302,7 +36305,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36508,7 +36511,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36920,7 +36923,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37204,7 +37207,7 @@
         <v>1.33</v>
       </c>
       <c r="AP173">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ173">
         <v>0.88</v>
@@ -37332,7 +37335,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37619,7 +37622,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ175">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37744,7 +37747,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37825,7 +37828,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ176">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR176">
         <v>1.21</v>
@@ -37950,7 +37953,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38156,7 +38159,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38362,7 +38365,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38774,7 +38777,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38980,7 +38983,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39058,7 +39061,7 @@
         <v>1.56</v>
       </c>
       <c r="AP182">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ182">
         <v>1.75</v>
@@ -39392,7 +39395,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39598,7 +39601,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39804,7 +39807,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40422,7 +40425,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40915,7 +40918,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ191">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -41864,7 +41867,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -41945,7 +41948,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ196">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR196">
         <v>1.57</v>
@@ -42560,7 +42563,7 @@
         <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ199">
         <v>0.8100000000000001</v>
@@ -43100,7 +43103,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43590,7 +43593,7 @@
         <v>0.1</v>
       </c>
       <c r="AP204">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ204">
         <v>0.13</v>
@@ -43718,7 +43721,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44542,7 +44545,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -45366,7 +45369,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45444,7 +45447,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ213">
         <v>1.19</v>
@@ -45653,7 +45656,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ214">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR214">
         <v>1.66</v>
@@ -45778,7 +45781,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46065,7 +46068,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ216">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR216">
         <v>1.49</v>
@@ -47014,7 +47017,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47301,7 +47304,7 @@
         <v>1</v>
       </c>
       <c r="AQ222">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR222">
         <v>1.49</v>
@@ -47426,7 +47429,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47632,7 +47635,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47838,7 +47841,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -47916,7 +47919,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ225">
         <v>1.19</v>
@@ -48250,7 +48253,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48456,7 +48459,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48662,7 +48665,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48868,7 +48871,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49564,7 +49567,7 @@
         <v>1.25</v>
       </c>
       <c r="AP233">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ233">
         <v>0.9399999999999999</v>
@@ -49898,7 +49901,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49979,7 +49982,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ235">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR235">
         <v>1.38</v>
@@ -50722,7 +50725,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50803,7 +50806,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -50928,7 +50931,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51340,7 +51343,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51624,7 +51627,7 @@
         <v>0.54</v>
       </c>
       <c r="AP243">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ243">
         <v>0.75</v>
@@ -52164,7 +52167,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52782,7 +52785,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52860,7 +52863,7 @@
         <v>1.62</v>
       </c>
       <c r="AP249">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ249">
         <v>1.75</v>
@@ -52988,7 +52991,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>404</v>
+        <v>280</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53069,7 +53072,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ250">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR250">
         <v>1.83</v>
@@ -53400,7 +53403,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53812,7 +53815,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54099,7 +54102,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ255">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR255">
         <v>1.49</v>
@@ -54224,7 +54227,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54842,7 +54845,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55048,7 +55051,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55332,7 +55335,7 @@
         <v>1.14</v>
       </c>
       <c r="AP261">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ261">
         <v>1.25</v>
@@ -55872,7 +55875,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55950,7 +55953,7 @@
         <v>1.57</v>
       </c>
       <c r="AP264">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ264">
         <v>1.75</v>
@@ -56284,7 +56287,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56490,7 +56493,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56571,7 +56574,7 @@
         <v>1</v>
       </c>
       <c r="AQ267">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR267">
         <v>1.44</v>
@@ -56902,7 +56905,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57108,7 +57111,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -58216,7 +58219,7 @@
         <v>0.87</v>
       </c>
       <c r="AP275">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ275">
         <v>0.88</v>
@@ -58550,7 +58553,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58756,7 +58759,7 @@
         <v>107</v>
       </c>
       <c r="P278" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q278">
         <v>1.95</v>
@@ -59043,7 +59046,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ279">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR279">
         <v>1.59</v>
@@ -59168,7 +59171,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q280">
         <v>2.63</v>
@@ -59374,7 +59377,7 @@
         <v>92</v>
       </c>
       <c r="P281" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q281">
         <v>1.91</v>
@@ -59580,7 +59583,7 @@
         <v>92</v>
       </c>
       <c r="P282" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59786,7 +59789,7 @@
         <v>119</v>
       </c>
       <c r="P283" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59992,7 +59995,7 @@
         <v>276</v>
       </c>
       <c r="P284" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60198,7 +60201,7 @@
         <v>92</v>
       </c>
       <c r="P285" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -60610,7 +60613,7 @@
         <v>277</v>
       </c>
       <c r="P287" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q287">
         <v>2.88</v>
@@ -60816,7 +60819,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q288">
         <v>3.75</v>
@@ -60894,7 +60897,7 @@
         <v>1.47</v>
       </c>
       <c r="AP288">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
         <v>1.56</v>
@@ -61179,6 +61182,418 @@
       </c>
       <c r="BP289">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7491785</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45786.5625</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>87</v>
+      </c>
+      <c r="H290" t="s">
+        <v>73</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" t="s">
+        <v>279</v>
+      </c>
+      <c r="P290" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q290">
+        <v>2.88</v>
+      </c>
+      <c r="R290">
+        <v>2.4</v>
+      </c>
+      <c r="S290">
+        <v>3.1</v>
+      </c>
+      <c r="T290">
+        <v>1.29</v>
+      </c>
+      <c r="U290">
+        <v>3.5</v>
+      </c>
+      <c r="V290">
+        <v>2.25</v>
+      </c>
+      <c r="W290">
+        <v>1.57</v>
+      </c>
+      <c r="X290">
+        <v>5.5</v>
+      </c>
+      <c r="Y290">
+        <v>1.14</v>
+      </c>
+      <c r="Z290">
+        <v>2.58</v>
+      </c>
+      <c r="AA290">
+        <v>3.75</v>
+      </c>
+      <c r="AB290">
+        <v>2.41</v>
+      </c>
+      <c r="AC290">
+        <v>1.03</v>
+      </c>
+      <c r="AD290">
+        <v>11</v>
+      </c>
+      <c r="AE290">
+        <v>1.18</v>
+      </c>
+      <c r="AF290">
+        <v>4.75</v>
+      </c>
+      <c r="AG290">
+        <v>1.53</v>
+      </c>
+      <c r="AH290">
+        <v>2.25</v>
+      </c>
+      <c r="AI290">
+        <v>1.5</v>
+      </c>
+      <c r="AJ290">
+        <v>2.5</v>
+      </c>
+      <c r="AK290">
+        <v>1.42</v>
+      </c>
+      <c r="AL290">
+        <v>1.26</v>
+      </c>
+      <c r="AM290">
+        <v>1.58</v>
+      </c>
+      <c r="AN290">
+        <v>1</v>
+      </c>
+      <c r="AO290">
+        <v>1.69</v>
+      </c>
+      <c r="AP290">
+        <v>1.12</v>
+      </c>
+      <c r="AQ290">
+        <v>1.59</v>
+      </c>
+      <c r="AR290">
+        <v>1.34</v>
+      </c>
+      <c r="AS290">
+        <v>1.57</v>
+      </c>
+      <c r="AT290">
+        <v>2.91</v>
+      </c>
+      <c r="AU290">
+        <v>4</v>
+      </c>
+      <c r="AV290">
+        <v>3</v>
+      </c>
+      <c r="AW290">
+        <v>8</v>
+      </c>
+      <c r="AX290">
+        <v>5</v>
+      </c>
+      <c r="AY290">
+        <v>14</v>
+      </c>
+      <c r="AZ290">
+        <v>9</v>
+      </c>
+      <c r="BA290">
+        <v>2</v>
+      </c>
+      <c r="BB290">
+        <v>7</v>
+      </c>
+      <c r="BC290">
+        <v>9</v>
+      </c>
+      <c r="BD290">
+        <v>2.05</v>
+      </c>
+      <c r="BE290">
+        <v>6.75</v>
+      </c>
+      <c r="BF290">
+        <v>1.92</v>
+      </c>
+      <c r="BG290">
+        <v>1.16</v>
+      </c>
+      <c r="BH290">
+        <v>4.3</v>
+      </c>
+      <c r="BI290">
+        <v>1.3</v>
+      </c>
+      <c r="BJ290">
+        <v>3.05</v>
+      </c>
+      <c r="BK290">
+        <v>1.52</v>
+      </c>
+      <c r="BL290">
+        <v>2.33</v>
+      </c>
+      <c r="BM290">
+        <v>1.81</v>
+      </c>
+      <c r="BN290">
+        <v>1.88</v>
+      </c>
+      <c r="BO290">
+        <v>2.23</v>
+      </c>
+      <c r="BP290">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7491783</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45786.5625</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>81</v>
+      </c>
+      <c r="H291" t="s">
+        <v>70</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>280</v>
+      </c>
+      <c r="P291" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q291">
+        <v>4.5</v>
+      </c>
+      <c r="R291">
+        <v>2.5</v>
+      </c>
+      <c r="S291">
+        <v>2.2</v>
+      </c>
+      <c r="T291">
+        <v>1.25</v>
+      </c>
+      <c r="U291">
+        <v>3.75</v>
+      </c>
+      <c r="V291">
+        <v>2.2</v>
+      </c>
+      <c r="W291">
+        <v>1.62</v>
+      </c>
+      <c r="X291">
+        <v>5</v>
+      </c>
+      <c r="Y291">
+        <v>1.17</v>
+      </c>
+      <c r="Z291">
+        <v>3.39</v>
+      </c>
+      <c r="AA291">
+        <v>3.78</v>
+      </c>
+      <c r="AB291">
+        <v>1.96</v>
+      </c>
+      <c r="AC291">
+        <v>1.03</v>
+      </c>
+      <c r="AD291">
+        <v>11</v>
+      </c>
+      <c r="AE291">
+        <v>1.18</v>
+      </c>
+      <c r="AF291">
+        <v>4.75</v>
+      </c>
+      <c r="AG291">
+        <v>1.53</v>
+      </c>
+      <c r="AH291">
+        <v>2.25</v>
+      </c>
+      <c r="AI291">
+        <v>1.57</v>
+      </c>
+      <c r="AJ291">
+        <v>2.25</v>
+      </c>
+      <c r="AK291">
+        <v>2.05</v>
+      </c>
+      <c r="AL291">
+        <v>1.23</v>
+      </c>
+      <c r="AM291">
+        <v>1.21</v>
+      </c>
+      <c r="AN291">
+        <v>1.63</v>
+      </c>
+      <c r="AO291">
+        <v>1.69</v>
+      </c>
+      <c r="AP291">
+        <v>1.53</v>
+      </c>
+      <c r="AQ291">
+        <v>1.76</v>
+      </c>
+      <c r="AR291">
+        <v>1.44</v>
+      </c>
+      <c r="AS291">
+        <v>1.53</v>
+      </c>
+      <c r="AT291">
+        <v>2.97</v>
+      </c>
+      <c r="AU291">
+        <v>2</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>4</v>
+      </c>
+      <c r="AX291">
+        <v>19</v>
+      </c>
+      <c r="AY291">
+        <v>6</v>
+      </c>
+      <c r="AZ291">
+        <v>27</v>
+      </c>
+      <c r="BA291">
+        <v>0</v>
+      </c>
+      <c r="BB291">
+        <v>8</v>
+      </c>
+      <c r="BC291">
+        <v>8</v>
+      </c>
+      <c r="BD291">
+        <v>2.55</v>
+      </c>
+      <c r="BE291">
+        <v>7</v>
+      </c>
+      <c r="BF291">
+        <v>1.61</v>
+      </c>
+      <c r="BG291">
+        <v>1.2</v>
+      </c>
+      <c r="BH291">
+        <v>3.8</v>
+      </c>
+      <c r="BI291">
+        <v>1.37</v>
+      </c>
+      <c r="BJ291">
+        <v>2.8</v>
+      </c>
+      <c r="BK291">
+        <v>1.61</v>
+      </c>
+      <c r="BL291">
+        <v>2.15</v>
+      </c>
+      <c r="BM291">
+        <v>1.96</v>
+      </c>
+      <c r="BN291">
+        <v>1.74</v>
+      </c>
+      <c r="BO291">
+        <v>2.43</v>
+      </c>
+      <c r="BP291">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="427">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -859,6 +859,18 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['57', '77']</t>
+  </si>
+  <si>
+    <t>['41', '61']</t>
+  </si>
+  <si>
+    <t>['11', '18', '21']</t>
+  </si>
+  <si>
+    <t>['10', '42', '45+4', '48', '62', '86']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1644,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1903,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2109,7 +2121,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2521,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2933,7 +2945,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3014,7 +3026,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3139,7 +3151,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3551,7 +3563,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3838,7 +3850,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3963,7 +3975,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4250,7 +4262,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ13">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4375,7 +4387,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4453,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ14">
         <v>1.76</v>
@@ -4659,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4865,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ16">
         <v>1.59</v>
@@ -4993,7 +5005,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5071,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5199,7 +5211,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5280,7 +5292,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5611,7 +5623,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -6722,7 +6734,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6847,7 +6859,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7053,7 +7065,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7259,7 +7271,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7340,7 +7352,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.96</v>
@@ -7543,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29">
         <v>1.19</v>
@@ -7671,7 +7683,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7877,7 +7889,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7955,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -8161,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8289,7 +8301,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8370,7 +8382,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ33">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -8495,7 +8507,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8779,10 +8791,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ35">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR35">
         <v>1.49</v>
@@ -8907,7 +8919,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9113,7 +9125,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9319,7 +9331,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9606,7 +9618,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9937,7 +9949,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10224,7 +10236,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
         <v>1.72</v>
@@ -10349,7 +10361,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10430,7 +10442,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -10761,7 +10773,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11045,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ46">
         <v>0.13</v>
@@ -11173,7 +11185,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11251,7 +11263,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ47">
         <v>1.19</v>
@@ -11379,7 +11391,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11585,7 +11597,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11663,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49">
         <v>1.76</v>
@@ -11791,7 +11803,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12203,7 +12215,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12409,7 +12421,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12487,10 +12499,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12615,7 +12627,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12821,7 +12833,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13027,7 +13039,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13108,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -13233,7 +13245,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13439,7 +13451,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13517,7 +13529,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
@@ -13851,7 +13863,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13932,7 +13944,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -14057,7 +14069,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14138,7 +14150,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ61">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -14469,7 +14481,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14675,7 +14687,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14959,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ65">
         <v>0.13</v>
@@ -15087,7 +15099,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15374,7 +15386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR67">
         <v>2.27</v>
@@ -15577,7 +15589,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ68">
         <v>1.31</v>
@@ -15705,7 +15717,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15911,7 +15923,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16117,7 +16129,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16529,7 +16541,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16607,7 +16619,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ73">
         <v>1.75</v>
@@ -17022,7 +17034,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -17147,7 +17159,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17353,7 +17365,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17640,7 +17652,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -18177,7 +18189,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18461,10 +18473,10 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ82">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18589,7 +18601,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18795,7 +18807,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19001,7 +19013,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19207,7 +19219,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19413,7 +19425,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19491,7 +19503,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -19619,7 +19631,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19697,7 +19709,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ88">
         <v>1.31</v>
@@ -19825,7 +19837,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19906,7 +19918,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -20031,7 +20043,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20730,7 +20742,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.52</v>
@@ -21061,7 +21073,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21473,7 +21485,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21679,7 +21691,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21760,7 +21772,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ98">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -21963,10 +21975,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -22169,7 +22181,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100">
         <v>1.19</v>
@@ -22915,7 +22927,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23202,7 +23214,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ105">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR105">
         <v>1.68</v>
@@ -23327,7 +23339,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23405,7 +23417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ106">
         <v>1.75</v>
@@ -23533,7 +23545,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -24023,7 +24035,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ109">
         <v>1.19</v>
@@ -24151,7 +24163,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24229,7 +24241,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ110">
         <v>1.19</v>
@@ -24563,7 +24575,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24769,7 +24781,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24850,7 +24862,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24975,7 +24987,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25053,7 +25065,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.56</v>
@@ -25181,7 +25193,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25387,7 +25399,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25465,10 +25477,10 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ116">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.56</v>
@@ -25593,7 +25605,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25674,7 +25686,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR117">
         <v>1.79</v>
@@ -25799,7 +25811,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25880,7 +25892,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ118">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR118">
         <v>1.21</v>
@@ -26005,7 +26017,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26211,7 +26223,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26417,7 +26429,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26623,7 +26635,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26701,7 +26713,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ122">
         <v>1.75</v>
@@ -27241,7 +27253,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27447,7 +27459,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27937,7 +27949,7 @@
         <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ128">
         <v>1.19</v>
@@ -28065,7 +28077,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28143,10 +28155,10 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ129">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -28271,7 +28283,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28683,7 +28695,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28764,7 +28776,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ132">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR132">
         <v>1.64</v>
@@ -28889,7 +28901,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28970,7 +28982,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ133">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR133">
         <v>1.17</v>
@@ -29095,7 +29107,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29173,7 +29185,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29379,10 +29391,10 @@
         <v>0.29</v>
       </c>
       <c r="AP135">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ135">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR135">
         <v>1.54</v>
@@ -29507,7 +29519,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29713,7 +29725,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29919,7 +29931,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30331,7 +30343,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30743,7 +30755,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31361,7 +31373,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31567,7 +31579,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31645,10 +31657,10 @@
         <v>1.13</v>
       </c>
       <c r="AP146">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ146">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31773,7 +31785,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31851,10 +31863,10 @@
         <v>2.38</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -32057,7 +32069,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ148">
         <v>0.9399999999999999</v>
@@ -32266,7 +32278,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ149">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR149">
         <v>1.2</v>
@@ -32391,7 +32403,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32469,7 +32481,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ150">
         <v>1.25</v>
@@ -32678,7 +32690,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ151">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR151">
         <v>1.49</v>
@@ -33215,7 +33227,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33421,7 +33433,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33499,7 +33511,7 @@
         <v>1.38</v>
       </c>
       <c r="AP155">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33914,7 +33926,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ157">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR157">
         <v>1.65</v>
@@ -34120,7 +34132,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.3</v>
@@ -34529,7 +34541,7 @@
         <v>2.13</v>
       </c>
       <c r="AP160">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ160">
         <v>1.76</v>
@@ -34657,7 +34669,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34735,7 +34747,7 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ161">
         <v>1.59</v>
@@ -34863,7 +34875,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34941,10 +34953,10 @@
         <v>2.44</v>
       </c>
       <c r="AP162">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ162">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR162">
         <v>1.5</v>
@@ -35069,7 +35081,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35275,7 +35287,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35356,7 +35368,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ164">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR164">
         <v>1.62</v>
@@ -35481,7 +35493,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35893,7 +35905,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36305,7 +36317,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36511,7 +36523,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36923,7 +36935,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37335,7 +37347,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37413,7 +37425,7 @@
         <v>1.5</v>
       </c>
       <c r="AP174">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ174">
         <v>1.25</v>
@@ -37747,7 +37759,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37953,7 +37965,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38031,10 +38043,10 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR177">
         <v>1.61</v>
@@ -38159,7 +38171,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38240,7 +38252,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ178">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR178">
         <v>1.59</v>
@@ -38365,7 +38377,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38443,7 +38455,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38777,7 +38789,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38855,7 +38867,7 @@
         <v>0.89</v>
       </c>
       <c r="AP181">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ181">
         <v>1.19</v>
@@ -38983,7 +38995,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39395,7 +39407,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39601,7 +39613,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39807,7 +39819,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40300,7 +40312,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ188">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR188">
         <v>1.83</v>
@@ -40425,7 +40437,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40506,7 +40518,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ189">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR189">
         <v>1.59</v>
@@ -41121,7 +41133,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -41327,7 +41339,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ193">
         <v>0.9399999999999999</v>
@@ -41867,7 +41879,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -41945,7 +41957,7 @@
         <v>1.64</v>
       </c>
       <c r="AP196">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ196">
         <v>1.59</v>
@@ -42566,7 +42578,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ199">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR199">
         <v>1.58</v>
@@ -42769,7 +42781,7 @@
         <v>1.82</v>
       </c>
       <c r="AP200">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ200">
         <v>1.31</v>
@@ -43103,7 +43115,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43184,7 +43196,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ202">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR202">
         <v>1.71</v>
@@ -43721,7 +43733,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44214,7 +44226,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ207">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -44420,7 +44432,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ208">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44545,7 +44557,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44623,7 +44635,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>0.9399999999999999</v>
@@ -45038,7 +45050,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ211">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR211">
         <v>1.31</v>
@@ -45369,7 +45381,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45781,7 +45793,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46065,7 +46077,7 @@
         <v>1.5</v>
       </c>
       <c r="AP216">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ216">
         <v>1.59</v>
@@ -46271,7 +46283,7 @@
         <v>1.64</v>
       </c>
       <c r="AP217">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ217">
         <v>1.75</v>
@@ -46892,7 +46904,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR220">
         <v>1.53</v>
@@ -47017,7 +47029,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47098,7 +47110,7 @@
         <v>1</v>
       </c>
       <c r="AQ221">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR221">
         <v>1.51</v>
@@ -47429,7 +47441,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47507,7 +47519,7 @@
         <v>2</v>
       </c>
       <c r="AP223">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ223">
         <v>1.69</v>
@@ -47635,7 +47647,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47716,7 +47728,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ224">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR224">
         <v>1.65</v>
@@ -47841,7 +47853,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48253,7 +48265,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48459,7 +48471,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48665,7 +48677,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48743,7 +48755,7 @@
         <v>0.83</v>
       </c>
       <c r="AP229">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ229">
         <v>1</v>
@@ -48871,7 +48883,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -48949,7 +48961,7 @@
         <v>1.67</v>
       </c>
       <c r="AP230">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ230">
         <v>1.31</v>
@@ -49155,7 +49167,7 @@
         <v>0.08</v>
       </c>
       <c r="AP231">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ231">
         <v>0.13</v>
@@ -49776,7 +49788,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ234">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR234">
         <v>1.6</v>
@@ -49901,7 +49913,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50185,7 +50197,7 @@
         <v>1.42</v>
       </c>
       <c r="AP236">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ236">
         <v>1.56</v>
@@ -50600,7 +50612,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ238">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR238">
         <v>1.65</v>
@@ -50725,7 +50737,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50803,7 +50815,7 @@
         <v>1.77</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ239">
         <v>1.76</v>
@@ -50931,7 +50943,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51343,7 +51355,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51424,7 +51436,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ242">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR242">
         <v>1.48</v>
@@ -51630,7 +51642,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ243">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -52167,7 +52179,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52657,7 +52669,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
         <v>1</v>
@@ -52785,7 +52797,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -53403,7 +53415,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53484,7 +53496,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ252">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR252">
         <v>1.66</v>
@@ -53687,7 +53699,7 @@
         <v>0.08</v>
       </c>
       <c r="AP253">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ253">
         <v>0.13</v>
@@ -53815,7 +53827,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -53893,10 +53905,10 @@
         <v>0.57</v>
       </c>
       <c r="AP254">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ254">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR254">
         <v>1.82</v>
@@ -54227,7 +54239,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54720,7 +54732,7 @@
         <v>1</v>
       </c>
       <c r="AQ258">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR258">
         <v>1.47</v>
@@ -54845,7 +54857,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55051,7 +55063,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55129,7 +55141,7 @@
         <v>1.69</v>
       </c>
       <c r="AP260">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ260">
         <v>1.69</v>
@@ -55544,7 +55556,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ262">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR262">
         <v>1.23</v>
@@ -55875,7 +55887,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56159,7 +56171,7 @@
         <v>1.79</v>
       </c>
       <c r="AP265">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ265">
         <v>1.69</v>
@@ -56287,7 +56299,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56493,7 +56505,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56905,7 +56917,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57111,7 +57123,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57604,7 +57616,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ272">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR272">
         <v>1.54</v>
@@ -57810,7 +57822,7 @@
         <v>1</v>
       </c>
       <c r="AQ273">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR273">
         <v>1.5</v>
@@ -58013,7 +58025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ274">
         <v>1.56</v>
@@ -58428,7 +58440,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ276">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR276">
         <v>1.25</v>
@@ -58553,7 +58565,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58631,7 +58643,7 @@
         <v>1.2</v>
       </c>
       <c r="AP277">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ277">
         <v>1.19</v>
@@ -58759,7 +58771,7 @@
         <v>107</v>
       </c>
       <c r="P278" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q278">
         <v>1.95</v>
@@ -58837,7 +58849,7 @@
         <v>1.13</v>
       </c>
       <c r="AP278">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ278">
         <v>1.25</v>
@@ -59171,7 +59183,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q280">
         <v>2.63</v>
@@ -59252,7 +59264,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ280">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR280">
         <v>1.86</v>
@@ -59377,7 +59389,7 @@
         <v>92</v>
       </c>
       <c r="P281" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q281">
         <v>1.91</v>
@@ -59583,7 +59595,7 @@
         <v>92</v>
       </c>
       <c r="P282" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59789,7 +59801,7 @@
         <v>119</v>
       </c>
       <c r="P283" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59995,7 +60007,7 @@
         <v>276</v>
       </c>
       <c r="P284" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60201,7 +60213,7 @@
         <v>92</v>
       </c>
       <c r="P285" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -60613,7 +60625,7 @@
         <v>277</v>
       </c>
       <c r="P287" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q287">
         <v>2.88</v>
@@ -60819,7 +60831,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q288">
         <v>3.75</v>
@@ -61437,7 +61449,7 @@
         <v>280</v>
       </c>
       <c r="P291" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q291">
         <v>4.5</v>
@@ -61594,6 +61606,830 @@
       </c>
       <c r="BP291">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7491778</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45787.33333333334</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>83</v>
+      </c>
+      <c r="H292" t="s">
+        <v>75</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>281</v>
+      </c>
+      <c r="P292" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q292">
+        <v>2.25</v>
+      </c>
+      <c r="R292">
+        <v>2.6</v>
+      </c>
+      <c r="S292">
+        <v>4</v>
+      </c>
+      <c r="T292">
+        <v>1.22</v>
+      </c>
+      <c r="U292">
+        <v>4</v>
+      </c>
+      <c r="V292">
+        <v>2.1</v>
+      </c>
+      <c r="W292">
+        <v>1.67</v>
+      </c>
+      <c r="X292">
+        <v>4.5</v>
+      </c>
+      <c r="Y292">
+        <v>1.18</v>
+      </c>
+      <c r="Z292">
+        <v>1.92</v>
+      </c>
+      <c r="AA292">
+        <v>4.1</v>
+      </c>
+      <c r="AB292">
+        <v>3.28</v>
+      </c>
+      <c r="AC292">
+        <v>1.03</v>
+      </c>
+      <c r="AD292">
+        <v>11</v>
+      </c>
+      <c r="AE292">
+        <v>1.14</v>
+      </c>
+      <c r="AF292">
+        <v>5.5</v>
+      </c>
+      <c r="AG292">
+        <v>1.42</v>
+      </c>
+      <c r="AH292">
+        <v>2.74</v>
+      </c>
+      <c r="AI292">
+        <v>1.5</v>
+      </c>
+      <c r="AJ292">
+        <v>2.5</v>
+      </c>
+      <c r="AK292">
+        <v>1.24</v>
+      </c>
+      <c r="AL292">
+        <v>1.22</v>
+      </c>
+      <c r="AM292">
+        <v>2</v>
+      </c>
+      <c r="AN292">
+        <v>1.44</v>
+      </c>
+      <c r="AO292">
+        <v>1.06</v>
+      </c>
+      <c r="AP292">
+        <v>1.53</v>
+      </c>
+      <c r="AQ292">
+        <v>1</v>
+      </c>
+      <c r="AR292">
+        <v>1.62</v>
+      </c>
+      <c r="AS292">
+        <v>1.36</v>
+      </c>
+      <c r="AT292">
+        <v>2.98</v>
+      </c>
+      <c r="AU292">
+        <v>9</v>
+      </c>
+      <c r="AV292">
+        <v>4</v>
+      </c>
+      <c r="AW292">
+        <v>5</v>
+      </c>
+      <c r="AX292">
+        <v>5</v>
+      </c>
+      <c r="AY292">
+        <v>17</v>
+      </c>
+      <c r="AZ292">
+        <v>12</v>
+      </c>
+      <c r="BA292">
+        <v>5</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>9</v>
+      </c>
+      <c r="BD292">
+        <v>1.74</v>
+      </c>
+      <c r="BE292">
+        <v>6.75</v>
+      </c>
+      <c r="BF292">
+        <v>2.3</v>
+      </c>
+      <c r="BG292">
+        <v>1.3</v>
+      </c>
+      <c r="BH292">
+        <v>3.05</v>
+      </c>
+      <c r="BI292">
+        <v>1.55</v>
+      </c>
+      <c r="BJ292">
+        <v>2.28</v>
+      </c>
+      <c r="BK292">
+        <v>1.89</v>
+      </c>
+      <c r="BL292">
+        <v>1.8</v>
+      </c>
+      <c r="BM292">
+        <v>2.38</v>
+      </c>
+      <c r="BN292">
+        <v>1.5</v>
+      </c>
+      <c r="BO292">
+        <v>3.05</v>
+      </c>
+      <c r="BP292">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7491781</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45787.33333333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>85</v>
+      </c>
+      <c r="H293" t="s">
+        <v>74</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>282</v>
+      </c>
+      <c r="P293" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q293">
+        <v>2.6</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>3.5</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.2</v>
+      </c>
+      <c r="W293">
+        <v>1.62</v>
+      </c>
+      <c r="X293">
+        <v>5</v>
+      </c>
+      <c r="Y293">
+        <v>1.17</v>
+      </c>
+      <c r="Z293">
+        <v>2.04</v>
+      </c>
+      <c r="AA293">
+        <v>3.75</v>
+      </c>
+      <c r="AB293">
+        <v>3.19</v>
+      </c>
+      <c r="AC293">
+        <v>1.01</v>
+      </c>
+      <c r="AD293">
+        <v>13</v>
+      </c>
+      <c r="AE293">
+        <v>1.17</v>
+      </c>
+      <c r="AF293">
+        <v>5</v>
+      </c>
+      <c r="AG293">
+        <v>1.44</v>
+      </c>
+      <c r="AH293">
+        <v>2.67</v>
+      </c>
+      <c r="AI293">
+        <v>1.44</v>
+      </c>
+      <c r="AJ293">
+        <v>2.63</v>
+      </c>
+      <c r="AK293">
+        <v>1.33</v>
+      </c>
+      <c r="AL293">
+        <v>1.26</v>
+      </c>
+      <c r="AM293">
+        <v>1.72</v>
+      </c>
+      <c r="AN293">
+        <v>1.5</v>
+      </c>
+      <c r="AO293">
+        <v>1.94</v>
+      </c>
+      <c r="AP293">
+        <v>1.59</v>
+      </c>
+      <c r="AQ293">
+        <v>1.82</v>
+      </c>
+      <c r="AR293">
+        <v>1.77</v>
+      </c>
+      <c r="AS293">
+        <v>1.53</v>
+      </c>
+      <c r="AT293">
+        <v>3.3</v>
+      </c>
+      <c r="AU293">
+        <v>5</v>
+      </c>
+      <c r="AV293">
+        <v>5</v>
+      </c>
+      <c r="AW293">
+        <v>18</v>
+      </c>
+      <c r="AX293">
+        <v>5</v>
+      </c>
+      <c r="AY293">
+        <v>23</v>
+      </c>
+      <c r="AZ293">
+        <v>10</v>
+      </c>
+      <c r="BA293">
+        <v>6</v>
+      </c>
+      <c r="BB293">
+        <v>6</v>
+      </c>
+      <c r="BC293">
+        <v>12</v>
+      </c>
+      <c r="BD293">
+        <v>1.7</v>
+      </c>
+      <c r="BE293">
+        <v>6.75</v>
+      </c>
+      <c r="BF293">
+        <v>2.38</v>
+      </c>
+      <c r="BG293">
+        <v>1.2</v>
+      </c>
+      <c r="BH293">
+        <v>3.9</v>
+      </c>
+      <c r="BI293">
+        <v>1.36</v>
+      </c>
+      <c r="BJ293">
+        <v>2.8</v>
+      </c>
+      <c r="BK293">
+        <v>1.58</v>
+      </c>
+      <c r="BL293">
+        <v>2.18</v>
+      </c>
+      <c r="BM293">
+        <v>1.94</v>
+      </c>
+      <c r="BN293">
+        <v>1.76</v>
+      </c>
+      <c r="BO293">
+        <v>2.4</v>
+      </c>
+      <c r="BP293">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7491782</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45787.33333333334</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>82</v>
+      </c>
+      <c r="H294" t="s">
+        <v>86</v>
+      </c>
+      <c r="I294">
+        <v>3</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294" t="s">
+        <v>283</v>
+      </c>
+      <c r="P294" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q294">
+        <v>2</v>
+      </c>
+      <c r="R294">
+        <v>2.6</v>
+      </c>
+      <c r="S294">
+        <v>5.5</v>
+      </c>
+      <c r="T294">
+        <v>1.25</v>
+      </c>
+      <c r="U294">
+        <v>3.75</v>
+      </c>
+      <c r="V294">
+        <v>2.2</v>
+      </c>
+      <c r="W294">
+        <v>1.62</v>
+      </c>
+      <c r="X294">
+        <v>5</v>
+      </c>
+      <c r="Y294">
+        <v>1.17</v>
+      </c>
+      <c r="Z294">
+        <v>1.6</v>
+      </c>
+      <c r="AA294">
+        <v>4.2</v>
+      </c>
+      <c r="AB294">
+        <v>4.8</v>
+      </c>
+      <c r="AC294">
+        <v>1.03</v>
+      </c>
+      <c r="AD294">
+        <v>11</v>
+      </c>
+      <c r="AE294">
+        <v>1.17</v>
+      </c>
+      <c r="AF294">
+        <v>5</v>
+      </c>
+      <c r="AG294">
+        <v>1.51</v>
+      </c>
+      <c r="AH294">
+        <v>2.46</v>
+      </c>
+      <c r="AI294">
+        <v>1.67</v>
+      </c>
+      <c r="AJ294">
+        <v>2.1</v>
+      </c>
+      <c r="AK294">
+        <v>1.17</v>
+      </c>
+      <c r="AL294">
+        <v>1.21</v>
+      </c>
+      <c r="AM294">
+        <v>2.3</v>
+      </c>
+      <c r="AN294">
+        <v>1.69</v>
+      </c>
+      <c r="AO294">
+        <v>0.75</v>
+      </c>
+      <c r="AP294">
+        <v>1.76</v>
+      </c>
+      <c r="AQ294">
+        <v>0.71</v>
+      </c>
+      <c r="AR294">
+        <v>1.61</v>
+      </c>
+      <c r="AS294">
+        <v>1.23</v>
+      </c>
+      <c r="AT294">
+        <v>2.84</v>
+      </c>
+      <c r="AU294">
+        <v>9</v>
+      </c>
+      <c r="AV294">
+        <v>0</v>
+      </c>
+      <c r="AW294">
+        <v>12</v>
+      </c>
+      <c r="AX294">
+        <v>8</v>
+      </c>
+      <c r="AY294">
+        <v>24</v>
+      </c>
+      <c r="AZ294">
+        <v>10</v>
+      </c>
+      <c r="BA294">
+        <v>8</v>
+      </c>
+      <c r="BB294">
+        <v>1</v>
+      </c>
+      <c r="BC294">
+        <v>9</v>
+      </c>
+      <c r="BD294">
+        <v>1.48</v>
+      </c>
+      <c r="BE294">
+        <v>6.75</v>
+      </c>
+      <c r="BF294">
+        <v>2.95</v>
+      </c>
+      <c r="BG294">
+        <v>1.26</v>
+      </c>
+      <c r="BH294">
+        <v>3.4</v>
+      </c>
+      <c r="BI294">
+        <v>1.48</v>
+      </c>
+      <c r="BJ294">
+        <v>2.45</v>
+      </c>
+      <c r="BK294">
+        <v>1.76</v>
+      </c>
+      <c r="BL294">
+        <v>1.94</v>
+      </c>
+      <c r="BM294">
+        <v>2.18</v>
+      </c>
+      <c r="BN294">
+        <v>1.58</v>
+      </c>
+      <c r="BO294">
+        <v>2.8</v>
+      </c>
+      <c r="BP294">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7491779</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>84</v>
+      </c>
+      <c r="H295" t="s">
+        <v>78</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
+        <v>4</v>
+      </c>
+      <c r="L295">
+        <v>6</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>7</v>
+      </c>
+      <c r="O295" t="s">
+        <v>284</v>
+      </c>
+      <c r="P295" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q295">
+        <v>1.83</v>
+      </c>
+      <c r="R295">
+        <v>2.63</v>
+      </c>
+      <c r="S295">
+        <v>6.5</v>
+      </c>
+      <c r="T295">
+        <v>1.25</v>
+      </c>
+      <c r="U295">
+        <v>3.75</v>
+      </c>
+      <c r="V295">
+        <v>2.2</v>
+      </c>
+      <c r="W295">
+        <v>1.62</v>
+      </c>
+      <c r="X295">
+        <v>5</v>
+      </c>
+      <c r="Y295">
+        <v>1.17</v>
+      </c>
+      <c r="Z295">
+        <v>1.35</v>
+      </c>
+      <c r="AA295">
+        <v>5</v>
+      </c>
+      <c r="AB295">
+        <v>7.7</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>13</v>
+      </c>
+      <c r="AE295">
+        <v>1.17</v>
+      </c>
+      <c r="AF295">
+        <v>5</v>
+      </c>
+      <c r="AG295">
+        <v>1.46</v>
+      </c>
+      <c r="AH295">
+        <v>2.6</v>
+      </c>
+      <c r="AI295">
+        <v>1.73</v>
+      </c>
+      <c r="AJ295">
+        <v>2</v>
+      </c>
+      <c r="AK295">
+        <v>1.11</v>
+      </c>
+      <c r="AL295">
+        <v>1.16</v>
+      </c>
+      <c r="AM295">
+        <v>2.85</v>
+      </c>
+      <c r="AN295">
+        <v>1.75</v>
+      </c>
+      <c r="AO295">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP295">
+        <v>1.82</v>
+      </c>
+      <c r="AQ295">
+        <v>0.76</v>
+      </c>
+      <c r="AR295">
+        <v>1.79</v>
+      </c>
+      <c r="AS295">
+        <v>1.29</v>
+      </c>
+      <c r="AT295">
+        <v>3.08</v>
+      </c>
+      <c r="AU295">
+        <v>-1</v>
+      </c>
+      <c r="AV295">
+        <v>-1</v>
+      </c>
+      <c r="AW295">
+        <v>-1</v>
+      </c>
+      <c r="AX295">
+        <v>-1</v>
+      </c>
+      <c r="AY295">
+        <v>-1</v>
+      </c>
+      <c r="AZ295">
+        <v>-1</v>
+      </c>
+      <c r="BA295">
+        <v>-1</v>
+      </c>
+      <c r="BB295">
+        <v>-1</v>
+      </c>
+      <c r="BC295">
+        <v>-1</v>
+      </c>
+      <c r="BD295">
+        <v>1.38</v>
+      </c>
+      <c r="BE295">
+        <v>7</v>
+      </c>
+      <c r="BF295">
+        <v>3.3</v>
+      </c>
+      <c r="BG295">
+        <v>1.26</v>
+      </c>
+      <c r="BH295">
+        <v>3.4</v>
+      </c>
+      <c r="BI295">
+        <v>1.44</v>
+      </c>
+      <c r="BJ295">
+        <v>2.55</v>
+      </c>
+      <c r="BK295">
+        <v>1.72</v>
+      </c>
+      <c r="BL295">
+        <v>1.98</v>
+      </c>
+      <c r="BM295">
+        <v>2.1</v>
+      </c>
+      <c r="BN295">
+        <v>1.63</v>
+      </c>
+      <c r="BO295">
+        <v>2.65</v>
+      </c>
+      <c r="BP295">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -62366,31 +62366,31 @@
         <v>3.08</v>
       </c>
       <c r="AU295">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV295">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW295">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX295">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY295">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ295">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA295">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB295">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC295">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD295">
         <v>1.38</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="431">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,12 @@
     <t>['10', '42', '45+4', '48', '62', '86']</t>
   </si>
   <si>
+    <t>['17', '65']</t>
+  </si>
+  <si>
+    <t>['15', '45+7']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1296,6 +1302,12 @@
   <si>
     <t>['52', '63', '79']</t>
   </si>
+  <si>
+    <t>['4', '31']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1656,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1927,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2121,7 +2133,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2405,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ4">
         <v>0.13</v>
@@ -2533,7 +2545,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2945,7 +2957,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3151,7 +3163,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3563,7 +3575,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3847,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ11">
         <v>0.76</v>
@@ -3975,7 +3987,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4053,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
         <v>0.9399999999999999</v>
@@ -4387,7 +4399,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4674,7 +4686,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5005,7 +5017,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5086,7 +5098,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5211,7 +5223,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5623,7 +5635,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5907,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -6859,7 +6871,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -7065,7 +7077,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7271,7 +7283,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7683,7 +7695,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7761,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -7889,7 +7901,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8176,7 +8188,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -8301,7 +8313,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8507,7 +8519,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8585,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
         <v>1.59</v>
@@ -8919,7 +8931,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9125,7 +9137,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9206,7 +9218,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR37">
         <v>2.14</v>
@@ -9331,7 +9343,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9821,7 +9833,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ40">
         <v>1.31</v>
@@ -9949,7 +9961,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10361,7 +10373,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10773,7 +10785,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11185,7 +11197,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11391,7 +11403,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11472,7 +11484,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR48">
         <v>1.7</v>
@@ -11597,7 +11609,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11803,7 +11815,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12215,7 +12227,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12293,7 +12305,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -12421,7 +12433,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12627,7 +12639,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12708,7 +12720,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12833,7 +12845,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12911,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -13039,7 +13051,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13245,7 +13257,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13451,7 +13463,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13735,7 +13747,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ59">
         <v>1.31</v>
@@ -13863,7 +13875,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -14069,7 +14081,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14353,7 +14365,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ62">
         <v>1.19</v>
@@ -14481,7 +14493,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14687,7 +14699,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14768,7 +14780,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -15099,7 +15111,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15180,7 +15192,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR66">
         <v>1.63</v>
@@ -15717,7 +15729,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15923,7 +15935,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16129,7 +16141,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16541,7 +16553,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -17159,7 +17171,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17365,7 +17377,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17443,7 +17455,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ77">
         <v>1.69</v>
@@ -17649,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17855,7 +17867,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79">
         <v>1.75</v>
@@ -18064,7 +18076,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR80">
         <v>1.52</v>
@@ -18189,7 +18201,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18601,7 +18613,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18807,7 +18819,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19013,7 +19025,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19219,7 +19231,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19425,7 +19437,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19631,7 +19643,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19837,7 +19849,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -20043,7 +20055,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20945,7 +20957,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ94">
         <v>1.56</v>
@@ -21073,7 +21085,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21154,7 +21166,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -21357,10 +21369,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -21485,7 +21497,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21691,7 +21703,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21769,7 +21781,7 @@
         <v>2.4</v>
       </c>
       <c r="AP98">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
         <v>1.82</v>
@@ -22927,7 +22939,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23339,7 +23351,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23545,7 +23557,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -24163,7 +24175,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24575,7 +24587,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24656,7 +24668,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24781,7 +24793,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24987,7 +24999,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25193,7 +25205,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25271,10 +25283,10 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ115">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR115">
         <v>1.64</v>
@@ -25399,7 +25411,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25605,7 +25617,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25683,7 +25695,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
         <v>0.71</v>
@@ -25811,7 +25823,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25889,7 +25901,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ118">
         <v>1.82</v>
@@ -26017,7 +26029,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26223,7 +26235,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26429,7 +26441,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26635,7 +26647,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -27253,7 +27265,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27459,7 +27471,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -28077,7 +28089,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28283,7 +28295,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28361,10 +28373,10 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28695,7 +28707,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28773,7 +28785,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ132">
         <v>0.76</v>
@@ -28901,7 +28913,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29107,7 +29119,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29188,7 +29200,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ134">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -29519,7 +29531,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29597,7 +29609,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ136">
         <v>1.76</v>
@@ -29725,7 +29737,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29931,7 +29943,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30343,7 +30355,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30755,7 +30767,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31373,7 +31385,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31579,7 +31591,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31785,7 +31797,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32403,7 +32415,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32484,7 +32496,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR150">
         <v>1.42</v>
@@ -32893,10 +32905,10 @@
         <v>1.57</v>
       </c>
       <c r="AP152">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR152">
         <v>1.2</v>
@@ -33099,7 +33111,7 @@
         <v>1.75</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ153">
         <v>1.59</v>
@@ -33227,7 +33239,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33305,7 +33317,7 @@
         <v>2</v>
       </c>
       <c r="AP154">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ154">
         <v>1.76</v>
@@ -33433,7 +33445,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33514,7 +33526,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.57</v>
@@ -33717,7 +33729,7 @@
         <v>0.63</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ156">
         <v>1.19</v>
@@ -33923,7 +33935,7 @@
         <v>0.89</v>
       </c>
       <c r="AP157">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ157">
         <v>0.76</v>
@@ -34669,7 +34681,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34875,7 +34887,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35081,7 +35093,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35162,7 +35174,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR163">
         <v>1.52</v>
@@ -35287,7 +35299,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35493,7 +35505,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35905,7 +35917,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36317,7 +36329,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36523,7 +36535,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36935,7 +36947,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37013,7 +37025,7 @@
         <v>1.13</v>
       </c>
       <c r="AP172">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -37222,7 +37234,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ173">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37347,7 +37359,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37428,7 +37440,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ174">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37631,7 +37643,7 @@
         <v>1.8</v>
       </c>
       <c r="AP175">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ175">
         <v>1.59</v>
@@ -37759,7 +37771,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37965,7 +37977,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38171,7 +38183,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38377,7 +38389,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38661,7 +38673,7 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38789,7 +38801,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38995,7 +39007,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39407,7 +39419,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39613,7 +39625,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39819,7 +39831,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40437,7 +40449,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40721,7 +40733,7 @@
         <v>2.22</v>
       </c>
       <c r="AP190">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ190">
         <v>1.69</v>
@@ -41545,7 +41557,7 @@
         <v>0.9</v>
       </c>
       <c r="AP194">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ194">
         <v>1.19</v>
@@ -41754,7 +41766,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR195">
         <v>1.27</v>
@@ -41879,7 +41891,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42163,7 +42175,7 @@
         <v>1.7</v>
       </c>
       <c r="AP197">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ197">
         <v>1.75</v>
@@ -42372,7 +42384,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ198">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR198">
         <v>1.64</v>
@@ -43115,7 +43127,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43733,7 +43745,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43811,7 +43823,7 @@
         <v>1.82</v>
       </c>
       <c r="AP205">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ205">
         <v>1.75</v>
@@ -44557,7 +44569,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -45253,7 +45265,7 @@
         <v>0.09</v>
       </c>
       <c r="AP212">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ212">
         <v>0.13</v>
@@ -45381,7 +45393,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45793,7 +45805,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45874,7 +45886,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ215">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR215">
         <v>1.76</v>
@@ -46492,7 +46504,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ218">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR218">
         <v>1.53</v>
@@ -46695,7 +46707,7 @@
         <v>1.45</v>
       </c>
       <c r="AP219">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ219">
         <v>1.56</v>
@@ -47029,7 +47041,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47441,7 +47453,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47647,7 +47659,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47725,7 +47737,7 @@
         <v>0.5</v>
       </c>
       <c r="AP224">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ224">
         <v>0.71</v>
@@ -47853,7 +47865,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -48137,7 +48149,7 @@
         <v>1.75</v>
       </c>
       <c r="AP226">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ226">
         <v>1.75</v>
@@ -48265,7 +48277,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48471,7 +48483,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48677,7 +48689,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48883,7 +48895,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -49376,7 +49388,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ232">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR232">
         <v>1.81</v>
@@ -49913,7 +49925,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50406,7 +50418,7 @@
         <v>1</v>
       </c>
       <c r="AQ237">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR237">
         <v>1.48</v>
@@ -50609,7 +50621,7 @@
         <v>2.23</v>
       </c>
       <c r="AP238">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ238">
         <v>1.82</v>
@@ -50737,7 +50749,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50943,7 +50955,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51024,7 +51036,7 @@
         <v>1</v>
       </c>
       <c r="AQ240">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR240">
         <v>1.53</v>
@@ -51227,7 +51239,7 @@
         <v>1.83</v>
       </c>
       <c r="AP241">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ241">
         <v>1.69</v>
@@ -51355,7 +51367,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51845,7 +51857,7 @@
         <v>1.15</v>
       </c>
       <c r="AP244">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ244">
         <v>1.19</v>
@@ -52179,7 +52191,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52797,7 +52809,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -53415,7 +53427,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53827,7 +53839,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54239,7 +54251,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54317,7 +54329,7 @@
         <v>1.38</v>
       </c>
       <c r="AP256">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ256">
         <v>1.56</v>
@@ -54526,7 +54538,7 @@
         <v>1</v>
       </c>
       <c r="AQ257">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR257">
         <v>1.54</v>
@@ -54857,7 +54869,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -54935,7 +54947,7 @@
         <v>1.07</v>
       </c>
       <c r="AP259">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ259">
         <v>1.19</v>
@@ -55063,7 +55075,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55350,7 +55362,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ261">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR261">
         <v>1.31</v>
@@ -55553,7 +55565,7 @@
         <v>1.21</v>
       </c>
       <c r="AP262">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ262">
         <v>1</v>
@@ -55887,7 +55899,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56299,7 +56311,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56505,7 +56517,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56917,7 +56929,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57123,7 +57135,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -58234,7 +58246,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ275">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR275">
         <v>1.33</v>
@@ -58437,7 +58449,7 @@
         <v>0.73</v>
       </c>
       <c r="AP276">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ276">
         <v>0.71</v>
@@ -58565,7 +58577,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58771,7 +58783,7 @@
         <v>107</v>
       </c>
       <c r="P278" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q278">
         <v>1.95</v>
@@ -58852,7 +58864,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ278">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR278">
         <v>1.79</v>
@@ -59055,7 +59067,7 @@
         <v>1.8</v>
       </c>
       <c r="AP279">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ279">
         <v>1.76</v>
@@ -59183,7 +59195,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q280">
         <v>2.63</v>
@@ -59261,7 +59273,7 @@
         <v>1.13</v>
       </c>
       <c r="AP280">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ280">
         <v>1</v>
@@ -59389,7 +59401,7 @@
         <v>92</v>
       </c>
       <c r="P281" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q281">
         <v>1.91</v>
@@ -59595,7 +59607,7 @@
         <v>92</v>
       </c>
       <c r="P282" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59801,7 +59813,7 @@
         <v>119</v>
       </c>
       <c r="P283" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -60007,7 +60019,7 @@
         <v>276</v>
       </c>
       <c r="P284" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60213,7 +60225,7 @@
         <v>92</v>
       </c>
       <c r="P285" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -60625,7 +60637,7 @@
         <v>277</v>
       </c>
       <c r="P287" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q287">
         <v>2.88</v>
@@ -60831,7 +60843,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q288">
         <v>3.75</v>
@@ -61449,7 +61461,7 @@
         <v>280</v>
       </c>
       <c r="P291" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q291">
         <v>4.5</v>
@@ -62273,7 +62285,7 @@
         <v>284</v>
       </c>
       <c r="P295" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q295">
         <v>1.83</v>
@@ -62430,6 +62442,624 @@
       </c>
       <c r="BP295">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7491786</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45788.35416666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>79</v>
+      </c>
+      <c r="H296" t="s">
+        <v>71</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296">
+        <v>3</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>285</v>
+      </c>
+      <c r="P296" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q296">
+        <v>3.75</v>
+      </c>
+      <c r="R296">
+        <v>2.38</v>
+      </c>
+      <c r="S296">
+        <v>2.5</v>
+      </c>
+      <c r="T296">
+        <v>1.29</v>
+      </c>
+      <c r="U296">
+        <v>3.5</v>
+      </c>
+      <c r="V296">
+        <v>2.38</v>
+      </c>
+      <c r="W296">
+        <v>1.53</v>
+      </c>
+      <c r="X296">
+        <v>5.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.14</v>
+      </c>
+      <c r="Z296">
+        <v>3.45</v>
+      </c>
+      <c r="AA296">
+        <v>3.96</v>
+      </c>
+      <c r="AB296">
+        <v>1.89</v>
+      </c>
+      <c r="AC296">
+        <v>1.03</v>
+      </c>
+      <c r="AD296">
+        <v>11</v>
+      </c>
+      <c r="AE296">
+        <v>1.2</v>
+      </c>
+      <c r="AF296">
+        <v>4.5</v>
+      </c>
+      <c r="AG296">
+        <v>1.57</v>
+      </c>
+      <c r="AH296">
+        <v>2.15</v>
+      </c>
+      <c r="AI296">
+        <v>1.57</v>
+      </c>
+      <c r="AJ296">
+        <v>2.25</v>
+      </c>
+      <c r="AK296">
+        <v>1.8</v>
+      </c>
+      <c r="AL296">
+        <v>1.25</v>
+      </c>
+      <c r="AM296">
+        <v>1.3</v>
+      </c>
+      <c r="AN296">
+        <v>1.38</v>
+      </c>
+      <c r="AO296">
+        <v>1.25</v>
+      </c>
+      <c r="AP296">
+        <v>1.35</v>
+      </c>
+      <c r="AQ296">
+        <v>1.24</v>
+      </c>
+      <c r="AR296">
+        <v>1.24</v>
+      </c>
+      <c r="AS296">
+        <v>1.28</v>
+      </c>
+      <c r="AT296">
+        <v>2.52</v>
+      </c>
+      <c r="AU296">
+        <v>-1</v>
+      </c>
+      <c r="AV296">
+        <v>-1</v>
+      </c>
+      <c r="AW296">
+        <v>-1</v>
+      </c>
+      <c r="AX296">
+        <v>-1</v>
+      </c>
+      <c r="AY296">
+        <v>-1</v>
+      </c>
+      <c r="AZ296">
+        <v>-1</v>
+      </c>
+      <c r="BA296">
+        <v>-1</v>
+      </c>
+      <c r="BB296">
+        <v>-1</v>
+      </c>
+      <c r="BC296">
+        <v>-1</v>
+      </c>
+      <c r="BD296">
+        <v>2.4</v>
+      </c>
+      <c r="BE296">
+        <v>6.75</v>
+      </c>
+      <c r="BF296">
+        <v>1.68</v>
+      </c>
+      <c r="BG296">
+        <v>1.2</v>
+      </c>
+      <c r="BH296">
+        <v>3.9</v>
+      </c>
+      <c r="BI296">
+        <v>1.36</v>
+      </c>
+      <c r="BJ296">
+        <v>2.8</v>
+      </c>
+      <c r="BK296">
+        <v>1.61</v>
+      </c>
+      <c r="BL296">
+        <v>2.15</v>
+      </c>
+      <c r="BM296">
+        <v>1.96</v>
+      </c>
+      <c r="BN296">
+        <v>1.73</v>
+      </c>
+      <c r="BO296">
+        <v>2.45</v>
+      </c>
+      <c r="BP296">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7491784</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45788.35416666666</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>80</v>
+      </c>
+      <c r="H297" t="s">
+        <v>76</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>3</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>286</v>
+      </c>
+      <c r="P297" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q297">
+        <v>2.38</v>
+      </c>
+      <c r="R297">
+        <v>2.5</v>
+      </c>
+      <c r="S297">
+        <v>4</v>
+      </c>
+      <c r="T297">
+        <v>1.25</v>
+      </c>
+      <c r="U297">
+        <v>3.75</v>
+      </c>
+      <c r="V297">
+        <v>2.2</v>
+      </c>
+      <c r="W297">
+        <v>1.62</v>
+      </c>
+      <c r="X297">
+        <v>5</v>
+      </c>
+      <c r="Y297">
+        <v>1.17</v>
+      </c>
+      <c r="Z297">
+        <v>1.89</v>
+      </c>
+      <c r="AA297">
+        <v>3.86</v>
+      </c>
+      <c r="AB297">
+        <v>3.55</v>
+      </c>
+      <c r="AC297">
+        <v>1.01</v>
+      </c>
+      <c r="AD297">
+        <v>13</v>
+      </c>
+      <c r="AE297">
+        <v>1.17</v>
+      </c>
+      <c r="AF297">
+        <v>5</v>
+      </c>
+      <c r="AG297">
+        <v>1.5</v>
+      </c>
+      <c r="AH297">
+        <v>2.48</v>
+      </c>
+      <c r="AI297">
+        <v>1.5</v>
+      </c>
+      <c r="AJ297">
+        <v>2.5</v>
+      </c>
+      <c r="AK297">
+        <v>1.3</v>
+      </c>
+      <c r="AL297">
+        <v>1.24</v>
+      </c>
+      <c r="AM297">
+        <v>1.82</v>
+      </c>
+      <c r="AN297">
+        <v>1.81</v>
+      </c>
+      <c r="AO297">
+        <v>0.88</v>
+      </c>
+      <c r="AP297">
+        <v>1.88</v>
+      </c>
+      <c r="AQ297">
+        <v>0.82</v>
+      </c>
+      <c r="AR297">
+        <v>1.9</v>
+      </c>
+      <c r="AS297">
+        <v>1.62</v>
+      </c>
+      <c r="AT297">
+        <v>3.52</v>
+      </c>
+      <c r="AU297">
+        <v>7</v>
+      </c>
+      <c r="AV297">
+        <v>7</v>
+      </c>
+      <c r="AW297">
+        <v>11</v>
+      </c>
+      <c r="AX297">
+        <v>10</v>
+      </c>
+      <c r="AY297">
+        <v>21</v>
+      </c>
+      <c r="AZ297">
+        <v>20</v>
+      </c>
+      <c r="BA297">
+        <v>3</v>
+      </c>
+      <c r="BB297">
+        <v>11</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>1.58</v>
+      </c>
+      <c r="BE297">
+        <v>7</v>
+      </c>
+      <c r="BF297">
+        <v>2.55</v>
+      </c>
+      <c r="BG297">
+        <v>1.2</v>
+      </c>
+      <c r="BH297">
+        <v>3.95</v>
+      </c>
+      <c r="BI297">
+        <v>1.35</v>
+      </c>
+      <c r="BJ297">
+        <v>2.9</v>
+      </c>
+      <c r="BK297">
+        <v>1.58</v>
+      </c>
+      <c r="BL297">
+        <v>2.2</v>
+      </c>
+      <c r="BM297">
+        <v>1.92</v>
+      </c>
+      <c r="BN297">
+        <v>1.77</v>
+      </c>
+      <c r="BO297">
+        <v>2.4</v>
+      </c>
+      <c r="BP297">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7491780</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45788.35416666666</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>72</v>
+      </c>
+      <c r="H298" t="s">
+        <v>77</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" t="s">
+        <v>234</v>
+      </c>
+      <c r="P298" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q298">
+        <v>2.6</v>
+      </c>
+      <c r="R298">
+        <v>2.38</v>
+      </c>
+      <c r="S298">
+        <v>3.75</v>
+      </c>
+      <c r="T298">
+        <v>1.3</v>
+      </c>
+      <c r="U298">
+        <v>3.4</v>
+      </c>
+      <c r="V298">
+        <v>2.38</v>
+      </c>
+      <c r="W298">
+        <v>1.53</v>
+      </c>
+      <c r="X298">
+        <v>6</v>
+      </c>
+      <c r="Y298">
+        <v>1.13</v>
+      </c>
+      <c r="Z298">
+        <v>1.94</v>
+      </c>
+      <c r="AA298">
+        <v>4</v>
+      </c>
+      <c r="AB298">
+        <v>3.26</v>
+      </c>
+      <c r="AC298">
+        <v>1.03</v>
+      </c>
+      <c r="AD298">
+        <v>11</v>
+      </c>
+      <c r="AE298">
+        <v>1.2</v>
+      </c>
+      <c r="AF298">
+        <v>4.5</v>
+      </c>
+      <c r="AG298">
+        <v>1.57</v>
+      </c>
+      <c r="AH298">
+        <v>2.15</v>
+      </c>
+      <c r="AI298">
+        <v>1.57</v>
+      </c>
+      <c r="AJ298">
+        <v>2.25</v>
+      </c>
+      <c r="AK298">
+        <v>1.3</v>
+      </c>
+      <c r="AL298">
+        <v>1.26</v>
+      </c>
+      <c r="AM298">
+        <v>1.78</v>
+      </c>
+      <c r="AN298">
+        <v>1.88</v>
+      </c>
+      <c r="AO298">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP298">
+        <v>1.82</v>
+      </c>
+      <c r="AQ298">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR298">
+        <v>1.63</v>
+      </c>
+      <c r="AS298">
+        <v>1.27</v>
+      </c>
+      <c r="AT298">
+        <v>2.9</v>
+      </c>
+      <c r="AU298">
+        <v>9</v>
+      </c>
+      <c r="AV298">
+        <v>5</v>
+      </c>
+      <c r="AW298">
+        <v>8</v>
+      </c>
+      <c r="AX298">
+        <v>12</v>
+      </c>
+      <c r="AY298">
+        <v>21</v>
+      </c>
+      <c r="AZ298">
+        <v>22</v>
+      </c>
+      <c r="BA298">
+        <v>5</v>
+      </c>
+      <c r="BB298">
+        <v>4</v>
+      </c>
+      <c r="BC298">
+        <v>9</v>
+      </c>
+      <c r="BD298">
+        <v>1.61</v>
+      </c>
+      <c r="BE298">
+        <v>6.75</v>
+      </c>
+      <c r="BF298">
+        <v>2.55</v>
+      </c>
+      <c r="BG298">
+        <v>1.22</v>
+      </c>
+      <c r="BH298">
+        <v>3.7</v>
+      </c>
+      <c r="BI298">
+        <v>1.4</v>
+      </c>
+      <c r="BJ298">
+        <v>2.7</v>
+      </c>
+      <c r="BK298">
+        <v>1.65</v>
+      </c>
+      <c r="BL298">
+        <v>2.08</v>
+      </c>
+      <c r="BM298">
+        <v>2</v>
+      </c>
+      <c r="BN298">
+        <v>1.71</v>
+      </c>
+      <c r="BO298">
+        <v>2.5</v>
+      </c>
+      <c r="BP298">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -62584,31 +62584,31 @@
         <v>2.52</v>
       </c>
       <c r="AU296">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV296">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW296">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AX296">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AY296">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="AZ296">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BA296">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB296">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC296">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD296">
         <v>2.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="443">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -877,6 +877,24 @@
     <t>['15', '45+7']</t>
   </si>
   <si>
+    <t>['14', '29', '75', '87']</t>
+  </si>
+  <si>
+    <t>['57', '64', '90+3']</t>
+  </si>
+  <si>
+    <t>['50', '55', '72']</t>
+  </si>
+  <si>
+    <t>['41', '57', '63']</t>
+  </si>
+  <si>
+    <t>['47', '60', '73', '90+2']</t>
+  </si>
+  <si>
+    <t>['10', '85']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -1308,6 +1326,24 @@
   <si>
     <t>['3']</t>
   </si>
+  <si>
+    <t>['10', '21', '31', '45+1']</t>
+  </si>
+  <si>
+    <t>['50', '67']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['20', '47']</t>
+  </si>
+  <si>
+    <t>['19', '81']</t>
+  </si>
+  <si>
+    <t>['54', '75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1668,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1963,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2005,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2133,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2211,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ3">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2420,7 +2456,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ4">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2545,7 +2581,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2626,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2829,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2957,7 +2993,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3035,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ7">
         <v>0.71</v>
@@ -3163,7 +3199,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3241,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ8">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3447,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3575,7 +3611,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3656,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3987,7 +4023,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -4399,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -5017,7 +5053,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5223,7 +5259,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5301,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ18">
         <v>1.82</v>
@@ -5510,7 +5546,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ19">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5635,7 +5671,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5713,10 +5749,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ20">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR20">
         <v>1.6</v>
@@ -5922,7 +5958,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6128,7 +6164,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ22">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -6331,10 +6367,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR23">
         <v>2.28</v>
@@ -6540,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6743,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ25">
         <v>0.71</v>
@@ -6871,7 +6907,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6952,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -7077,7 +7113,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7155,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.43</v>
@@ -7283,7 +7319,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7361,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7570,7 +7606,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ29">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7695,7 +7731,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7901,7 +7937,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -8313,7 +8349,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8519,7 +8555,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8931,7 +8967,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9009,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ36">
         <v>1.76</v>
@@ -9137,7 +9173,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -9215,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37">
         <v>1.24</v>
@@ -9343,7 +9379,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9424,7 +9460,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR38">
         <v>1.52</v>
@@ -9627,7 +9663,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9836,7 +9872,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ40">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9961,7 +9997,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -10042,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.64</v>
@@ -10245,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ42">
         <v>0.71</v>
@@ -10373,7 +10409,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10451,7 +10487,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ43">
         <v>1.82</v>
@@ -10657,10 +10693,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ44">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -10785,7 +10821,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10866,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR45">
         <v>1.24</v>
@@ -11072,7 +11108,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ46">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR46">
         <v>1.28</v>
@@ -11197,7 +11233,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -11278,7 +11314,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ47">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11403,7 +11439,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11481,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ48">
         <v>0.82</v>
@@ -11609,7 +11645,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11815,7 +11851,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12099,7 +12135,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ51">
         <v>0.9399999999999999</v>
@@ -12227,7 +12263,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12308,7 +12344,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -12433,7 +12469,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12639,7 +12675,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12717,7 +12753,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>1.24</v>
@@ -12845,7 +12881,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13051,7 +13087,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -13257,7 +13293,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13335,10 +13371,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ57">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13463,7 +13499,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13544,7 +13580,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13750,7 +13786,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ59">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13875,7 +13911,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13953,7 +13989,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ60">
         <v>1.82</v>
@@ -14081,7 +14117,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14368,7 +14404,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ62">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -14493,7 +14529,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14574,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -14699,7 +14735,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14777,7 +14813,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ64">
         <v>1.24</v>
@@ -14986,7 +15022,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ65">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -15111,7 +15147,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15189,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ66">
         <v>0.82</v>
@@ -15395,7 +15431,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ67">
         <v>0.76</v>
@@ -15604,7 +15640,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ68">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15729,7 +15765,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15935,7 +15971,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16013,7 +16049,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70">
         <v>1.59</v>
@@ -16141,7 +16177,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16219,7 +16255,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.9399999999999999</v>
@@ -16425,10 +16461,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ72">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16553,7 +16589,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16634,7 +16670,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -16837,7 +16873,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
         <v>1.76</v>
@@ -17171,7 +17207,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17252,7 +17288,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17377,7 +17413,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17458,7 +17494,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ77">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR77">
         <v>1.26</v>
@@ -17870,7 +17906,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -18201,7 +18237,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18279,10 +18315,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ81">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -18613,7 +18649,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18691,10 +18727,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR83">
         <v>2.13</v>
@@ -18819,7 +18855,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18900,7 +18936,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ84">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR84">
         <v>1.18</v>
@@ -19025,7 +19061,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -19103,7 +19139,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ85">
         <v>1.59</v>
@@ -19231,7 +19267,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19309,7 +19345,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -19437,7 +19473,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19518,7 +19554,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR87">
         <v>1.33</v>
@@ -19643,7 +19679,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19724,7 +19760,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ88">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR88">
         <v>1.59</v>
@@ -19849,7 +19885,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19927,7 +19963,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
         <v>0.76</v>
@@ -20055,7 +20091,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20133,10 +20169,10 @@
         <v>0.25</v>
       </c>
       <c r="AP90">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -20339,7 +20375,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20548,7 +20584,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ92">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20960,7 +20996,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21085,7 +21121,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21163,7 +21199,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ95">
         <v>0.82</v>
@@ -21497,7 +21533,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21703,7 +21739,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -22196,7 +22232,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ100">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
         <v>1.62</v>
@@ -22399,10 +22435,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22608,7 +22644,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ102">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR102">
         <v>1.42</v>
@@ -22811,7 +22847,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -22939,7 +22975,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -23017,7 +23053,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104">
         <v>1.59</v>
@@ -23223,7 +23259,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ105">
         <v>0.76</v>
@@ -23351,7 +23387,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23432,7 +23468,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ106">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR106">
         <v>1.62</v>
@@ -23557,7 +23593,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23635,7 +23671,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23841,10 +23877,10 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -24050,7 +24086,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ109">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -24175,7 +24211,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24256,7 +24292,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ110">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR110">
         <v>1.5</v>
@@ -24587,7 +24623,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24665,7 +24701,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ112">
         <v>1.24</v>
@@ -24793,7 +24829,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24999,7 +25035,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -25080,7 +25116,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ114">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -25205,7 +25241,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25411,7 +25447,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25617,7 +25653,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25823,7 +25859,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26029,7 +26065,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26107,7 +26143,7 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119">
         <v>1.59</v>
@@ -26235,7 +26271,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26313,10 +26349,10 @@
         <v>1.57</v>
       </c>
       <c r="AP120">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ120">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26441,7 +26477,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26519,10 +26555,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ121">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR121">
         <v>1.92</v>
@@ -26647,7 +26683,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26728,7 +26764,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ122">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR122">
         <v>1.56</v>
@@ -26931,10 +26967,10 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ123">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -27137,7 +27173,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27265,7 +27301,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27343,10 +27379,10 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ125">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR125">
         <v>1.52</v>
@@ -27471,7 +27507,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27552,7 +27588,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ126">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27964,7 +28000,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ128">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -28089,7 +28125,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -28295,7 +28331,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28579,7 +28615,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ131">
         <v>1.59</v>
@@ -28707,7 +28743,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28913,7 +28949,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29119,7 +29155,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29531,7 +29567,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29737,7 +29773,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29815,10 +29851,10 @@
         <v>0.14</v>
       </c>
       <c r="AP137">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ137">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR137">
         <v>1.55</v>
@@ -29943,7 +29979,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -30227,10 +30263,10 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ139">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR139">
         <v>1.49</v>
@@ -30355,7 +30391,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30433,10 +30469,10 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ140">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR140">
         <v>1.64</v>
@@ -30642,7 +30678,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR141">
         <v>1.46</v>
@@ -30767,7 +30803,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30845,10 +30881,10 @@
         <v>1.75</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ142">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR142">
         <v>1.45</v>
@@ -31051,10 +31087,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ143">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR143">
         <v>1.88</v>
@@ -31257,10 +31293,10 @@
         <v>0.71</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ144">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31385,7 +31421,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31463,10 +31499,10 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ145">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR145">
         <v>1.36</v>
@@ -31591,7 +31627,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31797,7 +31833,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -32415,7 +32451,7 @@
         <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33239,7 +33275,7 @@
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33445,7 +33481,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q155">
         <v>2.88</v>
@@ -33732,7 +33768,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ156">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR156">
         <v>1.25</v>
@@ -34141,7 +34177,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34681,7 +34717,7 @@
         <v>161</v>
       </c>
       <c r="P161" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34887,7 +34923,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35093,7 +35129,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35299,7 +35335,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q164">
         <v>2.15</v>
@@ -35377,7 +35413,7 @@
         <v>0.22</v>
       </c>
       <c r="AP164">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164">
         <v>0.71</v>
@@ -35505,7 +35541,7 @@
         <v>201</v>
       </c>
       <c r="P165" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q165">
         <v>2.85</v>
@@ -35583,10 +35619,10 @@
         <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ165">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35789,10 +35825,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ166">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR166">
         <v>1.82</v>
@@ -35917,7 +35953,7 @@
         <v>203</v>
       </c>
       <c r="P167" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35995,10 +36031,10 @@
         <v>2.13</v>
       </c>
       <c r="AP167">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ167">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR167">
         <v>1.61</v>
@@ -36201,10 +36237,10 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ168">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36329,7 +36365,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q169">
         <v>2.95</v>
@@ -36410,7 +36446,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR169">
         <v>1.39</v>
@@ -36535,7 +36571,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36616,7 +36652,7 @@
         <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR170">
         <v>1.46</v>
@@ -36819,10 +36855,10 @@
         <v>1.56</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ171">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR171">
         <v>1.56</v>
@@ -36947,7 +36983,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37359,7 +37395,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q174">
         <v>2.7</v>
@@ -37771,7 +37807,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37849,7 +37885,7 @@
         <v>1.89</v>
       </c>
       <c r="AP176">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ176">
         <v>1.76</v>
@@ -37977,7 +38013,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q177">
         <v>2.2</v>
@@ -38183,7 +38219,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38261,7 +38297,7 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ178">
         <v>1.82</v>
@@ -38389,7 +38425,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q179">
         <v>2.2</v>
@@ -38801,7 +38837,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38882,7 +38918,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ181">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR181">
         <v>1.76</v>
@@ -39007,7 +39043,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -39088,7 +39124,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ182">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -39291,10 +39327,10 @@
         <v>0.11</v>
       </c>
       <c r="AP183">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ183">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR183">
         <v>1.4</v>
@@ -39419,7 +39455,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39497,10 +39533,10 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ184">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR184">
         <v>1.56</v>
@@ -39625,7 +39661,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39703,10 +39739,10 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ185">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR185">
         <v>1.66</v>
@@ -39831,7 +39867,7 @@
         <v>92</v>
       </c>
       <c r="P186" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39912,7 +39948,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR186">
         <v>1.53</v>
@@ -40118,7 +40154,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR187">
         <v>1.44</v>
@@ -40321,7 +40357,7 @@
         <v>1.3</v>
       </c>
       <c r="AP188">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ188">
         <v>1</v>
@@ -40449,7 +40485,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q189">
         <v>2.38</v>
@@ -40527,7 +40563,7 @@
         <v>0.3</v>
       </c>
       <c r="AP189">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ189">
         <v>0.71</v>
@@ -40736,7 +40772,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ190">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -40939,7 +40975,7 @@
         <v>2</v>
       </c>
       <c r="AP191">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ191">
         <v>1.76</v>
@@ -41560,7 +41596,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ194">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR194">
         <v>1.74</v>
@@ -41763,7 +41799,7 @@
         <v>1.2</v>
       </c>
       <c r="AP195">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ195">
         <v>0.82</v>
@@ -41891,7 +41927,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q196">
         <v>2.65</v>
@@ -42178,7 +42214,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ197">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR197">
         <v>1.21</v>
@@ -42381,7 +42417,7 @@
         <v>1.45</v>
       </c>
       <c r="AP198">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ198">
         <v>1.24</v>
@@ -42796,7 +42832,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ200">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR200">
         <v>1.78</v>
@@ -43002,7 +43038,7 @@
         <v>1</v>
       </c>
       <c r="AQ201">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR201">
         <v>1.48</v>
@@ -43127,7 +43163,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43205,7 +43241,7 @@
         <v>2.55</v>
       </c>
       <c r="AP202">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ202">
         <v>1.82</v>
@@ -43414,7 +43450,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR203">
         <v>1.48</v>
@@ -43620,7 +43656,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ204">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR204">
         <v>1.2</v>
@@ -43745,7 +43781,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43826,7 +43862,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ205">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR205">
         <v>1.73</v>
@@ -44029,10 +44065,10 @@
         <v>2.1</v>
       </c>
       <c r="AP206">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ206">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR206">
         <v>1.8</v>
@@ -44235,7 +44271,7 @@
         <v>1.18</v>
       </c>
       <c r="AP207">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ207">
         <v>1</v>
@@ -44441,7 +44477,7 @@
         <v>0.55</v>
       </c>
       <c r="AP208">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ208">
         <v>0.71</v>
@@ -44569,7 +44605,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44853,7 +44889,7 @@
         <v>0.91</v>
       </c>
       <c r="AP210">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -45059,7 +45095,7 @@
         <v>0.67</v>
       </c>
       <c r="AP211">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ211">
         <v>0.76</v>
@@ -45268,7 +45304,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ212">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR212">
         <v>1.77</v>
@@ -45393,7 +45429,7 @@
         <v>175</v>
       </c>
       <c r="P213" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45474,7 +45510,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ213">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR213">
         <v>1.64</v>
@@ -45677,7 +45713,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ214">
         <v>1.76</v>
@@ -45805,7 +45841,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45883,7 +45919,7 @@
         <v>1.09</v>
       </c>
       <c r="AP215">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ215">
         <v>0.82</v>
@@ -46298,7 +46334,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ217">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR217">
         <v>1.68</v>
@@ -46501,7 +46537,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ218">
         <v>1.24</v>
@@ -46710,7 +46746,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ219">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR219">
         <v>1.83</v>
@@ -46913,7 +46949,7 @@
         <v>2.33</v>
       </c>
       <c r="AP220">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ220">
         <v>1.82</v>
@@ -47041,7 +47077,7 @@
         <v>119</v>
       </c>
       <c r="P221" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47453,7 +47489,7 @@
         <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47534,7 +47570,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ223">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR223">
         <v>1.8</v>
@@ -47659,7 +47695,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47865,7 +47901,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q225">
         <v>3.4</v>
@@ -47946,7 +47982,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ225">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR225">
         <v>1.24</v>
@@ -48152,7 +48188,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ226">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR226">
         <v>1.26</v>
@@ -48277,7 +48313,7 @@
         <v>174</v>
       </c>
       <c r="P227" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q227">
         <v>3.1</v>
@@ -48355,10 +48391,10 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ227">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -48483,7 +48519,7 @@
         <v>92</v>
       </c>
       <c r="P228" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q228">
         <v>2.88</v>
@@ -48561,10 +48597,10 @@
         <v>1.5</v>
       </c>
       <c r="AP228">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ228">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -48689,7 +48725,7 @@
         <v>92</v>
       </c>
       <c r="P229" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q229">
         <v>2.25</v>
@@ -48895,7 +48931,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q230">
         <v>2.4</v>
@@ -48976,7 +49012,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ230">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49182,7 +49218,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ231">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR231">
         <v>1.5</v>
@@ -49385,7 +49421,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ232">
         <v>0.82</v>
@@ -49797,7 +49833,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP234">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ234">
         <v>0.76</v>
@@ -49925,7 +49961,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50003,7 +50039,7 @@
         <v>1.38</v>
       </c>
       <c r="AP235">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ235">
         <v>1.59</v>
@@ -50212,7 +50248,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ236">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR236">
         <v>1.85</v>
@@ -50749,7 +50785,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50955,7 +50991,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51242,7 +51278,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ241">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR241">
         <v>1.78</v>
@@ -51367,7 +51403,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51445,7 +51481,7 @@
         <v>1.23</v>
       </c>
       <c r="AP242">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ242">
         <v>1</v>
@@ -51860,7 +51896,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ244">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR244">
         <v>1.22</v>
@@ -52063,10 +52099,10 @@
         <v>1.23</v>
       </c>
       <c r="AP245">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ245">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR245">
         <v>1.63</v>
@@ -52191,7 +52227,7 @@
         <v>254</v>
       </c>
       <c r="P246" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q246">
         <v>4.33</v>
@@ -52269,10 +52305,10 @@
         <v>1.69</v>
       </c>
       <c r="AP246">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ246">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR246">
         <v>1.42</v>
@@ -52475,7 +52511,7 @@
         <v>1.15</v>
       </c>
       <c r="AP247">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ247">
         <v>0.9399999999999999</v>
@@ -52809,7 +52845,7 @@
         <v>92</v>
       </c>
       <c r="P249" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q249">
         <v>3.6</v>
@@ -52890,7 +52926,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ249">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR249">
         <v>1.55</v>
@@ -53093,7 +53129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP250">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ250">
         <v>1.59</v>
@@ -53299,10 +53335,10 @@
         <v>1.54</v>
       </c>
       <c r="AP251">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ251">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR251">
         <v>1.84</v>
@@ -53427,7 +53463,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53505,7 +53541,7 @@
         <v>0.71</v>
       </c>
       <c r="AP252">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ252">
         <v>0.76</v>
@@ -53714,7 +53750,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ253">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR253">
         <v>1.53</v>
@@ -53839,7 +53875,7 @@
         <v>259</v>
       </c>
       <c r="P254" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q254">
         <v>1.83</v>
@@ -54123,7 +54159,7 @@
         <v>1.86</v>
       </c>
       <c r="AP255">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ255">
         <v>1.76</v>
@@ -54251,7 +54287,7 @@
         <v>260</v>
       </c>
       <c r="P256" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q256">
         <v>2.88</v>
@@ -54332,7 +54368,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ256">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54869,7 +54905,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -54950,7 +54986,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ259">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR259">
         <v>1.77</v>
@@ -55075,7 +55111,7 @@
         <v>88</v>
       </c>
       <c r="P260" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55156,7 +55192,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ260">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR260">
         <v>1.76</v>
@@ -55771,10 +55807,10 @@
         <v>1.43</v>
       </c>
       <c r="AP263">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ263">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR263">
         <v>1.4</v>
@@ -55899,7 +55935,7 @@
         <v>264</v>
       </c>
       <c r="P264" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55980,7 +56016,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ264">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR264">
         <v>1.52</v>
@@ -56186,7 +56222,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ265">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR265">
         <v>1.55</v>
@@ -56311,7 +56347,7 @@
         <v>266</v>
       </c>
       <c r="P266" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q266">
         <v>3.6</v>
@@ -56389,10 +56425,10 @@
         <v>1.71</v>
       </c>
       <c r="AP266">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ266">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -56517,7 +56553,7 @@
         <v>267</v>
       </c>
       <c r="P267" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q267">
         <v>3.75</v>
@@ -56801,10 +56837,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP268">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ268">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR268">
         <v>1.79</v>
@@ -56929,7 +56965,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57007,10 +57043,10 @@
         <v>1.14</v>
       </c>
       <c r="AP269">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ269">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57135,7 +57171,7 @@
         <v>270</v>
       </c>
       <c r="P270" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57213,7 +57249,7 @@
         <v>0.93</v>
       </c>
       <c r="AP270">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ270">
         <v>1</v>
@@ -57419,7 +57455,7 @@
         <v>1.07</v>
       </c>
       <c r="AP271">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ271">
         <v>0.9399999999999999</v>
@@ -57625,7 +57661,7 @@
         <v>0.67</v>
       </c>
       <c r="AP272">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ272">
         <v>0.76</v>
@@ -58040,7 +58076,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ274">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR274">
         <v>1.81</v>
@@ -58577,7 +58613,7 @@
         <v>274</v>
       </c>
       <c r="P277" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q277">
         <v>2.38</v>
@@ -58658,7 +58694,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ277">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR277">
         <v>1.54</v>
@@ -58783,7 +58819,7 @@
         <v>107</v>
       </c>
       <c r="P278" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q278">
         <v>1.95</v>
@@ -59195,7 +59231,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q280">
         <v>2.63</v>
@@ -59401,7 +59437,7 @@
         <v>92</v>
       </c>
       <c r="P281" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q281">
         <v>1.91</v>
@@ -59479,7 +59515,7 @@
         <v>0.87</v>
       </c>
       <c r="AP281">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ281">
         <v>1</v>
@@ -59607,7 +59643,7 @@
         <v>92</v>
       </c>
       <c r="P282" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59685,10 +59721,10 @@
         <v>1.67</v>
       </c>
       <c r="AP282">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ282">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR282">
         <v>1.65</v>
@@ -59813,7 +59849,7 @@
         <v>119</v>
       </c>
       <c r="P283" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59894,7 +59930,7 @@
         <v>1</v>
       </c>
       <c r="AQ283">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR283">
         <v>1.43</v>
@@ -60019,7 +60055,7 @@
         <v>276</v>
       </c>
       <c r="P284" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60097,10 +60133,10 @@
         <v>1.73</v>
       </c>
       <c r="AP284">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ284">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR284">
         <v>1.44</v>
@@ -60225,7 +60261,7 @@
         <v>92</v>
       </c>
       <c r="P285" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -60303,10 +60339,10 @@
         <v>1.67</v>
       </c>
       <c r="AP285">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ285">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR285">
         <v>1.63</v>
@@ -60509,10 +60545,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP286">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ286">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR286">
         <v>1.85</v>
@@ -60637,7 +60673,7 @@
         <v>277</v>
       </c>
       <c r="P287" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q287">
         <v>2.88</v>
@@ -60715,10 +60751,10 @@
         <v>1.33</v>
       </c>
       <c r="AP287">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ287">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR287">
         <v>1.58</v>
@@ -60843,7 +60879,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q288">
         <v>3.75</v>
@@ -60924,7 +60960,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR288">
         <v>1.46</v>
@@ -61461,7 +61497,7 @@
         <v>280</v>
       </c>
       <c r="P291" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q291">
         <v>4.5</v>
@@ -62285,7 +62321,7 @@
         <v>284</v>
       </c>
       <c r="P295" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q295">
         <v>1.83</v>
@@ -62491,7 +62527,7 @@
         <v>285</v>
       </c>
       <c r="P296" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q296">
         <v>3.75</v>
@@ -62697,7 +62733,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q297">
         <v>2.38</v>
@@ -62903,7 +62939,7 @@
         <v>234</v>
       </c>
       <c r="P298" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q298">
         <v>2.6</v>
@@ -63060,6 +63096,1860 @@
       </c>
       <c r="BP298">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7491794</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>86</v>
+      </c>
+      <c r="H299" t="s">
+        <v>81</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>4</v>
+      </c>
+      <c r="K299">
+        <v>4</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>4</v>
+      </c>
+      <c r="N299">
+        <v>5</v>
+      </c>
+      <c r="O299" t="s">
+        <v>157</v>
+      </c>
+      <c r="P299" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q299">
+        <v>2.2</v>
+      </c>
+      <c r="R299">
+        <v>2.5</v>
+      </c>
+      <c r="S299">
+        <v>4.33</v>
+      </c>
+      <c r="T299">
+        <v>1.25</v>
+      </c>
+      <c r="U299">
+        <v>3.75</v>
+      </c>
+      <c r="V299">
+        <v>2.2</v>
+      </c>
+      <c r="W299">
+        <v>1.62</v>
+      </c>
+      <c r="X299">
+        <v>5</v>
+      </c>
+      <c r="Y299">
+        <v>1.17</v>
+      </c>
+      <c r="Z299">
+        <v>1.72</v>
+      </c>
+      <c r="AA299">
+        <v>3.96</v>
+      </c>
+      <c r="AB299">
+        <v>4.2</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>13</v>
+      </c>
+      <c r="AE299">
+        <v>1.18</v>
+      </c>
+      <c r="AF299">
+        <v>4.75</v>
+      </c>
+      <c r="AG299">
+        <v>1.48</v>
+      </c>
+      <c r="AH299">
+        <v>2.54</v>
+      </c>
+      <c r="AI299">
+        <v>1.53</v>
+      </c>
+      <c r="AJ299">
+        <v>2.38</v>
+      </c>
+      <c r="AK299">
+        <v>1.2</v>
+      </c>
+      <c r="AL299">
+        <v>1.18</v>
+      </c>
+      <c r="AM299">
+        <v>2.1</v>
+      </c>
+      <c r="AN299">
+        <v>1.44</v>
+      </c>
+      <c r="AO299">
+        <v>1.19</v>
+      </c>
+      <c r="AP299">
+        <v>1.35</v>
+      </c>
+      <c r="AQ299">
+        <v>1.29</v>
+      </c>
+      <c r="AR299">
+        <v>1.45</v>
+      </c>
+      <c r="AS299">
+        <v>1.38</v>
+      </c>
+      <c r="AT299">
+        <v>2.83</v>
+      </c>
+      <c r="AU299">
+        <v>-1</v>
+      </c>
+      <c r="AV299">
+        <v>-1</v>
+      </c>
+      <c r="AW299">
+        <v>-1</v>
+      </c>
+      <c r="AX299">
+        <v>-1</v>
+      </c>
+      <c r="AY299">
+        <v>-1</v>
+      </c>
+      <c r="AZ299">
+        <v>-1</v>
+      </c>
+      <c r="BA299">
+        <v>-1</v>
+      </c>
+      <c r="BB299">
+        <v>-1</v>
+      </c>
+      <c r="BC299">
+        <v>-1</v>
+      </c>
+      <c r="BD299">
+        <v>1.7</v>
+      </c>
+      <c r="BE299">
+        <v>6.5</v>
+      </c>
+      <c r="BF299">
+        <v>2.4</v>
+      </c>
+      <c r="BG299">
+        <v>1.27</v>
+      </c>
+      <c r="BH299">
+        <v>3.3</v>
+      </c>
+      <c r="BI299">
+        <v>1.48</v>
+      </c>
+      <c r="BJ299">
+        <v>2.43</v>
+      </c>
+      <c r="BK299">
+        <v>1.77</v>
+      </c>
+      <c r="BL299">
+        <v>1.92</v>
+      </c>
+      <c r="BM299">
+        <v>2.18</v>
+      </c>
+      <c r="BN299">
+        <v>1.58</v>
+      </c>
+      <c r="BO299">
+        <v>2.8</v>
+      </c>
+      <c r="BP299">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7491787</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>80</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300">
+        <v>4</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>4</v>
+      </c>
+      <c r="O300" t="s">
+        <v>287</v>
+      </c>
+      <c r="P300" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q300">
+        <v>2</v>
+      </c>
+      <c r="R300">
+        <v>2.63</v>
+      </c>
+      <c r="S300">
+        <v>5</v>
+      </c>
+      <c r="T300">
+        <v>1.22</v>
+      </c>
+      <c r="U300">
+        <v>4</v>
+      </c>
+      <c r="V300">
+        <v>2.1</v>
+      </c>
+      <c r="W300">
+        <v>1.67</v>
+      </c>
+      <c r="X300">
+        <v>4.5</v>
+      </c>
+      <c r="Y300">
+        <v>1.18</v>
+      </c>
+      <c r="Z300">
+        <v>1.56</v>
+      </c>
+      <c r="AA300">
+        <v>4.4</v>
+      </c>
+      <c r="AB300">
+        <v>4.9</v>
+      </c>
+      <c r="AC300">
+        <v>1.01</v>
+      </c>
+      <c r="AD300">
+        <v>17</v>
+      </c>
+      <c r="AE300">
+        <v>1.13</v>
+      </c>
+      <c r="AF300">
+        <v>5.75</v>
+      </c>
+      <c r="AG300">
+        <v>1.37</v>
+      </c>
+      <c r="AH300">
+        <v>2.94</v>
+      </c>
+      <c r="AI300">
+        <v>1.53</v>
+      </c>
+      <c r="AJ300">
+        <v>2.38</v>
+      </c>
+      <c r="AK300">
+        <v>1.15</v>
+      </c>
+      <c r="AL300">
+        <v>1.15</v>
+      </c>
+      <c r="AM300">
+        <v>2.4</v>
+      </c>
+      <c r="AN300">
+        <v>1.75</v>
+      </c>
+      <c r="AO300">
+        <v>1.31</v>
+      </c>
+      <c r="AP300">
+        <v>1.82</v>
+      </c>
+      <c r="AQ300">
+        <v>1.24</v>
+      </c>
+      <c r="AR300">
+        <v>1.89</v>
+      </c>
+      <c r="AS300">
+        <v>1.43</v>
+      </c>
+      <c r="AT300">
+        <v>3.32</v>
+      </c>
+      <c r="AU300">
+        <v>9</v>
+      </c>
+      <c r="AV300">
+        <v>6</v>
+      </c>
+      <c r="AW300">
+        <v>8</v>
+      </c>
+      <c r="AX300">
+        <v>4</v>
+      </c>
+      <c r="AY300">
+        <v>18</v>
+      </c>
+      <c r="AZ300">
+        <v>11</v>
+      </c>
+      <c r="BA300">
+        <v>6</v>
+      </c>
+      <c r="BB300">
+        <v>5</v>
+      </c>
+      <c r="BC300">
+        <v>11</v>
+      </c>
+      <c r="BD300">
+        <v>1.47</v>
+      </c>
+      <c r="BE300">
+        <v>7</v>
+      </c>
+      <c r="BF300">
+        <v>2.95</v>
+      </c>
+      <c r="BG300">
+        <v>1.2</v>
+      </c>
+      <c r="BH300">
+        <v>3.9</v>
+      </c>
+      <c r="BI300">
+        <v>1.36</v>
+      </c>
+      <c r="BJ300">
+        <v>2.8</v>
+      </c>
+      <c r="BK300">
+        <v>1.58</v>
+      </c>
+      <c r="BL300">
+        <v>2.18</v>
+      </c>
+      <c r="BM300">
+        <v>1.93</v>
+      </c>
+      <c r="BN300">
+        <v>1.76</v>
+      </c>
+      <c r="BO300">
+        <v>2.4</v>
+      </c>
+      <c r="BP300">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7491788</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>76</v>
+      </c>
+      <c r="H301" t="s">
+        <v>79</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>3</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301" t="s">
+        <v>288</v>
+      </c>
+      <c r="P301" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q301">
+        <v>1.83</v>
+      </c>
+      <c r="R301">
+        <v>2.63</v>
+      </c>
+      <c r="S301">
+        <v>6</v>
+      </c>
+      <c r="T301">
+        <v>1.25</v>
+      </c>
+      <c r="U301">
+        <v>3.75</v>
+      </c>
+      <c r="V301">
+        <v>2.2</v>
+      </c>
+      <c r="W301">
+        <v>1.62</v>
+      </c>
+      <c r="X301">
+        <v>5</v>
+      </c>
+      <c r="Y301">
+        <v>1.17</v>
+      </c>
+      <c r="Z301">
+        <v>1.34</v>
+      </c>
+      <c r="AA301">
+        <v>5.2</v>
+      </c>
+      <c r="AB301">
+        <v>7.7</v>
+      </c>
+      <c r="AC301">
+        <v>1.01</v>
+      </c>
+      <c r="AD301">
+        <v>13</v>
+      </c>
+      <c r="AE301">
+        <v>1.17</v>
+      </c>
+      <c r="AF301">
+        <v>5</v>
+      </c>
+      <c r="AG301">
+        <v>1.42</v>
+      </c>
+      <c r="AH301">
+        <v>2.74</v>
+      </c>
+      <c r="AI301">
+        <v>1.67</v>
+      </c>
+      <c r="AJ301">
+        <v>2.1</v>
+      </c>
+      <c r="AK301">
+        <v>1.09</v>
+      </c>
+      <c r="AL301">
+        <v>1.13</v>
+      </c>
+      <c r="AM301">
+        <v>2.8</v>
+      </c>
+      <c r="AN301">
+        <v>1.56</v>
+      </c>
+      <c r="AO301">
+        <v>0.13</v>
+      </c>
+      <c r="AP301">
+        <v>1.65</v>
+      </c>
+      <c r="AQ301">
+        <v>0.12</v>
+      </c>
+      <c r="AR301">
+        <v>1.65</v>
+      </c>
+      <c r="AS301">
+        <v>1.25</v>
+      </c>
+      <c r="AT301">
+        <v>2.9</v>
+      </c>
+      <c r="AU301">
+        <v>6</v>
+      </c>
+      <c r="AV301">
+        <v>5</v>
+      </c>
+      <c r="AW301">
+        <v>8</v>
+      </c>
+      <c r="AX301">
+        <v>11</v>
+      </c>
+      <c r="AY301">
+        <v>16</v>
+      </c>
+      <c r="AZ301">
+        <v>21</v>
+      </c>
+      <c r="BA301">
+        <v>6</v>
+      </c>
+      <c r="BB301">
+        <v>7</v>
+      </c>
+      <c r="BC301">
+        <v>13</v>
+      </c>
+      <c r="BD301">
+        <v>1.3</v>
+      </c>
+      <c r="BE301">
+        <v>7.5</v>
+      </c>
+      <c r="BF301">
+        <v>3.8</v>
+      </c>
+      <c r="BG301">
+        <v>1.2</v>
+      </c>
+      <c r="BH301">
+        <v>3.95</v>
+      </c>
+      <c r="BI301">
+        <v>1.35</v>
+      </c>
+      <c r="BJ301">
+        <v>2.9</v>
+      </c>
+      <c r="BK301">
+        <v>1.58</v>
+      </c>
+      <c r="BL301">
+        <v>2.2</v>
+      </c>
+      <c r="BM301">
+        <v>1.91</v>
+      </c>
+      <c r="BN301">
+        <v>1.78</v>
+      </c>
+      <c r="BO301">
+        <v>2.33</v>
+      </c>
+      <c r="BP301">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7491789</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>71</v>
+      </c>
+      <c r="H302" t="s">
+        <v>85</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>3</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>3</v>
+      </c>
+      <c r="O302" t="s">
+        <v>289</v>
+      </c>
+      <c r="P302" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q302">
+        <v>4.5</v>
+      </c>
+      <c r="R302">
+        <v>2.63</v>
+      </c>
+      <c r="S302">
+        <v>2.1</v>
+      </c>
+      <c r="T302">
+        <v>1.22</v>
+      </c>
+      <c r="U302">
+        <v>4</v>
+      </c>
+      <c r="V302">
+        <v>2</v>
+      </c>
+      <c r="W302">
+        <v>1.73</v>
+      </c>
+      <c r="X302">
+        <v>4.33</v>
+      </c>
+      <c r="Y302">
+        <v>1.2</v>
+      </c>
+      <c r="Z302">
+        <v>4.3</v>
+      </c>
+      <c r="AA302">
+        <v>4.6</v>
+      </c>
+      <c r="AB302">
+        <v>1.61</v>
+      </c>
+      <c r="AC302">
+        <v>1.01</v>
+      </c>
+      <c r="AD302">
+        <v>17</v>
+      </c>
+      <c r="AE302">
+        <v>1.12</v>
+      </c>
+      <c r="AF302">
+        <v>6</v>
+      </c>
+      <c r="AG302">
+        <v>1.4</v>
+      </c>
+      <c r="AH302">
+        <v>2.82</v>
+      </c>
+      <c r="AI302">
+        <v>1.44</v>
+      </c>
+      <c r="AJ302">
+        <v>2.63</v>
+      </c>
+      <c r="AK302">
+        <v>2.2</v>
+      </c>
+      <c r="AL302">
+        <v>1.17</v>
+      </c>
+      <c r="AM302">
+        <v>1.2</v>
+      </c>
+      <c r="AN302">
+        <v>1.75</v>
+      </c>
+      <c r="AO302">
+        <v>1.75</v>
+      </c>
+      <c r="AP302">
+        <v>1.82</v>
+      </c>
+      <c r="AQ302">
+        <v>1.65</v>
+      </c>
+      <c r="AR302">
+        <v>1.61</v>
+      </c>
+      <c r="AS302">
+        <v>1.55</v>
+      </c>
+      <c r="AT302">
+        <v>3.16</v>
+      </c>
+      <c r="AU302">
+        <v>6</v>
+      </c>
+      <c r="AV302">
+        <v>3</v>
+      </c>
+      <c r="AW302">
+        <v>4</v>
+      </c>
+      <c r="AX302">
+        <v>12</v>
+      </c>
+      <c r="AY302">
+        <v>10</v>
+      </c>
+      <c r="AZ302">
+        <v>19</v>
+      </c>
+      <c r="BA302">
+        <v>2</v>
+      </c>
+      <c r="BB302">
+        <v>4</v>
+      </c>
+      <c r="BC302">
+        <v>6</v>
+      </c>
+      <c r="BD302">
+        <v>2.9</v>
+      </c>
+      <c r="BE302">
+        <v>7.5</v>
+      </c>
+      <c r="BF302">
+        <v>1.48</v>
+      </c>
+      <c r="BG302">
+        <v>1.17</v>
+      </c>
+      <c r="BH302">
+        <v>4.35</v>
+      </c>
+      <c r="BI302">
+        <v>1.3</v>
+      </c>
+      <c r="BJ302">
+        <v>3.15</v>
+      </c>
+      <c r="BK302">
+        <v>1.5</v>
+      </c>
+      <c r="BL302">
+        <v>2.38</v>
+      </c>
+      <c r="BM302">
+        <v>1.8</v>
+      </c>
+      <c r="BN302">
+        <v>1.89</v>
+      </c>
+      <c r="BO302">
+        <v>2.23</v>
+      </c>
+      <c r="BP302">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7491790</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>77</v>
+      </c>
+      <c r="H303" t="s">
+        <v>84</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>3</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+      <c r="N303">
+        <v>5</v>
+      </c>
+      <c r="O303" t="s">
+        <v>290</v>
+      </c>
+      <c r="P303" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q303">
+        <v>3.2</v>
+      </c>
+      <c r="R303">
+        <v>2.6</v>
+      </c>
+      <c r="S303">
+        <v>2.6</v>
+      </c>
+      <c r="T303">
+        <v>1.22</v>
+      </c>
+      <c r="U303">
+        <v>4</v>
+      </c>
+      <c r="V303">
+        <v>2</v>
+      </c>
+      <c r="W303">
+        <v>1.73</v>
+      </c>
+      <c r="X303">
+        <v>4.33</v>
+      </c>
+      <c r="Y303">
+        <v>1.2</v>
+      </c>
+      <c r="Z303">
+        <v>2.72</v>
+      </c>
+      <c r="AA303">
+        <v>4.33</v>
+      </c>
+      <c r="AB303">
+        <v>2.12</v>
+      </c>
+      <c r="AC303">
+        <v>1.01</v>
+      </c>
+      <c r="AD303">
+        <v>17</v>
+      </c>
+      <c r="AE303">
+        <v>1.1</v>
+      </c>
+      <c r="AF303">
+        <v>6.5</v>
+      </c>
+      <c r="AG303">
+        <v>1.38</v>
+      </c>
+      <c r="AH303">
+        <v>2.9</v>
+      </c>
+      <c r="AI303">
+        <v>1.36</v>
+      </c>
+      <c r="AJ303">
+        <v>3</v>
+      </c>
+      <c r="AK303">
+        <v>1.67</v>
+      </c>
+      <c r="AL303">
+        <v>1.18</v>
+      </c>
+      <c r="AM303">
+        <v>1.4</v>
+      </c>
+      <c r="AN303">
+        <v>1.25</v>
+      </c>
+      <c r="AO303">
+        <v>1.75</v>
+      </c>
+      <c r="AP303">
+        <v>1.35</v>
+      </c>
+      <c r="AQ303">
+        <v>1.65</v>
+      </c>
+      <c r="AR303">
+        <v>1.55</v>
+      </c>
+      <c r="AS303">
+        <v>1.74</v>
+      </c>
+      <c r="AT303">
+        <v>3.29</v>
+      </c>
+      <c r="AU303">
+        <v>6</v>
+      </c>
+      <c r="AV303">
+        <v>9</v>
+      </c>
+      <c r="AW303">
+        <v>6</v>
+      </c>
+      <c r="AX303">
+        <v>9</v>
+      </c>
+      <c r="AY303">
+        <v>17</v>
+      </c>
+      <c r="AZ303">
+        <v>22</v>
+      </c>
+      <c r="BA303">
+        <v>4</v>
+      </c>
+      <c r="BB303">
+        <v>7</v>
+      </c>
+      <c r="BC303">
+        <v>11</v>
+      </c>
+      <c r="BD303">
+        <v>2.05</v>
+      </c>
+      <c r="BE303">
+        <v>6.75</v>
+      </c>
+      <c r="BF303">
+        <v>1.93</v>
+      </c>
+      <c r="BG303">
+        <v>1.2</v>
+      </c>
+      <c r="BH303">
+        <v>3.9</v>
+      </c>
+      <c r="BI303">
+        <v>1.37</v>
+      </c>
+      <c r="BJ303">
+        <v>2.8</v>
+      </c>
+      <c r="BK303">
+        <v>1.6</v>
+      </c>
+      <c r="BL303">
+        <v>2.17</v>
+      </c>
+      <c r="BM303">
+        <v>1.95</v>
+      </c>
+      <c r="BN303">
+        <v>1.75</v>
+      </c>
+      <c r="BO303">
+        <v>2.43</v>
+      </c>
+      <c r="BP303">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7491791</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>73</v>
+      </c>
+      <c r="H304" t="s">
+        <v>72</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" t="s">
+        <v>164</v>
+      </c>
+      <c r="P304" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q304">
+        <v>2.38</v>
+      </c>
+      <c r="R304">
+        <v>2.5</v>
+      </c>
+      <c r="S304">
+        <v>3.75</v>
+      </c>
+      <c r="T304">
+        <v>1.25</v>
+      </c>
+      <c r="U304">
+        <v>3.75</v>
+      </c>
+      <c r="V304">
+        <v>2.1</v>
+      </c>
+      <c r="W304">
+        <v>1.67</v>
+      </c>
+      <c r="X304">
+        <v>4.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.18</v>
+      </c>
+      <c r="Z304">
+        <v>1.86</v>
+      </c>
+      <c r="AA304">
+        <v>4</v>
+      </c>
+      <c r="AB304">
+        <v>3.52</v>
+      </c>
+      <c r="AC304">
+        <v>1.01</v>
+      </c>
+      <c r="AD304">
+        <v>13</v>
+      </c>
+      <c r="AE304">
+        <v>1.15</v>
+      </c>
+      <c r="AF304">
+        <v>5.25</v>
+      </c>
+      <c r="AG304">
+        <v>1.48</v>
+      </c>
+      <c r="AH304">
+        <v>2.54</v>
+      </c>
+      <c r="AI304">
+        <v>1.44</v>
+      </c>
+      <c r="AJ304">
+        <v>2.63</v>
+      </c>
+      <c r="AK304">
+        <v>1.28</v>
+      </c>
+      <c r="AL304">
+        <v>1.2</v>
+      </c>
+      <c r="AM304">
+        <v>1.85</v>
+      </c>
+      <c r="AN304">
+        <v>1</v>
+      </c>
+      <c r="AO304">
+        <v>1.19</v>
+      </c>
+      <c r="AP304">
+        <v>1</v>
+      </c>
+      <c r="AQ304">
+        <v>1.18</v>
+      </c>
+      <c r="AR304">
+        <v>1.5</v>
+      </c>
+      <c r="AS304">
+        <v>1.47</v>
+      </c>
+      <c r="AT304">
+        <v>2.97</v>
+      </c>
+      <c r="AU304">
+        <v>-1</v>
+      </c>
+      <c r="AV304">
+        <v>-1</v>
+      </c>
+      <c r="AW304">
+        <v>-1</v>
+      </c>
+      <c r="AX304">
+        <v>-1</v>
+      </c>
+      <c r="AY304">
+        <v>-1</v>
+      </c>
+      <c r="AZ304">
+        <v>-1</v>
+      </c>
+      <c r="BA304">
+        <v>-1</v>
+      </c>
+      <c r="BB304">
+        <v>-1</v>
+      </c>
+      <c r="BC304">
+        <v>-1</v>
+      </c>
+      <c r="BD304">
+        <v>1.68</v>
+      </c>
+      <c r="BE304">
+        <v>6.75</v>
+      </c>
+      <c r="BF304">
+        <v>2.4</v>
+      </c>
+      <c r="BG304">
+        <v>1.17</v>
+      </c>
+      <c r="BH304">
+        <v>4.35</v>
+      </c>
+      <c r="BI304">
+        <v>1.3</v>
+      </c>
+      <c r="BJ304">
+        <v>3.15</v>
+      </c>
+      <c r="BK304">
+        <v>1.5</v>
+      </c>
+      <c r="BL304">
+        <v>2.4</v>
+      </c>
+      <c r="BM304">
+        <v>1.79</v>
+      </c>
+      <c r="BN304">
+        <v>1.9</v>
+      </c>
+      <c r="BO304">
+        <v>2.2</v>
+      </c>
+      <c r="BP304">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7491792</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>75</v>
+      </c>
+      <c r="H305" t="s">
+        <v>82</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>2</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305" t="s">
+        <v>208</v>
+      </c>
+      <c r="P305" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q305">
+        <v>4.5</v>
+      </c>
+      <c r="R305">
+        <v>2.6</v>
+      </c>
+      <c r="S305">
+        <v>2.1</v>
+      </c>
+      <c r="T305">
+        <v>1.22</v>
+      </c>
+      <c r="U305">
+        <v>4</v>
+      </c>
+      <c r="V305">
+        <v>2.1</v>
+      </c>
+      <c r="W305">
+        <v>1.67</v>
+      </c>
+      <c r="X305">
+        <v>4.5</v>
+      </c>
+      <c r="Y305">
+        <v>1.18</v>
+      </c>
+      <c r="Z305">
+        <v>4.5</v>
+      </c>
+      <c r="AA305">
+        <v>4.33</v>
+      </c>
+      <c r="AB305">
+        <v>1.61</v>
+      </c>
+      <c r="AC305">
+        <v>1.01</v>
+      </c>
+      <c r="AD305">
+        <v>17</v>
+      </c>
+      <c r="AE305">
+        <v>1.14</v>
+      </c>
+      <c r="AF305">
+        <v>5.5</v>
+      </c>
+      <c r="AG305">
+        <v>1.4</v>
+      </c>
+      <c r="AH305">
+        <v>2.82</v>
+      </c>
+      <c r="AI305">
+        <v>1.5</v>
+      </c>
+      <c r="AJ305">
+        <v>2.5</v>
+      </c>
+      <c r="AK305">
+        <v>2.2</v>
+      </c>
+      <c r="AL305">
+        <v>1.17</v>
+      </c>
+      <c r="AM305">
+        <v>1.18</v>
+      </c>
+      <c r="AN305">
+        <v>1.31</v>
+      </c>
+      <c r="AO305">
+        <v>1.56</v>
+      </c>
+      <c r="AP305">
+        <v>1.24</v>
+      </c>
+      <c r="AQ305">
+        <v>1.65</v>
+      </c>
+      <c r="AR305">
+        <v>1.64</v>
+      </c>
+      <c r="AS305">
+        <v>1.4</v>
+      </c>
+      <c r="AT305">
+        <v>3.04</v>
+      </c>
+      <c r="AU305">
+        <v>-1</v>
+      </c>
+      <c r="AV305">
+        <v>-1</v>
+      </c>
+      <c r="AW305">
+        <v>-1</v>
+      </c>
+      <c r="AX305">
+        <v>-1</v>
+      </c>
+      <c r="AY305">
+        <v>-1</v>
+      </c>
+      <c r="AZ305">
+        <v>-1</v>
+      </c>
+      <c r="BA305">
+        <v>-1</v>
+      </c>
+      <c r="BB305">
+        <v>-1</v>
+      </c>
+      <c r="BC305">
+        <v>-1</v>
+      </c>
+      <c r="BD305">
+        <v>2.48</v>
+      </c>
+      <c r="BE305">
+        <v>6.75</v>
+      </c>
+      <c r="BF305">
+        <v>1.64</v>
+      </c>
+      <c r="BG305">
+        <v>1.25</v>
+      </c>
+      <c r="BH305">
+        <v>3.45</v>
+      </c>
+      <c r="BI305">
+        <v>1.44</v>
+      </c>
+      <c r="BJ305">
+        <v>2.55</v>
+      </c>
+      <c r="BK305">
+        <v>1.72</v>
+      </c>
+      <c r="BL305">
+        <v>1.98</v>
+      </c>
+      <c r="BM305">
+        <v>2.1</v>
+      </c>
+      <c r="BN305">
+        <v>1.64</v>
+      </c>
+      <c r="BO305">
+        <v>2.7</v>
+      </c>
+      <c r="BP305">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7491793</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>74</v>
+      </c>
+      <c r="H306" t="s">
+        <v>83</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+      <c r="M306">
+        <v>2</v>
+      </c>
+      <c r="N306">
+        <v>6</v>
+      </c>
+      <c r="O306" t="s">
+        <v>291</v>
+      </c>
+      <c r="P306" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q306">
+        <v>2.75</v>
+      </c>
+      <c r="R306">
+        <v>2.5</v>
+      </c>
+      <c r="S306">
+        <v>3.1</v>
+      </c>
+      <c r="T306">
+        <v>1.22</v>
+      </c>
+      <c r="U306">
+        <v>4</v>
+      </c>
+      <c r="V306">
+        <v>2</v>
+      </c>
+      <c r="W306">
+        <v>1.73</v>
+      </c>
+      <c r="X306">
+        <v>4.33</v>
+      </c>
+      <c r="Y306">
+        <v>1.2</v>
+      </c>
+      <c r="Z306">
+        <v>2.2</v>
+      </c>
+      <c r="AA306">
+        <v>3.98</v>
+      </c>
+      <c r="AB306">
+        <v>2.75</v>
+      </c>
+      <c r="AC306">
+        <v>1.01</v>
+      </c>
+      <c r="AD306">
+        <v>17</v>
+      </c>
+      <c r="AE306">
+        <v>1.14</v>
+      </c>
+      <c r="AF306">
+        <v>5.5</v>
+      </c>
+      <c r="AG306">
+        <v>1.42</v>
+      </c>
+      <c r="AH306">
+        <v>2.74</v>
+      </c>
+      <c r="AI306">
+        <v>1.4</v>
+      </c>
+      <c r="AJ306">
+        <v>2.75</v>
+      </c>
+      <c r="AK306">
+        <v>1.42</v>
+      </c>
+      <c r="AL306">
+        <v>1.2</v>
+      </c>
+      <c r="AM306">
+        <v>1.65</v>
+      </c>
+      <c r="AN306">
+        <v>1.19</v>
+      </c>
+      <c r="AO306">
+        <v>1.69</v>
+      </c>
+      <c r="AP306">
+        <v>1.29</v>
+      </c>
+      <c r="AQ306">
+        <v>1.59</v>
+      </c>
+      <c r="AR306">
+        <v>1.77</v>
+      </c>
+      <c r="AS306">
+        <v>1.25</v>
+      </c>
+      <c r="AT306">
+        <v>3.02</v>
+      </c>
+      <c r="AU306">
+        <v>-1</v>
+      </c>
+      <c r="AV306">
+        <v>-1</v>
+      </c>
+      <c r="AW306">
+        <v>-1</v>
+      </c>
+      <c r="AX306">
+        <v>-1</v>
+      </c>
+      <c r="AY306">
+        <v>-1</v>
+      </c>
+      <c r="AZ306">
+        <v>-1</v>
+      </c>
+      <c r="BA306">
+        <v>-1</v>
+      </c>
+      <c r="BB306">
+        <v>-1</v>
+      </c>
+      <c r="BC306">
+        <v>-1</v>
+      </c>
+      <c r="BD306">
+        <v>1.79</v>
+      </c>
+      <c r="BE306">
+        <v>6.75</v>
+      </c>
+      <c r="BF306">
+        <v>2.2</v>
+      </c>
+      <c r="BG306">
+        <v>1.2</v>
+      </c>
+      <c r="BH306">
+        <v>3.95</v>
+      </c>
+      <c r="BI306">
+        <v>1.35</v>
+      </c>
+      <c r="BJ306">
+        <v>2.9</v>
+      </c>
+      <c r="BK306">
+        <v>1.57</v>
+      </c>
+      <c r="BL306">
+        <v>2.2</v>
+      </c>
+      <c r="BM306">
+        <v>1.9</v>
+      </c>
+      <c r="BN306">
+        <v>1.79</v>
+      </c>
+      <c r="BO306">
+        <v>2.35</v>
+      </c>
+      <c r="BP306">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7491795</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45795.4375</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>78</v>
+      </c>
+      <c r="H307" t="s">
+        <v>87</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>4</v>
+      </c>
+      <c r="O307" t="s">
+        <v>292</v>
+      </c>
+      <c r="P307" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q307">
+        <v>4</v>
+      </c>
+      <c r="R307">
+        <v>2.38</v>
+      </c>
+      <c r="S307">
+        <v>2.5</v>
+      </c>
+      <c r="T307">
+        <v>1.3</v>
+      </c>
+      <c r="U307">
+        <v>3.4</v>
+      </c>
+      <c r="V307">
+        <v>2.5</v>
+      </c>
+      <c r="W307">
+        <v>1.5</v>
+      </c>
+      <c r="X307">
+        <v>6</v>
+      </c>
+      <c r="Y307">
+        <v>1.13</v>
+      </c>
+      <c r="Z307">
+        <v>3.55</v>
+      </c>
+      <c r="AA307">
+        <v>3.77</v>
+      </c>
+      <c r="AB307">
+        <v>1.91</v>
+      </c>
+      <c r="AC307">
+        <v>1.04</v>
+      </c>
+      <c r="AD307">
+        <v>10</v>
+      </c>
+      <c r="AE307">
+        <v>1.2</v>
+      </c>
+      <c r="AF307">
+        <v>4.33</v>
+      </c>
+      <c r="AG307">
+        <v>1.67</v>
+      </c>
+      <c r="AH307">
+        <v>2</v>
+      </c>
+      <c r="AI307">
+        <v>1.62</v>
+      </c>
+      <c r="AJ307">
+        <v>2.2</v>
+      </c>
+      <c r="AK307">
+        <v>1.8</v>
+      </c>
+      <c r="AL307">
+        <v>1.22</v>
+      </c>
+      <c r="AM307">
+        <v>1.3</v>
+      </c>
+      <c r="AN307">
+        <v>1</v>
+      </c>
+      <c r="AO307">
+        <v>1</v>
+      </c>
+      <c r="AP307">
+        <v>1</v>
+      </c>
+      <c r="AQ307">
+        <v>1</v>
+      </c>
+      <c r="AR307">
+        <v>1.47</v>
+      </c>
+      <c r="AS307">
+        <v>1.36</v>
+      </c>
+      <c r="AT307">
+        <v>2.83</v>
+      </c>
+      <c r="AU307">
+        <v>-1</v>
+      </c>
+      <c r="AV307">
+        <v>-1</v>
+      </c>
+      <c r="AW307">
+        <v>-1</v>
+      </c>
+      <c r="AX307">
+        <v>-1</v>
+      </c>
+      <c r="AY307">
+        <v>-1</v>
+      </c>
+      <c r="AZ307">
+        <v>-1</v>
+      </c>
+      <c r="BA307">
+        <v>-1</v>
+      </c>
+      <c r="BB307">
+        <v>-1</v>
+      </c>
+      <c r="BC307">
+        <v>-1</v>
+      </c>
+      <c r="BD307">
+        <v>2.18</v>
+      </c>
+      <c r="BE307">
+        <v>6.75</v>
+      </c>
+      <c r="BF307">
+        <v>1.81</v>
+      </c>
+      <c r="BG307">
+        <v>1.22</v>
+      </c>
+      <c r="BH307">
+        <v>3.65</v>
+      </c>
+      <c r="BI307">
+        <v>1.41</v>
+      </c>
+      <c r="BJ307">
+        <v>2.65</v>
+      </c>
+      <c r="BK307">
+        <v>1.67</v>
+      </c>
+      <c r="BL307">
+        <v>2.05</v>
+      </c>
+      <c r="BM307">
+        <v>2.04</v>
+      </c>
+      <c r="BN307">
+        <v>1.67</v>
+      </c>
+      <c r="BO307">
+        <v>2.55</v>
+      </c>
+      <c r="BP307">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -63238,31 +63238,31 @@
         <v>2.83</v>
       </c>
       <c r="AU299">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV299">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW299">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX299">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY299">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ299">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA299">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB299">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC299">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD299">
         <v>1.7</v>
@@ -64268,31 +64268,31 @@
         <v>2.97</v>
       </c>
       <c r="AU304">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV304">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW304">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX304">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY304">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ304">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA304">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB304">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC304">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BD304">
         <v>1.68</v>
@@ -64474,31 +64474,31 @@
         <v>3.04</v>
       </c>
       <c r="AU305">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV305">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW305">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX305">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY305">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ305">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA305">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB305">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC305">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD305">
         <v>2.48</v>
@@ -64680,31 +64680,31 @@
         <v>3.02</v>
       </c>
       <c r="AU306">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV306">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW306">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX306">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY306">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ306">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA306">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB306">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC306">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD306">
         <v>1.79</v>
@@ -64886,31 +64886,31 @@
         <v>2.83</v>
       </c>
       <c r="AU307">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV307">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW307">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX307">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY307">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ307">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB307">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC307">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD307">
         <v>2.18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany 2. Bundesliga_20242025.xlsx
@@ -64286,13 +64286,13 @@
         <v>14</v>
       </c>
       <c r="BA304">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC304">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD304">
         <v>1.68</v>
